--- a/data/Top_Stocks.xlsx
+++ b/data/Top_Stocks.xlsx
@@ -593,7 +593,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T2" t="n">
-        <v>2.301199145252322</v>
+        <v>0.4489057924994797</v>
       </c>
     </row>
     <row r="3">
@@ -655,7 +655,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T3" t="n">
-        <v>2.944990749804614</v>
+        <v>0.5379285519124672</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T4" t="n">
-        <v>1.275612297119609</v>
+        <v>0.1950199481603847</v>
       </c>
     </row>
     <row r="5">
@@ -787,7 +787,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T5" t="n">
-        <v>2.322207732434272</v>
+        <v>0.4522756868442979</v>
       </c>
     </row>
     <row r="6">
@@ -853,7 +853,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T6" t="n">
-        <v>2.820446624384864</v>
+        <v>0.5226397802392109</v>
       </c>
     </row>
     <row r="7">
@@ -919,7 +919,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T7" t="n">
-        <v>2.002588935803156</v>
+        <v>0.3961528167219717</v>
       </c>
     </row>
     <row r="8">
@@ -985,7 +985,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T8" t="n">
-        <v>6.139020485056878</v>
+        <v>0.7907399419808243</v>
       </c>
     </row>
     <row r="9">
@@ -1051,7 +1051,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T9" t="n">
-        <v>1.787940727980714</v>
+        <v>0.3509623070594905</v>
       </c>
     </row>
     <row r="10">
@@ -1117,7 +1117,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T10" t="n">
-        <v>4.442498827227713</v>
+        <v>0.6800695084548574</v>
       </c>
     </row>
     <row r="11">
@@ -1183,7 +1183,7 @@
         <v>78.85286867621187</v>
       </c>
       <c r="T11" t="n">
-        <v>1.885210360169984</v>
+        <v>0.3738392626420184</v>
       </c>
     </row>
     <row r="12">
@@ -1249,7 +1249,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T12" t="n">
-        <v>8.130570444508276</v>
+        <v>0.8879697012332854</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1315,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T13" t="n">
-        <v>1.525581541311088</v>
+        <v>0.282872362911984</v>
       </c>
     </row>
     <row r="14">
@@ -1381,7 +1381,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T14" t="n">
-        <v>1.994519325627284</v>
+        <v>0.3945811669860129</v>
       </c>
     </row>
     <row r="15">
@@ -1447,7 +1447,7 @@
         <v>71.50382115620025</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85434405277174</v>
+        <v>0.3841963883556125</v>
       </c>
     </row>
     <row r="16">
@@ -1513,7 +1513,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T16" t="n">
-        <v>1.084565084534415</v>
+        <v>0.09580744246513762</v>
       </c>
     </row>
     <row r="17">
@@ -1579,7 +1579,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T17" t="n">
-        <v>4.080038511432155</v>
+        <v>0.6509376779309797</v>
       </c>
     </row>
     <row r="18">
@@ -1645,7 +1645,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T18" t="n">
-        <v>1.103004282319303</v>
+        <v>0.1075134361395451</v>
       </c>
     </row>
     <row r="19">
@@ -1711,7 +1711,7 @@
         <v>20.25480538202634</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2341398232200171</v>
+        <v>-0.1565322871387893</v>
       </c>
     </row>
     <row r="20">
@@ -1777,7 +1777,7 @@
         <v>42.88922293342031</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7404007455007316</v>
+        <v>0.1265743010866756</v>
       </c>
     </row>
     <row r="21">
@@ -1843,7 +1843,7 @@
         <v>67.88217291451005</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33067189113654</v>
+        <v>0.2612349495017814</v>
       </c>
     </row>
     <row r="22">
@@ -1909,7 +1909,7 @@
         <v>31.05351271443643</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4486966459774049</v>
+        <v>0.00137379250965064</v>
       </c>
     </row>
     <row r="23">
@@ -1975,7 +1975,7 @@
         <v>71.89919159524224</v>
       </c>
       <c r="T23" t="n">
-        <v>2.157376582959731</v>
+        <v>0.4392437554096755</v>
       </c>
     </row>
     <row r="24">
@@ -2037,7 +2037,7 @@
         <v>27.66918277051278</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4584917300271922</v>
+        <v>0.04979689526263664</v>
       </c>
     </row>
     <row r="25">
@@ -2103,7 +2103,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T25" t="n">
-        <v>1.243187374969341</v>
+        <v>0.1809022923245684</v>
       </c>
     </row>
     <row r="26">
@@ -2169,7 +2169,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T26" t="n">
-        <v>5.196518594420897</v>
+        <v>0.7336472846846749</v>
       </c>
     </row>
     <row r="27">
@@ -2235,7 +2235,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T27" t="n">
-        <v>1.533167171236121</v>
+        <v>0.2851117273591635</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2301,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T28" t="n">
-        <v>3.586169674840836</v>
+        <v>0.6065760128763547</v>
       </c>
     </row>
     <row r="29">
@@ -2367,7 +2367,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T29" t="n">
-        <v>8.119066016299271</v>
+        <v>0.8874752537483663</v>
       </c>
     </row>
     <row r="30">
@@ -2433,7 +2433,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T30" t="n">
-        <v>7.772507580377508</v>
+        <v>0.8722677524320275</v>
       </c>
     </row>
     <row r="31">
@@ -2499,7 +2499,7 @@
         <v>51.14643647838282</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7086862535424121</v>
+        <v>0.0395637281512653</v>
       </c>
     </row>
     <row r="32">
@@ -2565,7 +2565,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T32" t="n">
-        <v>2.5479786832929</v>
+        <v>0.486233179906268</v>
       </c>
     </row>
     <row r="33">
@@ -2631,7 +2631,7 @@
         <v>78.38523010620676</v>
       </c>
       <c r="T33" t="n">
-        <v>3.4156946432362</v>
+        <v>0.5910453751418778</v>
       </c>
     </row>
     <row r="34">
@@ -2697,7 +2697,7 @@
         <v>49.08963620797418</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9745893024844018</v>
+        <v>0.2071917446097935</v>
       </c>
     </row>
     <row r="35">
@@ -2763,7 +2763,7 @@
         <v>67.32326600772863</v>
       </c>
       <c r="T35" t="n">
-        <v>2.087583269077712</v>
+        <v>0.4362679961564413</v>
       </c>
     </row>
     <row r="36">
@@ -2829,7 +2829,7 @@
         <v>52.54234472552474</v>
       </c>
       <c r="T36" t="n">
-        <v>1.129005152935912</v>
+        <v>0.2506492278858519</v>
       </c>
     </row>
     <row r="37">
@@ -2895,7 +2895,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T37" t="n">
-        <v>1.843300372405363</v>
+        <v>0.3633491496255794</v>
       </c>
     </row>
     <row r="38">
@@ -2961,7 +2961,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T38" t="n">
-        <v>1.672991403348598</v>
+        <v>0.3232637977495592</v>
       </c>
     </row>
     <row r="39">
@@ -3027,7 +3027,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T39" t="n">
-        <v>1.25899872906023</v>
+        <v>0.1878913114143799</v>
       </c>
     </row>
     <row r="40">
@@ -3093,7 +3093,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T40" t="n">
-        <v>1.592914699125473</v>
+        <v>0.3021016782643604</v>
       </c>
     </row>
     <row r="41">
@@ -3159,7 +3159,7 @@
         <v>60.47719599336233</v>
       </c>
       <c r="T41" t="n">
-        <v>1.874525730466784</v>
+        <v>0.4125348677166183</v>
       </c>
     </row>
     <row r="42">
@@ -3225,7 +3225,7 @@
         <v>52.5539117539753</v>
       </c>
       <c r="T42" t="n">
-        <v>1.113614411130685</v>
+        <v>0.2452412280441283</v>
       </c>
     </row>
     <row r="43">
@@ -3291,7 +3291,7 @@
         <v>58.63922996665536</v>
       </c>
       <c r="T43" t="n">
-        <v>1.188930403996379</v>
+        <v>0.2477446430146124</v>
       </c>
     </row>
     <row r="44">
@@ -3357,7 +3357,7 @@
         <v>75.1010696379612</v>
       </c>
       <c r="T44" t="n">
-        <v>2.060401914334331</v>
+        <v>0.4160873486258811</v>
       </c>
     </row>
     <row r="45">
@@ -3423,7 +3423,7 @@
         <v>39.70748996764812</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7445582808221948</v>
+        <v>0.1493528140798879</v>
       </c>
     </row>
     <row r="46">
@@ -3489,7 +3489,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T46" t="n">
-        <v>6.779929097150322</v>
+        <v>0.8249239014371608</v>
       </c>
     </row>
     <row r="47">
@@ -3555,7 +3555,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T47" t="n">
-        <v>2.353334838550835</v>
+        <v>0.4571978771188459</v>
       </c>
     </row>
     <row r="48">
@@ -3677,7 +3677,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T49" t="n">
-        <v>1.561904079921088</v>
+        <v>0.293422782060059</v>
       </c>
     </row>
     <row r="50">
@@ -3743,7 +3743,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T50" t="n">
-        <v>2.766232495853714</v>
+        <v>0.5157375032949612</v>
       </c>
     </row>
     <row r="51">
@@ -3809,7 +3809,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T51" t="n">
-        <v>3.677045675644592</v>
+        <v>0.6152068585039989</v>
       </c>
     </row>
     <row r="52">
@@ -3871,7 +3871,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T52" t="n">
-        <v>3.392000124434484</v>
+        <v>0.5873175248628624</v>
       </c>
     </row>
     <row r="53">
@@ -3937,7 +3937,7 @@
         <v>73.06259579333476</v>
       </c>
       <c r="T53" t="n">
-        <v>1.862594393830562</v>
+        <v>0.3823472949918132</v>
       </c>
     </row>
     <row r="54">
@@ -4003,7 +4003,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T54" t="n">
-        <v>9.810786909540639</v>
+        <v>0.95407281512304</v>
       </c>
     </row>
     <row r="55">
@@ -4069,7 +4069,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T55" t="n">
-        <v>5.914955031430672</v>
+        <v>0.7779787666296132</v>
       </c>
     </row>
     <row r="56">
@@ -4135,7 +4135,7 @@
         <v>33.91594496924451</v>
       </c>
       <c r="T56" t="n">
-        <v>0.6660165928495393</v>
+        <v>0.1433914825111275</v>
       </c>
     </row>
     <row r="57">
@@ -4201,7 +4201,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T57" t="n">
-        <v>2.632862710774555</v>
+        <v>0.4980552934101554</v>
       </c>
     </row>
     <row r="58">
@@ -4267,7 +4267,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T58" t="n">
-        <v>2.029487121499402</v>
+        <v>0.401328620901422</v>
       </c>
     </row>
     <row r="59">
@@ -4333,7 +4333,7 @@
         <v>38.5024366599919</v>
       </c>
       <c r="T59" t="n">
-        <v>0.8318174107881955</v>
+        <v>0.1985494385835256</v>
       </c>
     </row>
     <row r="60">
@@ -4399,7 +4399,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T60" t="n">
-        <v>3.182263527515026</v>
+        <v>0.5651114547591343</v>
       </c>
     </row>
     <row r="61">
@@ -4465,7 +4465,7 @@
         <v>39.13565453125074</v>
       </c>
       <c r="T61" t="n">
-        <v>0.8248439823254478</v>
+        <v>0.1921155056507835</v>
       </c>
     </row>
     <row r="62">
@@ -4531,7 +4531,7 @@
         <v>50.21976135047367</v>
       </c>
       <c r="T62" t="n">
-        <v>2.801071638763282</v>
+        <v>0.5635648110265448</v>
       </c>
     </row>
     <row r="63">
@@ -4597,7 +4597,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T63" t="n">
-        <v>3.033523021407069</v>
+        <v>0.5483518241575343</v>
       </c>
     </row>
     <row r="64">
@@ -4663,7 +4663,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T64" t="n">
-        <v>2.498453582279155</v>
+        <v>0.4791122545173063</v>
       </c>
     </row>
     <row r="65">
@@ -4729,7 +4729,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T65" t="n">
-        <v>2.09659770659164</v>
+        <v>0.4138408751561486</v>
       </c>
     </row>
     <row r="66">
@@ -4795,7 +4795,7 @@
         <v>68.16416606415464</v>
       </c>
       <c r="T66" t="n">
-        <v>1.606487117117182</v>
+        <v>0.3374341992393515</v>
       </c>
     </row>
     <row r="67">
@@ -4861,7 +4861,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T67" t="n">
-        <v>2.407091886119233</v>
+        <v>0.4655077465952164</v>
       </c>
     </row>
     <row r="68">
@@ -4983,7 +4983,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T69" t="n">
-        <v>3.997179146797766</v>
+        <v>0.6439027616547597</v>
       </c>
     </row>
     <row r="70">
@@ -5049,7 +5049,7 @@
         <v>39.12724249216108</v>
       </c>
       <c r="T70" t="n">
-        <v>0.6871874406994199</v>
+        <v>0.1201791976723765</v>
       </c>
     </row>
     <row r="71">
@@ -5115,7 +5115,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T71" t="n">
-        <v>6.022729245672523</v>
+        <v>0.7841738018018998</v>
       </c>
     </row>
     <row r="72">
@@ -5181,7 +5181,7 @@
         <v>19.74892268819649</v>
       </c>
       <c r="T72" t="n">
-        <v>0.2781704198757604</v>
+        <v>-0.05172778519202326</v>
       </c>
     </row>
     <row r="73">
@@ -5247,7 +5247,7 @@
         <v>60.18503116808004</v>
       </c>
       <c r="T73" t="n">
-        <v>2.042709615063956</v>
+        <v>0.4427591463032778</v>
       </c>
     </row>
     <row r="74">
@@ -5313,7 +5313,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T74" t="n">
-        <v>14.01873740846567</v>
+        <v>1.083003737994724</v>
       </c>
     </row>
     <row r="75">
@@ -5379,7 +5379,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T75" t="n">
-        <v>2.394663697792175</v>
+        <v>0.4636074524651679</v>
       </c>
     </row>
     <row r="76">
@@ -5445,7 +5445,7 @@
         <v>44.97724372224751</v>
       </c>
       <c r="T76" t="n">
-        <v>1.909646582293377</v>
+        <v>0.4524669012728288</v>
       </c>
     </row>
     <row r="77">
@@ -5511,7 +5511,7 @@
         <v>42.35004305546572</v>
       </c>
       <c r="T77" t="n">
-        <v>0.82501115760999</v>
+        <v>0.1748078404576068</v>
       </c>
     </row>
     <row r="78">
@@ -5577,7 +5577,7 @@
         <v>60.63252577684857</v>
       </c>
       <c r="T78" t="n">
-        <v>2.085048966087807</v>
+        <v>0.4488789607604866</v>
       </c>
     </row>
     <row r="79">
@@ -5643,7 +5643,7 @@
         <v>53.49308849005374</v>
       </c>
       <c r="T79" t="n">
-        <v>1.354690279623937</v>
+        <v>0.3155937856644531</v>
       </c>
     </row>
     <row r="80">
@@ -5709,7 +5709,7 @@
         <v>68.16517752865101</v>
       </c>
       <c r="T80" t="n">
-        <v>3.114768260120673</v>
+        <v>0.5723865250115996</v>
       </c>
     </row>
     <row r="81">
@@ -5775,7 +5775,7 @@
         <v>45.34292727335862</v>
       </c>
       <c r="T81" t="n">
-        <v>1.139898060670623</v>
+        <v>0.2814122984704617</v>
       </c>
     </row>
     <row r="82">
@@ -5841,7 +5841,7 @@
         <v>31.2083555818036</v>
       </c>
       <c r="T82" t="n">
-        <v>0.7793333812610408</v>
+        <v>0.214691690394371</v>
       </c>
     </row>
     <row r="83">
@@ -5963,7 +5963,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T84" t="n">
-        <v>3.995323895732262</v>
+        <v>0.6437435139671512</v>
       </c>
     </row>
     <row r="85">
@@ -6025,7 +6025,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T85" t="n">
-        <v>4.262484936624023</v>
+        <v>0.6659196080846435</v>
       </c>
     </row>
     <row r="86">
@@ -6091,7 +6091,7 @@
         <v>54.06041483976104</v>
       </c>
       <c r="T86" t="n">
-        <v>2.113741574650783</v>
+        <v>0.4662367643587135</v>
       </c>
     </row>
     <row r="87">
@@ -6157,7 +6157,7 @@
         <v>25.99233161706424</v>
       </c>
       <c r="T87" t="n">
-        <v>0.4376086964502784</v>
+        <v>0.04893786247607901</v>
       </c>
     </row>
     <row r="88">
@@ -6223,7 +6223,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T88" t="n">
-        <v>7.917162837371781</v>
+        <v>0.8786904097207977</v>
       </c>
     </row>
     <row r="89">
@@ -6289,7 +6289,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T89" t="n">
-        <v>4.325527812178008</v>
+        <v>0.6709434582713596</v>
       </c>
     </row>
     <row r="90">
@@ -6355,7 +6355,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T90" t="n">
-        <v>3.19420869784725</v>
+        <v>0.5664191443551636</v>
       </c>
     </row>
     <row r="91">
@@ -6421,7 +6421,7 @@
         <v>42.91884324570856</v>
       </c>
       <c r="T91" t="n">
-        <v>0.7925910392074575</v>
+        <v>0.1553417116991427</v>
       </c>
     </row>
     <row r="92">
@@ -6487,7 +6487,7 @@
         <v>66.70897316921287</v>
       </c>
       <c r="T92" t="n">
-        <v>2.751596597600128</v>
+        <v>0.5326387814052373</v>
       </c>
     </row>
     <row r="93">
@@ -6553,7 +6553,7 @@
         <v>41.4433837761479</v>
       </c>
       <c r="T93" t="n">
-        <v>1.045589075873851</v>
+        <v>0.26624165014783</v>
       </c>
     </row>
     <row r="94">
@@ -6619,7 +6619,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T94" t="n">
-        <v>4.887071175734627</v>
+        <v>0.7126648424497746</v>
       </c>
     </row>
     <row r="95">
@@ -6685,7 +6685,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T95" t="n">
-        <v>3.674959845428889</v>
+        <v>0.6150113275441718</v>
       </c>
     </row>
     <row r="96">
@@ -6807,7 +6807,7 @@
         <v>29.79281152330486</v>
       </c>
       <c r="T97" t="n">
-        <v>0.3897789218971072</v>
+        <v>-0.05619115145231079</v>
       </c>
     </row>
     <row r="98">
@@ -6873,7 +6873,7 @@
         <v>31.99745917011508</v>
       </c>
       <c r="T98" t="n">
-        <v>0.6170159578462999</v>
+        <v>0.1280931596554546</v>
       </c>
     </row>
     <row r="99">
@@ -6935,7 +6935,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T99" t="n">
-        <v>8.737819760696878</v>
+        <v>0.9131938422948214</v>
       </c>
     </row>
     <row r="100">
@@ -7001,7 +7001,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T100" t="n">
-        <v>3.664435966422845</v>
+        <v>0.6140229831929014</v>
       </c>
     </row>
     <row r="101">
@@ -7067,7 +7067,7 @@
         <v>36.89059232685935</v>
       </c>
       <c r="T101" t="n">
-        <v>0.6532055346174794</v>
+        <v>0.1149612438651055</v>
       </c>
     </row>
     <row r="102">
@@ -7133,7 +7133,7 @@
         <v>73.30392912716668</v>
       </c>
       <c r="T102" t="n">
-        <v>1.802164236382042</v>
+        <v>0.3691088976167904</v>
       </c>
     </row>
     <row r="103">
@@ -7199,7 +7199,7 @@
         <v>49.13572639460301</v>
       </c>
       <c r="T103" t="n">
-        <v>1.407611601207608</v>
+        <v>0.3421787654142219</v>
       </c>
     </row>
     <row r="104">
@@ -7265,7 +7265,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T104" t="n">
-        <v>9.587211801591083</v>
+        <v>0.9459031678466796</v>
       </c>
     </row>
     <row r="105">
@@ -7331,7 +7331,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T105" t="n">
-        <v>5.240734223852862</v>
+        <v>0.7365439852962272</v>
       </c>
     </row>
     <row r="106">
@@ -7397,7 +7397,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T106" t="n">
-        <v>1.584435935649848</v>
+        <v>0.2997574043191196</v>
       </c>
     </row>
     <row r="107">
@@ -7463,7 +7463,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T107" t="n">
-        <v>8.310217168494562</v>
+        <v>0.8956079886217645</v>
       </c>
     </row>
     <row r="108">
@@ -7529,7 +7529,7 @@
         <v>31.19399498227725</v>
       </c>
       <c r="T108" t="n">
-        <v>0.8063689317463059</v>
+        <v>0.2259258232859667</v>
       </c>
     </row>
     <row r="109">
@@ -7595,7 +7595,7 @@
         <v>49.36851690309769</v>
       </c>
       <c r="T109" t="n">
-        <v>1.148360762041811</v>
+        <v>0.269190200682998</v>
       </c>
     </row>
     <row r="110">
@@ -7661,7 +7661,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T110" t="n">
-        <v>7.323403999671936</v>
+        <v>0.8515934754933876</v>
       </c>
     </row>
     <row r="111">
@@ -7727,7 +7727,7 @@
         <v>58.10482026003149</v>
       </c>
       <c r="T111" t="n">
-        <v>2.61500838973762</v>
+        <v>0.5288827778811114</v>
       </c>
     </row>
     <row r="112">
@@ -7793,7 +7793,7 @@
         <v>26.33169021434708</v>
       </c>
       <c r="T112" t="n">
-        <v>0.3818703257442306</v>
+        <v>-0.01393544112052414</v>
       </c>
     </row>
     <row r="113">
@@ -7859,7 +7859,7 @@
         <v>24.9145447384862</v>
       </c>
       <c r="T113" t="n">
-        <v>0.4931920858207579</v>
+        <v>0.1039965114035601</v>
       </c>
     </row>
     <row r="114">
@@ -7921,7 +7921,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T114" t="n">
-        <v>6.180482382038129</v>
+        <v>0.7930521685788938</v>
       </c>
     </row>
     <row r="115">
@@ -7987,7 +7987,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T115" t="n">
-        <v>10.34340021067123</v>
+        <v>0.9728746079287778</v>
       </c>
     </row>
     <row r="116">
@@ -8053,7 +8053,7 @@
         <v>30.34180724177848</v>
       </c>
       <c r="T116" t="n">
-        <v>0.5959491878428095</v>
+        <v>0.1274140153926802</v>
       </c>
     </row>
     <row r="117">
@@ -8119,7 +8119,7 @@
         <v>26.60855503133399</v>
       </c>
       <c r="T117" t="n">
-        <v>0.4629042446707567</v>
+        <v>0.06456370184991211</v>
       </c>
     </row>
     <row r="118">
@@ -8185,7 +8185,7 @@
         <v>64.02239056813093</v>
       </c>
       <c r="T118" t="n">
-        <v>1.617697310844977</v>
+        <v>0.3510428481181602</v>
       </c>
     </row>
     <row r="119">
@@ -8251,7 +8251,7 @@
         <v>35.64484696372541</v>
       </c>
       <c r="T119" t="n">
-        <v>0.8021279321169096</v>
+        <v>0.200606178584674</v>
       </c>
     </row>
     <row r="120">
@@ -8317,7 +8317,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T120" t="n">
-        <v>12.80257352909788</v>
+        <v>1.049753496811173</v>
       </c>
     </row>
     <row r="121">
@@ -8383,7 +8383,7 @@
         <v>14.67342424265041</v>
       </c>
       <c r="T121" t="n">
-        <v>0.1854229826436573</v>
+        <v>-0.1163197173475548</v>
       </c>
     </row>
     <row r="122">
@@ -8449,7 +8449,7 @@
         <v>30.12837498057593</v>
       </c>
       <c r="T122" t="n">
-        <v>0.6779579673498614</v>
+        <v>0.174402582096004</v>
       </c>
     </row>
     <row r="123">
@@ -8515,7 +8515,7 @@
         <v>49.48735581892284</v>
       </c>
       <c r="T123" t="n">
-        <v>1.51783433366223</v>
+        <v>0.3668056899035503</v>
       </c>
     </row>
     <row r="124">
@@ -8581,7 +8581,7 @@
         <v>35.54684782326347</v>
       </c>
       <c r="T124" t="n">
-        <v>0.7436082654100041</v>
+        <v>0.1739771440307609</v>
       </c>
     </row>
     <row r="125">
@@ -8647,7 +8647,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T125" t="n">
-        <v>3.015448418552668</v>
+        <v>0.5462522146559177</v>
       </c>
     </row>
     <row r="126">
@@ -8713,7 +8713,7 @@
         <v>35.09864500251216</v>
       </c>
       <c r="T126" t="n">
-        <v>0.6889956224931125</v>
+        <v>0.1483735442369969</v>
       </c>
     </row>
     <row r="127">
@@ -8779,7 +8779,7 @@
         <v>48.30533663309678</v>
       </c>
       <c r="T127" t="n">
-        <v>1.2635593850348</v>
+        <v>0.3073217817210354</v>
       </c>
     </row>
     <row r="128">
@@ -8845,7 +8845,7 @@
         <v>45.17025679782777</v>
       </c>
       <c r="T128" t="n">
-        <v>1.654992847112656</v>
+        <v>0.4064761789286246</v>
       </c>
     </row>
     <row r="129">
@@ -8911,7 +8911,7 @@
         <v>17.36227043394047</v>
       </c>
       <c r="T129" t="n">
-        <v>0.2001314264985897</v>
+        <v>-0.1616979166688755</v>
       </c>
     </row>
     <row r="130">
@@ -8977,7 +8977,7 @@
         <v>50.089021365188</v>
       </c>
       <c r="T130" t="n">
-        <v>1.345522068622152</v>
+        <v>0.3236872755837796</v>
       </c>
     </row>
     <row r="131">
@@ -9043,7 +9043,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T131" t="n">
-        <v>3.569834985872591</v>
+        <v>0.604999797709098</v>
       </c>
     </row>
     <row r="132">
@@ -9109,7 +9109,7 @@
         <v>57.93877697000119</v>
       </c>
       <c r="T132" t="n">
-        <v>3.669660914209846</v>
+        <v>0.6393889306404943</v>
       </c>
     </row>
     <row r="133">
@@ -9175,7 +9175,7 @@
         <v>46.31342682158018</v>
       </c>
       <c r="T133" t="n">
-        <v>1.388513685222174</v>
+        <v>0.3458636460550675</v>
       </c>
     </row>
     <row r="134">
@@ -9237,7 +9237,7 @@
         <v>77.72701317702585</v>
       </c>
       <c r="T134" t="n">
-        <v>6.281788535366291</v>
+        <v>0.7999202710706768</v>
       </c>
     </row>
     <row r="135">
@@ -9303,7 +9303,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T135" t="n">
-        <v>2.592820253430325</v>
+        <v>0.4925367328938219</v>
       </c>
     </row>
     <row r="136">
@@ -9369,7 +9369,7 @@
         <v>34.98997300754649</v>
       </c>
       <c r="T136" t="n">
-        <v>0.574504717777229</v>
+        <v>0.07545823858824474</v>
       </c>
     </row>
     <row r="137">
@@ -9435,7 +9435,7 @@
         <v>45.96620506066797</v>
       </c>
       <c r="T137" t="n">
-        <v>1.019556307215235</v>
+        <v>0.2385612434833961</v>
       </c>
     </row>
     <row r="138">
@@ -9501,7 +9501,7 @@
         <v>29.75795305114774</v>
       </c>
       <c r="T138" t="n">
-        <v>1.082139120099482</v>
+        <v>0.3239025623085339</v>
       </c>
     </row>
     <row r="139">
@@ -9567,7 +9567,7 @@
         <v>58.87503541473586</v>
       </c>
       <c r="T139" t="n">
-        <v>1.940934226010536</v>
+        <v>0.4279690052777336</v>
       </c>
     </row>
     <row r="140">
@@ -9633,7 +9633,7 @@
         <v>30.7680510250886</v>
       </c>
       <c r="T140" t="n">
-        <v>0.5240950900009462</v>
+        <v>0.074182900332187</v>
       </c>
     </row>
     <row r="141">
@@ -9695,7 +9695,7 @@
         <v>47.72961680751122</v>
       </c>
       <c r="T141" t="n">
-        <v>2.227436768436268</v>
+        <v>0.4953817398389135</v>
       </c>
     </row>
     <row r="142">
@@ -9761,7 +9761,7 @@
         <v>59.32702938069726</v>
       </c>
       <c r="T142" t="n">
-        <v>3.904854566499711</v>
+        <v>0.6579358931217414</v>
       </c>
     </row>
     <row r="143">
@@ -9827,7 +9827,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T143" t="n">
-        <v>7.001102334052575</v>
+        <v>0.8360119362229337</v>
       </c>
     </row>
     <row r="144">
@@ -9893,7 +9893,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T144" t="n">
-        <v>5.059907293594639</v>
+        <v>0.7245412536418987</v>
       </c>
     </row>
     <row r="145">
@@ -9959,7 +9959,7 @@
         <v>33.38829646241937</v>
       </c>
       <c r="T145" t="n">
-        <v>0.5962701146469009</v>
+        <v>0.1042953276332532</v>
       </c>
     </row>
     <row r="146">
@@ -10025,7 +10025,7 @@
         <v>40.33088427359148</v>
       </c>
       <c r="T146" t="n">
-        <v>1.10850912783379</v>
+        <v>0.290429454158136</v>
       </c>
     </row>
     <row r="147">
@@ -10091,7 +10091,7 @@
         <v>48.3159425827937</v>
       </c>
       <c r="T147" t="n">
-        <v>1.274886603600645</v>
+        <v>0.3104174867049849</v>
       </c>
     </row>
     <row r="148">
@@ -10155,7 +10155,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T148" t="n">
-        <v>1.086078340999482</v>
+        <v>0.09679193332371616</v>
       </c>
     </row>
     <row r="149">
@@ -10221,7 +10221,7 @@
         <v>40.80805744013018</v>
       </c>
       <c r="T149" t="n">
-        <v>0.8516663938967189</v>
+        <v>0.195315717297875</v>
       </c>
     </row>
     <row r="150">
@@ -10287,7 +10287,7 @@
         <v>79.47939207571528</v>
       </c>
       <c r="T150" t="n">
-        <v>3.972493171988865</v>
+        <v>0.6417926203512236</v>
       </c>
     </row>
     <row r="151">
@@ -10353,7 +10353,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T151" t="n">
-        <v>2.42363443944196</v>
+        <v>0.4680181742203084</v>
       </c>
     </row>
     <row r="152">
@@ -10419,7 +10419,7 @@
         <v>73.40279216385875</v>
       </c>
       <c r="T152" t="n">
-        <v>3.369495686928552</v>
+        <v>0.5923527018915051</v>
       </c>
     </row>
     <row r="153">
@@ -10485,7 +10485,7 @@
         <v>31.67476363996469</v>
       </c>
       <c r="T153" t="n">
-        <v>0.5793414350380486</v>
+        <v>0.1064632915508934</v>
       </c>
     </row>
     <row r="154">
@@ -10551,7 +10551,7 @@
         <v>57.96450625398315</v>
       </c>
       <c r="T154" t="n">
-        <v>2.008523901728926</v>
+        <v>0.4414841789485988</v>
       </c>
     </row>
     <row r="155">
@@ -10617,7 +10617,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T155" t="n">
-        <v>3.106306698375729</v>
+        <v>0.5566656182695051</v>
       </c>
     </row>
     <row r="156">
@@ -10679,7 +10679,7 @@
         <v>29.72115210869535</v>
       </c>
       <c r="T156" t="n">
-        <v>0.9437707614331395</v>
+        <v>0.2826815826455178</v>
       </c>
     </row>
     <row r="157">
@@ -10745,7 +10745,7 @@
         <v>44.16318916917719</v>
       </c>
       <c r="T157" t="n">
-        <v>1.286980163837844</v>
+        <v>0.3270736295863546</v>
       </c>
     </row>
     <row r="158">
@@ -10811,7 +10811,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T158" t="n">
-        <v>7.9618964249959</v>
+        <v>0.8806545311082119</v>
       </c>
     </row>
     <row r="159">
@@ -10877,7 +10877,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T159" t="n">
-        <v>2.989727000583182</v>
+        <v>0.5432395262946375</v>
       </c>
     </row>
     <row r="160">
@@ -10943,7 +10943,7 @@
         <v>35.8281125104284</v>
       </c>
       <c r="T160" t="n">
-        <v>0.752506230530862</v>
+        <v>0.1766791303045498</v>
       </c>
     </row>
     <row r="161">
@@ -11009,7 +11009,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T161" t="n">
-        <v>3.248058785611633</v>
+        <v>0.5722475703572774</v>
       </c>
     </row>
     <row r="162">
@@ -11075,7 +11075,7 @@
         <v>43.84354971002398</v>
       </c>
       <c r="T162" t="n">
-        <v>1.285676089477191</v>
+        <v>0.3277617055395077</v>
       </c>
     </row>
     <row r="163">
@@ -11141,7 +11141,7 @@
         <v>11.663677107764</v>
       </c>
       <c r="T163" t="n">
-        <v>0.138356107187101</v>
+        <v>-0.1486944036956644</v>
       </c>
     </row>
     <row r="164">
@@ -11207,7 +11207,7 @@
         <v>55.54011244808699</v>
       </c>
       <c r="T164" t="n">
-        <v>3.694355994551671</v>
+        <v>0.6445368760012402</v>
       </c>
     </row>
     <row r="165">
@@ -11273,7 +11273,7 @@
         <v>79.3818602139483</v>
       </c>
       <c r="T165" t="n">
-        <v>3.292346208285389</v>
+        <v>0.577098925787223</v>
       </c>
     </row>
     <row r="166">
@@ -11339,7 +11339,7 @@
         <v>51.97672366046152</v>
       </c>
       <c r="T166" t="n">
-        <v>3.769915747868886</v>
+        <v>0.6555699325892188</v>
       </c>
     </row>
     <row r="167">
@@ -11405,7 +11405,7 @@
         <v>27.95660911025148</v>
       </c>
       <c r="T167" t="n">
-        <v>0.9323405110996479</v>
+        <v>0.2872490628654996</v>
       </c>
     </row>
     <row r="168">
@@ -11471,7 +11471,7 @@
         <v>30.73898267000965</v>
       </c>
       <c r="T168" t="n">
-        <v>0.4289508027657353</v>
+        <v>-0.01749983796671439</v>
       </c>
     </row>
     <row r="169">
@@ -11537,7 +11537,7 @@
         <v>41.79408407323849</v>
       </c>
       <c r="T169" t="n">
-        <v>0.8440809414922082</v>
+        <v>0.1867461554586598</v>
       </c>
     </row>
     <row r="170">
@@ -11603,7 +11603,7 @@
         <v>34.81161760314495</v>
       </c>
       <c r="T170" t="n">
-        <v>0.9714991796137539</v>
+        <v>0.2691714028174879</v>
       </c>
     </row>
     <row r="171">
@@ -11669,7 +11669,7 @@
         <v>64.09766474677767</v>
       </c>
       <c r="T171" t="n">
-        <v>1.018519260945367</v>
+        <v>0.1516937247162806</v>
       </c>
     </row>
     <row r="172">
@@ -11735,7 +11735,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T172" t="n">
-        <v>2.337987008248235</v>
+        <v>0.4547813006738382</v>
       </c>
     </row>
     <row r="173">
@@ -11801,7 +11801,7 @@
         <v>35.51093104141344</v>
       </c>
       <c r="T173" t="n">
-        <v>0.8397751107173647</v>
+        <v>0.217281950664743</v>
       </c>
     </row>
     <row r="174">
@@ -11867,7 +11867,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T174" t="n">
-        <v>2.261215566706697</v>
+        <v>0.4423817962444556</v>
       </c>
     </row>
     <row r="175">
@@ -11933,7 +11933,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T175" t="n">
-        <v>8.008613273619817</v>
+        <v>0.882694841750473</v>
       </c>
     </row>
     <row r="176">
@@ -11999,7 +11999,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T176" t="n">
-        <v>4.871902352976497</v>
+        <v>0.7116026353392901</v>
       </c>
     </row>
     <row r="177">
@@ -12065,7 +12065,7 @@
         <v>40.98875042906329</v>
       </c>
       <c r="T177" t="n">
-        <v>0.728549464942592</v>
+        <v>0.1322144309895665</v>
       </c>
     </row>
     <row r="178">
@@ -12131,7 +12131,7 @@
         <v>28.78079384368289</v>
       </c>
       <c r="T178" t="n">
-        <v>0.5301514543599205</v>
+        <v>0.09633470761137297</v>
       </c>
     </row>
     <row r="179">
@@ -12193,7 +12193,7 @@
         <v>59.17031308096976</v>
       </c>
       <c r="T179" t="n">
-        <v>8.257224252761324</v>
+        <v>0.9070205374615898</v>
       </c>
     </row>
     <row r="180">
@@ -12255,7 +12255,7 @@
         <v>36.71428653383241</v>
       </c>
       <c r="T180" t="n">
-        <v>1.214490428095767</v>
+        <v>0.3330608665492603</v>
       </c>
     </row>
     <row r="181">
@@ -12321,7 +12321,7 @@
         <v>47.27451247535599</v>
       </c>
       <c r="T181" t="n">
-        <v>1.364967182222846</v>
+        <v>0.3372190922511797</v>
       </c>
     </row>
     <row r="182">
@@ -12387,7 +12387,7 @@
         <v>50.0692868142369</v>
       </c>
       <c r="T182" t="n">
-        <v>1.524933638675134</v>
+        <v>0.3668123852695624</v>
       </c>
     </row>
     <row r="183">
@@ -12453,7 +12453,7 @@
         <v>38.47741797940089</v>
       </c>
       <c r="T183" t="n">
-        <v>1.15229273852556</v>
+        <v>0.31001331979904</v>
       </c>
     </row>
     <row r="184">
@@ -12519,7 +12519,7 @@
         <v>67.41486524950635</v>
       </c>
       <c r="T184" t="n">
-        <v>1.964280762516504</v>
+        <v>0.4143228562973478</v>
       </c>
     </row>
     <row r="185">
@@ -12581,7 +12581,7 @@
         <v>40.0073448199806</v>
       </c>
       <c r="T185" t="n">
-        <v>1.304632246754107</v>
+        <v>0.3448333401189945</v>
       </c>
     </row>
     <row r="186">
@@ -12647,7 +12647,7 @@
         <v>36.47924851010199</v>
       </c>
       <c r="T186" t="n">
-        <v>1.568725136945331</v>
+        <v>0.4128888282896113</v>
       </c>
     </row>
     <row r="187">
@@ -12713,7 +12713,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T187" t="n">
-        <v>5.273425624979544</v>
+        <v>0.7386702676803554</v>
       </c>
     </row>
     <row r="188">
@@ -12779,7 +12779,7 @@
         <v>53.45835457960032</v>
       </c>
       <c r="T188" t="n">
-        <v>1.478452235688687</v>
+        <v>0.3468596005049382</v>
       </c>
     </row>
     <row r="189">
@@ -12845,7 +12845,7 @@
         <v>65.26706996433147</v>
       </c>
       <c r="T189" t="n">
-        <v>1.84290328661978</v>
+        <v>0.3959420252642374</v>
       </c>
     </row>
     <row r="190">
@@ -12911,7 +12911,7 @@
         <v>31.09896610853925</v>
       </c>
       <c r="T190" t="n">
-        <v>0.6213863243751448</v>
+        <v>0.1371848997799368</v>
       </c>
     </row>
     <row r="191">
@@ -12977,7 +12977,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T191" t="n">
-        <v>3.443942107164957</v>
+        <v>0.5925842649793716</v>
       </c>
     </row>
     <row r="192">
@@ -13043,7 +13043,7 @@
         <v>34.59497529450631</v>
       </c>
       <c r="T192" t="n">
-        <v>0.8712557542459463</v>
+        <v>0.2343067321332952</v>
       </c>
     </row>
     <row r="193">
@@ -13109,7 +13109,7 @@
         <v>42.96030334402992</v>
       </c>
       <c r="T193" t="n">
-        <v>1.207861329947038</v>
+        <v>0.3097850020645376</v>
       </c>
     </row>
     <row r="194">
@@ -13175,7 +13175,7 @@
         <v>49.43977342317808</v>
       </c>
       <c r="T194" t="n">
-        <v>1.68872107047689</v>
+        <v>0.4024828755857484</v>
       </c>
     </row>
     <row r="195">
@@ -13241,7 +13241,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T195" t="n">
-        <v>8.751377194076911</v>
+        <v>0.9137383693652652</v>
       </c>
     </row>
     <row r="196">
@@ -13307,7 +13307,7 @@
         <v>27.66366747372614</v>
       </c>
       <c r="T196" t="n">
-        <v>0.5086001768889907</v>
+        <v>0.09049243445458699</v>
       </c>
     </row>
     <row r="197">
@@ -13373,7 +13373,7 @@
         <v>73.47358641314023</v>
       </c>
       <c r="T197" t="n">
-        <v>6.796961104125832</v>
+        <v>0.8299876070372516</v>
       </c>
     </row>
     <row r="198">
@@ -13439,7 +13439,7 @@
         <v>56.0523778062018</v>
       </c>
       <c r="T198" t="n">
-        <v>1.508578623541116</v>
+        <v>0.3468191870548847</v>
       </c>
     </row>
     <row r="199">
@@ -13501,7 +13501,7 @@
         <v>49.83620815870195</v>
       </c>
       <c r="T199" t="n">
-        <v>5.312335168793546</v>
+        <v>0.7685753548247385</v>
       </c>
     </row>
     <row r="200">
@@ -13567,7 +13567,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T200" t="n">
-        <v>2.734733320574901</v>
+        <v>0.5116538431131954</v>
       </c>
     </row>
     <row r="201">
@@ -13633,7 +13633,7 @@
         <v>32.378039007116</v>
       </c>
       <c r="T201" t="n">
-        <v>0.6708090546154017</v>
+        <v>0.1562175225754814</v>
       </c>
     </row>
     <row r="202">
@@ -13699,7 +13699,7 @@
         <v>32.34672532249375</v>
       </c>
       <c r="T202" t="n">
-        <v>0.7123495672373502</v>
+        <v>0.1777276204173917</v>
       </c>
     </row>
     <row r="203">
@@ -13765,7 +13765,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T203" t="n">
-        <v>3.493885470143329</v>
+        <v>0.5975675231296478</v>
       </c>
     </row>
     <row r="204">
@@ -13831,7 +13831,7 @@
         <v>78.26819150967484</v>
       </c>
       <c r="T204" t="n">
-        <v>6.361173206027836</v>
+        <v>0.8038375661195525</v>
       </c>
     </row>
     <row r="205">
@@ -13897,7 +13897,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T205" t="n">
-        <v>3.885611813693183</v>
+        <v>0.634186111031219</v>
       </c>
     </row>
     <row r="206">
@@ -13963,7 +13963,7 @@
         <v>71.83300003060002</v>
       </c>
       <c r="T206" t="n">
-        <v>4.404093089150899</v>
+        <v>0.6844617150681924</v>
       </c>
     </row>
     <row r="207">
@@ -14029,7 +14029,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T207" t="n">
-        <v>3.480247883364616</v>
+        <v>0.5962144951339041</v>
       </c>
     </row>
     <row r="208">
@@ -14095,7 +14095,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T208" t="n">
-        <v>4.826161281628576</v>
+        <v>0.7083794762151077</v>
       </c>
     </row>
     <row r="209">
@@ -14161,7 +14161,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T209" t="n">
-        <v>3.52980983691194</v>
+        <v>0.6011045198026794</v>
       </c>
     </row>
     <row r="210">
@@ -14223,7 +14223,7 @@
         <v>35.64353887234927</v>
       </c>
       <c r="T210" t="n">
-        <v>1.920188478044531</v>
+        <v>0.4761842381239345</v>
       </c>
     </row>
     <row r="211">
@@ -14285,7 +14285,7 @@
         <v>31.49993505560784</v>
       </c>
       <c r="T211" t="n">
-        <v>0.442334596954834</v>
+        <v>-0.01166162523779513</v>
       </c>
     </row>
     <row r="212">
@@ -14351,7 +14351,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T212" t="n">
-        <v>4.704601084223305</v>
+        <v>0.6996627589860342</v>
       </c>
     </row>
     <row r="213">
@@ -14413,7 +14413,7 @@
         <v>40.31064321958368</v>
       </c>
       <c r="T213" t="n">
-        <v>1.534640797895763</v>
+        <v>0.3953560859847105</v>
       </c>
     </row>
     <row r="214">
@@ -14479,7 +14479,7 @@
         <v>19.7078281836968</v>
       </c>
       <c r="T214" t="n">
-        <v>0.22617398106607</v>
+        <v>-0.162081882883519</v>
       </c>
     </row>
     <row r="215">
@@ -14545,7 +14545,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T215" t="n">
-        <v>9.452871890028284</v>
+        <v>0.9409105316852049</v>
       </c>
     </row>
     <row r="216">
@@ -14611,7 +14611,7 @@
         <v>33.18412584982892</v>
       </c>
       <c r="T216" t="n">
-        <v>0.68503327231916</v>
+        <v>0.1585935317991514</v>
       </c>
     </row>
     <row r="217">
@@ -14677,7 +14677,7 @@
         <v>34.46382812452368</v>
       </c>
       <c r="T217" t="n">
-        <v>1.066644434011343</v>
+        <v>0.30049142978211</v>
       </c>
     </row>
     <row r="218">
@@ -14743,7 +14743,7 @@
         <v>63.64007217436296</v>
       </c>
       <c r="T218" t="n">
-        <v>2.65132250481524</v>
+        <v>0.5247834520547017</v>
       </c>
     </row>
     <row r="219">
@@ -14809,7 +14809,7 @@
         <v>34.97992298646163</v>
       </c>
       <c r="T219" t="n">
-        <v>0.9728085781215229</v>
+        <v>0.2688815052349418</v>
       </c>
     </row>
     <row r="220">
@@ -14875,7 +14875,7 @@
         <v>27.32477606736467</v>
       </c>
       <c r="T220" t="n">
-        <v>0.6998380447443701</v>
+        <v>0.2023098165173478</v>
       </c>
     </row>
     <row r="221">
@@ -14941,7 +14941,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T221" t="n">
-        <v>2.859444193904121</v>
+        <v>0.5275097255816494</v>
       </c>
     </row>
     <row r="222">
@@ -15007,7 +15007,7 @@
         <v>42.85515223956077</v>
       </c>
       <c r="T222" t="n">
-        <v>1.575807973270358</v>
+        <v>0.39680021167666</v>
       </c>
     </row>
     <row r="223">
@@ -15073,7 +15073,7 @@
         <v>40.52696750882459</v>
       </c>
       <c r="T223" t="n">
-        <v>1.156356460388081</v>
+        <v>0.303779774366798</v>
       </c>
     </row>
     <row r="224">
@@ -15139,7 +15139,7 @@
         <v>47.61348871801651</v>
       </c>
       <c r="T224" t="n">
-        <v>1.900721979917507</v>
+        <v>0.4451265255138297</v>
       </c>
     </row>
     <row r="225">
@@ -15205,7 +15205,7 @@
         <v>29.76474848232992</v>
       </c>
       <c r="T225" t="n">
-        <v>0.7317664059824048</v>
+        <v>0.2021348611704257</v>
       </c>
     </row>
     <row r="226">
@@ -15271,7 +15271,7 @@
         <v>66.35925486969838</v>
       </c>
       <c r="T226" t="n">
-        <v>2.275069552155424</v>
+        <v>0.4682003583144714</v>
       </c>
     </row>
     <row r="227">
@@ -15337,7 +15337,7 @@
         <v>64.01338960207971</v>
       </c>
       <c r="T227" t="n">
-        <v>2.506473825225187</v>
+        <v>0.5052993899891896</v>
       </c>
     </row>
     <row r="228">
@@ -15403,7 +15403,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T228" t="n">
-        <v>5.824767160729866</v>
+        <v>0.772710381017701</v>
       </c>
     </row>
     <row r="229">
@@ -15465,7 +15465,7 @@
         <v>22.61467851183785</v>
       </c>
       <c r="T229" t="n">
-        <v>0.4479245974374916</v>
+        <v>0.09239614051974532</v>
       </c>
     </row>
     <row r="230">
@@ -15531,7 +15531,7 @@
         <v>38.85335373001455</v>
       </c>
       <c r="T230" t="n">
-        <v>0.5909574431429371</v>
+        <v>0.05384630151135306</v>
       </c>
     </row>
     <row r="231">
@@ -15593,7 +15593,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T231" t="n">
-        <v>4.132898545788255</v>
+        <v>0.6553484898155004</v>
       </c>
     </row>
     <row r="232">
@@ -15659,7 +15659,7 @@
         <v>55.73516016253039</v>
       </c>
       <c r="T232" t="n">
-        <v>2.412276437697522</v>
+        <v>0.5064077258003548</v>
       </c>
     </row>
     <row r="233">
@@ -15725,7 +15725,7 @@
         <v>42.89013698172306</v>
       </c>
       <c r="T233" t="n">
-        <v>0.9501292982454256</v>
+        <v>0.2259422716283848</v>
       </c>
     </row>
     <row r="234">
@@ -15791,7 +15791,7 @@
         <v>31.25764308468296</v>
       </c>
       <c r="T234" t="n">
-        <v>0.9154116339864328</v>
+        <v>0.2661190662953985</v>
       </c>
     </row>
     <row r="235">
@@ -15857,7 +15857,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T235" t="n">
-        <v>2.284527178489678</v>
+        <v>0.4462033482454875</v>
       </c>
     </row>
     <row r="236">
@@ -15923,7 +15923,7 @@
         <v>61.24990040878217</v>
       </c>
       <c r="T236" t="n">
-        <v>1.78707800963759</v>
+        <v>0.3940305230168573</v>
       </c>
     </row>
     <row r="237">
@@ -15989,7 +15989,7 @@
         <v>55.14012529494276</v>
       </c>
       <c r="T237" t="n">
-        <v>2.797232288106582</v>
+        <v>0.5554247707810029</v>
       </c>
     </row>
     <row r="238">
@@ -16055,7 +16055,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T238" t="n">
-        <v>4.548870064379184</v>
+        <v>0.6881586828908053</v>
       </c>
     </row>
     <row r="239">
@@ -16121,7 +16121,7 @@
         <v>62.40321509566026</v>
       </c>
       <c r="T239" t="n">
-        <v>1.759223471093792</v>
+        <v>0.3857546601514037</v>
       </c>
     </row>
     <row r="240">
@@ -16187,7 +16187,7 @@
         <v>61.17137050687954</v>
       </c>
       <c r="T240" t="n">
-        <v>3.199870449225306</v>
+        <v>0.5905840473023805</v>
       </c>
     </row>
     <row r="241">
@@ -16253,7 +16253,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T241" t="n">
-        <v>3.449565804703901</v>
+        <v>0.5931492937075771</v>
       </c>
     </row>
     <row r="242">
@@ -16319,7 +16319,7 @@
         <v>55.31842462049561</v>
       </c>
       <c r="T242" t="n">
-        <v>1.691426735864272</v>
+        <v>0.3887871915421139</v>
       </c>
     </row>
     <row r="243">
@@ -16385,7 +16385,7 @@
         <v>38.98118211222967</v>
       </c>
       <c r="T243" t="n">
-        <v>0.8293260754203828</v>
+        <v>0.1949383815820118</v>
       </c>
     </row>
     <row r="244">
@@ -16451,7 +16451,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T244" t="n">
-        <v>3.440506900761445</v>
+        <v>0.5922386263603225</v>
       </c>
     </row>
     <row r="245">
@@ -16517,7 +16517,7 @@
         <v>29.08244235174834</v>
       </c>
       <c r="T245" t="n">
-        <v>0.8910454092652306</v>
+        <v>0.2680859801538644</v>
       </c>
     </row>
     <row r="246">
@@ -16583,7 +16583,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T246" t="n">
-        <v>2.231146365439227</v>
+        <v>0.4373764603113934</v>
       </c>
     </row>
     <row r="247">
@@ -16705,7 +16705,7 @@
         <v>51.80827851355831</v>
       </c>
       <c r="T248" t="n">
-        <v>1.40478385940445</v>
+        <v>0.3336327029296642</v>
       </c>
     </row>
     <row r="249">
@@ -16771,7 +16771,7 @@
         <v>37.28193845682429</v>
       </c>
       <c r="T249" t="n">
-        <v>1.109472794211976</v>
+        <v>0.3021729766470251</v>
       </c>
     </row>
     <row r="250">
@@ -16837,7 +16837,7 @@
         <v>33.70665949114824</v>
       </c>
       <c r="T250" t="n">
-        <v>0.6265110774997217</v>
+        <v>0.1214512161788077</v>
       </c>
     </row>
     <row r="251">
@@ -16903,7 +16903,7 @@
         <v>29.06916504060408</v>
       </c>
       <c r="T251" t="n">
-        <v>0.5650348510369904</v>
+        <v>0.1176756328801474</v>
       </c>
     </row>
     <row r="252">
@@ -16969,7 +16969,7 @@
         <v>45.28751857079556</v>
       </c>
       <c r="T252" t="n">
-        <v>0.9148723829203959</v>
+        <v>0.2002646857114692</v>
       </c>
     </row>
     <row r="253">
@@ -17035,7 +17035,7 @@
         <v>59.40690596543686</v>
       </c>
       <c r="T253" t="n">
-        <v>2.65595835077091</v>
+        <v>0.5319328689122784</v>
       </c>
     </row>
     <row r="254">
@@ -17097,7 +17097,7 @@
         <v>31.39754102998797</v>
       </c>
       <c r="T254" t="n">
-        <v>1.134928024624057</v>
+        <v>0.3316581812565997</v>
       </c>
     </row>
     <row r="255">
@@ -17163,7 +17163,7 @@
         <v>22.97823475462873</v>
       </c>
       <c r="T255" t="n">
-        <v>0.531431315232617</v>
+        <v>0.1455090565530068</v>
       </c>
     </row>
     <row r="256">
@@ -17229,7 +17229,7 @@
         <v>28.68165299928281</v>
       </c>
       <c r="T256" t="n">
-        <v>0.471087253675426</v>
+        <v>0.05041112320991226</v>
       </c>
     </row>
     <row r="257">
@@ -17295,7 +17295,7 @@
         <v>22.68994895494773</v>
       </c>
       <c r="T257" t="n">
-        <v>0.6518860860960289</v>
+        <v>0.2105063626773009</v>
       </c>
     </row>
     <row r="258">
@@ -17361,7 +17361,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T258" t="n">
-        <v>10.17087406604276</v>
+        <v>0.9668822139389448</v>
       </c>
     </row>
     <row r="259">
@@ -17427,7 +17427,7 @@
         <v>25.66644987894391</v>
       </c>
       <c r="T259" t="n">
-        <v>0.4301892905754299</v>
+        <v>0.04571533828975038</v>
       </c>
     </row>
     <row r="260">
@@ -17493,7 +17493,7 @@
         <v>33.427348942451</v>
       </c>
       <c r="T260" t="n">
-        <v>0.6235552589113569</v>
+        <v>0.1216597515198741</v>
       </c>
     </row>
     <row r="261">
@@ -17559,7 +17559,7 @@
         <v>26.26274462988851</v>
       </c>
       <c r="T261" t="n">
-        <v>0.5941498027674341</v>
+        <v>0.1563486872777686</v>
       </c>
     </row>
     <row r="262">
@@ -17625,7 +17625,7 @@
         <v>26.82286426358426</v>
       </c>
       <c r="T262" t="n">
-        <v>0.5722055095964086</v>
+        <v>0.1395354789274676</v>
       </c>
     </row>
     <row r="263">
@@ -17691,7 +17691,7 @@
         <v>53.21414525566782</v>
       </c>
       <c r="T263" t="n">
-        <v>1.085902645554764</v>
+        <v>0.2325458677203158</v>
       </c>
     </row>
     <row r="264">
@@ -17757,7 +17757,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T264" t="n">
-        <v>3.491349236359028</v>
+        <v>0.5973163288324994</v>
       </c>
     </row>
     <row r="265">
@@ -17823,7 +17823,7 @@
         <v>60.15858784810432</v>
       </c>
       <c r="T265" t="n">
-        <v>2.839263391474182</v>
+        <v>0.5527447856355843</v>
       </c>
     </row>
     <row r="266">
@@ -17889,7 +17889,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T266" t="n">
-        <v>2.374484899893029</v>
+        <v>0.4604955484637847</v>
       </c>
     </row>
     <row r="267">
@@ -17955,7 +17955,7 @@
         <v>40.42569483351863</v>
       </c>
       <c r="T267" t="n">
-        <v>1.019463809089349</v>
+        <v>0.2616431660931153</v>
       </c>
     </row>
     <row r="268">
@@ -18021,7 +18021,7 @@
         <v>32.96659733102562</v>
       </c>
       <c r="T268" t="n">
-        <v>0.6963673622988752</v>
+        <v>0.1658886320821811</v>
       </c>
     </row>
     <row r="269">
@@ -18087,7 +18087,7 @@
         <v>27.31074950413509</v>
       </c>
       <c r="T269" t="n">
-        <v>0.5368273892945744</v>
+        <v>0.1133508264823406</v>
       </c>
     </row>
     <row r="270">
@@ -18153,7 +18153,7 @@
         <v>45.95203661605073</v>
       </c>
       <c r="T270" t="n">
-        <v>1.0873501957127</v>
+        <v>0.262259434046678</v>
       </c>
     </row>
     <row r="271">
@@ -18215,7 +18215,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T271" t="n">
-        <v>5.302233086342985</v>
+        <v>0.7405332180989759</v>
       </c>
     </row>
     <row r="272">
@@ -18281,7 +18281,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T272" t="n">
-        <v>4.483043169536296</v>
+        <v>0.6831757285026703</v>
       </c>
     </row>
     <row r="273">
@@ -18347,7 +18347,7 @@
         <v>67.49807364834891</v>
       </c>
       <c r="T273" t="n">
-        <v>3.281738985380541</v>
+        <v>0.5907580996874471</v>
       </c>
     </row>
     <row r="274">
@@ -18413,7 +18413,7 @@
         <v>46.69270426959368</v>
       </c>
       <c r="T274" t="n">
-        <v>2.851570057852591</v>
+        <v>0.5749214936012388</v>
       </c>
     </row>
     <row r="275">
@@ -18475,7 +18475,7 @@
         <v>38.13477132706445</v>
       </c>
       <c r="T275" t="n">
-        <v>1.010934229300069</v>
+        <v>0.2682400575641866</v>
       </c>
     </row>
     <row r="276">
@@ -18541,7 +18541,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T276" t="n">
-        <v>2.551052157414779</v>
+        <v>0.4866695167916169</v>
       </c>
     </row>
     <row r="277">
@@ -18607,7 +18607,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T277" t="n">
-        <v>13.27651100174049</v>
+        <v>1.063031169974994</v>
       </c>
     </row>
     <row r="278">
@@ -18669,7 +18669,7 @@
         <v>78.58308558795127</v>
       </c>
       <c r="T278" t="n">
-        <v>6.290636084273303</v>
+        <v>0.7997814415149846</v>
       </c>
     </row>
     <row r="279">
@@ -18735,7 +18735,7 @@
         <v>24.93852475806429</v>
       </c>
       <c r="T279" t="n">
-        <v>0.6062147758205551</v>
+        <v>0.1724230094267469</v>
       </c>
     </row>
     <row r="280">
@@ -18801,7 +18801,7 @@
         <v>17.80818643032944</v>
       </c>
       <c r="T280" t="n">
-        <v>0.214804942868055</v>
+        <v>-0.1343206008106651</v>
       </c>
     </row>
     <row r="281">
@@ -18867,7 +18867,7 @@
         <v>57.56478590747959</v>
       </c>
       <c r="T281" t="n">
-        <v>3.193585657449534</v>
+        <v>0.5947968358306324</v>
       </c>
     </row>
     <row r="282">
@@ -18933,7 +18933,7 @@
         <v>25.86393760734588</v>
       </c>
       <c r="T282" t="n">
-        <v>0.6525656058038006</v>
+        <v>0.1894335582844173</v>
       </c>
     </row>
     <row r="283">
@@ -18999,7 +18999,7 @@
         <v>37.43533281947128</v>
       </c>
       <c r="T283" t="n">
-        <v>1.167741836359369</v>
+        <v>0.318056946531069</v>
       </c>
     </row>
     <row r="284">
@@ -19065,7 +19065,7 @@
         <v>28.81919472097196</v>
       </c>
       <c r="T284" t="n">
-        <v>0.5606774803453068</v>
+        <v>0.1168293934039433</v>
       </c>
     </row>
     <row r="285">
@@ -19131,7 +19131,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T285" t="n">
-        <v>3.634149716692316</v>
+        <v>0.6111616573477154</v>
       </c>
     </row>
     <row r="286">
@@ -19197,7 +19197,7 @@
         <v>43.8909474992229</v>
       </c>
       <c r="T286" t="n">
-        <v>0.9773275166541561</v>
+        <v>0.2318586236043005</v>
       </c>
     </row>
     <row r="287">
@@ -19263,7 +19263,7 @@
         <v>49.58593916195237</v>
       </c>
       <c r="T287" t="n">
-        <v>1.019430095671378</v>
+        <v>0.2228847638651315</v>
       </c>
     </row>
     <row r="288">
@@ -19329,7 +19329,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T288" t="n">
-        <v>3.410469648184712</v>
+        <v>0.5892002832406318</v>
       </c>
     </row>
     <row r="289">
@@ -19395,7 +19395,7 @@
         <v>26.87110193886208</v>
       </c>
       <c r="T289" t="n">
-        <v>0.4387237128687178</v>
+        <v>0.04031324838232808</v>
       </c>
     </row>
     <row r="290">
@@ -19461,7 +19461,7 @@
         <v>31.93448650618576</v>
       </c>
       <c r="T290" t="n">
-        <v>0.9376757136310084</v>
+        <v>0.2705708468703034</v>
       </c>
     </row>
     <row r="291">
@@ -19523,7 +19523,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T291" t="n">
-        <v>9.754301733796785</v>
+        <v>0.9520248882342188</v>
       </c>
     </row>
     <row r="292">
@@ -19589,7 +19589,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T292" t="n">
-        <v>1.293561856904979</v>
+        <v>0.2024901679289184</v>
       </c>
     </row>
     <row r="293">
@@ -19651,7 +19651,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T293" t="n">
-        <v>6.149338075633398</v>
+        <v>0.7913167242026853</v>
       </c>
     </row>
     <row r="294">
@@ -19717,7 +19717,7 @@
         <v>36.55577220016344</v>
       </c>
       <c r="T294" t="n">
-        <v>0.9562672623958411</v>
+        <v>0.2563805110173063</v>
       </c>
     </row>
     <row r="295">
@@ -19779,7 +19779,7 @@
         <v>65.32335128221776</v>
       </c>
       <c r="T295" t="n">
-        <v>4.453864203518612</v>
+        <v>0.6946743283320578</v>
       </c>
     </row>
     <row r="296">
@@ -19841,7 +19841,7 @@
         <v>22.9926638302917</v>
       </c>
       <c r="T296" t="n">
-        <v>0.4252865334757234</v>
+        <v>0.07035253372866079</v>
       </c>
     </row>
     <row r="297">
@@ -19907,7 +19907,7 @@
         <v>23.78913324153513</v>
       </c>
       <c r="T297" t="n">
-        <v>0.5910445192076942</v>
+        <v>0.1727794900804114</v>
       </c>
     </row>
     <row r="298">
@@ -19973,7 +19973,7 @@
         <v>41.52709801066278</v>
       </c>
       <c r="T298" t="n">
-        <v>1.980576348835389</v>
+        <v>0.4715910524260138</v>
       </c>
     </row>
     <row r="299">
@@ -20039,7 +20039,7 @@
         <v>25.61814446635015</v>
       </c>
       <c r="T299" t="n">
-        <v>0.5593551713042209</v>
+        <v>0.1411336368015379</v>
       </c>
     </row>
     <row r="300">
@@ -20105,7 +20105,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T300" t="n">
-        <v>6.408074202536626</v>
+        <v>0.8054859914758368</v>
       </c>
     </row>
     <row r="301">
@@ -20171,7 +20171,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T301" t="n">
-        <v>4.14641057337454</v>
+        <v>0.6564666031464246</v>
       </c>
     </row>
     <row r="302">
@@ -20233,7 +20233,7 @@
         <v>36.45769191368717</v>
       </c>
       <c r="T302" t="n">
-        <v>1.482781099779967</v>
+        <v>0.3957570695108716</v>
       </c>
     </row>
     <row r="303">
@@ -20299,7 +20299,7 @@
         <v>28.48991878492761</v>
       </c>
       <c r="T303" t="n">
-        <v>0.4891675012745563</v>
+        <v>0.06770599122742182</v>
       </c>
     </row>
     <row r="304">
@@ -20365,7 +20365,7 @@
         <v>34.78846486645764</v>
       </c>
       <c r="T304" t="n">
-        <v>0.5953076745036442</v>
+        <v>0.09243192500010711</v>
       </c>
     </row>
     <row r="305">
@@ -20431,7 +20431,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T305" t="n">
-        <v>2.064822254943657</v>
+        <v>0.4079858378032162</v>
       </c>
     </row>
     <row r="306">
@@ -20497,7 +20497,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T306" t="n">
-        <v>3.708556788386515</v>
+        <v>0.6181464878694385</v>
       </c>
     </row>
     <row r="307">
@@ -20563,7 +20563,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T307" t="n">
-        <v>5.969193951361899</v>
+        <v>0.7811099730734505</v>
       </c>
     </row>
     <row r="308">
@@ -20629,7 +20629,7 @@
         <v>27.98611101084219</v>
       </c>
       <c r="T308" t="n">
-        <v>0.5567126721272455</v>
+        <v>0.1208960854618237</v>
       </c>
     </row>
     <row r="309">
@@ -20695,7 +20695,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T309" t="n">
-        <v>6.813835898816227</v>
+        <v>0.8266457083868162</v>
       </c>
     </row>
     <row r="310">
@@ -20761,7 +20761,7 @@
         <v>40.15907821364315</v>
       </c>
       <c r="T310" t="n">
-        <v>0.7126608783161658</v>
+        <v>0.1284404476464751</v>
       </c>
     </row>
     <row r="311">
@@ -20827,7 +20827,7 @@
         <v>27.95660911025148</v>
       </c>
       <c r="T311" t="n">
-        <v>1.058229350627585</v>
+        <v>0.3249039089282115</v>
       </c>
     </row>
     <row r="312">
@@ -20893,7 +20893,7 @@
         <v>38.83924933021467</v>
       </c>
       <c r="T312" t="n">
-        <v>0.6730308193432682</v>
+        <v>0.1133922675713055</v>
       </c>
     </row>
     <row r="313">
@@ -20955,7 +20955,7 @@
         <v>67.59905811349309</v>
       </c>
       <c r="T313" t="n">
-        <v>13.03666274353107</v>
+        <v>1.062394216803423</v>
       </c>
     </row>
     <row r="314">
@@ -21021,7 +21021,7 @@
         <v>23.79845074457683</v>
       </c>
       <c r="T314" t="n">
-        <v>0.5431101595701905</v>
+        <v>0.1458203606999404</v>
       </c>
     </row>
     <row r="315">
@@ -21083,7 +21083,7 @@
         <v>71.69497756433634</v>
       </c>
       <c r="T315" t="n">
-        <v>5.825212051657146</v>
+        <v>0.778815204590072</v>
       </c>
     </row>
     <row r="316">
@@ -21149,7 +21149,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T316" t="n">
-        <v>3.253735924361365</v>
+        <v>0.5728557763893272</v>
       </c>
     </row>
     <row r="317">
@@ -21215,7 +21215,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T317" t="n">
-        <v>10.81953958630122</v>
+        <v>0.9889561075780844</v>
       </c>
     </row>
     <row r="318">
@@ -21281,7 +21281,7 @@
         <v>25.35177922961694</v>
       </c>
       <c r="T318" t="n">
-        <v>0.3836674708965159</v>
+        <v>0.001711149736472573</v>
       </c>
     </row>
     <row r="319">
@@ -21347,7 +21347,7 @@
         <v>48.8899993901087</v>
       </c>
       <c r="T319" t="n">
-        <v>1.639725024565232</v>
+        <v>0.3941242390679043</v>
       </c>
     </row>
     <row r="320">
@@ -21413,7 +21413,7 @@
         <v>76.12687839404229</v>
       </c>
       <c r="T320" t="n">
-        <v>3.254532333900476</v>
+        <v>0.5771248276194441</v>
       </c>
     </row>
     <row r="321">
@@ -21479,7 +21479,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T321" t="n">
-        <v>7.363661452088002</v>
+        <v>0.8534943316578019</v>
       </c>
     </row>
     <row r="322">
@@ -21545,7 +21545,7 @@
         <v>31.67828250053623</v>
       </c>
       <c r="T322" t="n">
-        <v>0.6900529171046657</v>
+        <v>0.1707341783290726</v>
       </c>
     </row>
     <row r="323">
@@ -21611,7 +21611,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T323" t="n">
-        <v>2.150563725065887</v>
+        <v>0.4235154091280873</v>
       </c>
     </row>
     <row r="324">
@@ -21677,7 +21677,7 @@
         <v>41.54575205946763</v>
       </c>
       <c r="T324" t="n">
-        <v>0.9107081254630787</v>
+        <v>0.2165983256075825</v>
       </c>
     </row>
     <row r="325">
@@ -21743,7 +21743,7 @@
         <v>34.62648198397789</v>
       </c>
       <c r="T325" t="n">
-        <v>1.728297763523021</v>
+        <v>0.4473094985198482</v>
       </c>
     </row>
     <row r="326">
@@ -21809,7 +21809,7 @@
         <v>44.00942026338215</v>
       </c>
       <c r="T326" t="n">
-        <v>1.116380150544114</v>
+        <v>0.2790557819842618</v>
       </c>
     </row>
     <row r="327">
@@ -21871,7 +21871,7 @@
         <v>49.42825129022349</v>
       </c>
       <c r="T327" t="n">
-        <v>3.144991977094467</v>
+        <v>0.601463942185728</v>
       </c>
     </row>
     <row r="328">
@@ -21937,7 +21937,7 @@
         <v>43.5027588761206</v>
       </c>
       <c r="T328" t="n">
-        <v>0.6801096785227639</v>
+        <v>0.08286796706507826</v>
       </c>
     </row>
     <row r="329">
@@ -22003,7 +22003,7 @@
         <v>35.11941635811037</v>
       </c>
       <c r="T329" t="n">
-        <v>0.7204831510839189</v>
+        <v>0.1649424551582221</v>
       </c>
     </row>
     <row r="330">
@@ -22069,7 +22069,7 @@
         <v>22.36551464422926</v>
       </c>
       <c r="T330" t="n">
-        <v>0.4045791895901403</v>
+        <v>0.0592461350374649</v>
       </c>
     </row>
     <row r="331">
@@ -22135,7 +22135,7 @@
         <v>73.76002669826239</v>
       </c>
       <c r="T331" t="n">
-        <v>3.44332242964877</v>
+        <v>0.5992975495785506</v>
       </c>
     </row>
     <row r="332">
@@ -22257,7 +22257,7 @@
         <v>36.37700791507034</v>
       </c>
       <c r="T333" t="n">
-        <v>0.9232047324771971</v>
+        <v>0.2453821315522393</v>
       </c>
     </row>
     <row r="334">
@@ -22319,7 +22319,7 @@
         <v>38.93233181337055</v>
       </c>
       <c r="T334" t="n">
-        <v>0.9891074608075976</v>
+        <v>0.2575229799482377</v>
       </c>
     </row>
     <row r="335">
@@ -22385,7 +22385,7 @@
         <v>67.06017134400788</v>
       </c>
       <c r="T335" t="n">
-        <v>2.55916250911</v>
+        <v>0.5074778003263105</v>
       </c>
     </row>
     <row r="336">
@@ -22451,7 +22451,7 @@
         <v>21.14555907350079</v>
       </c>
       <c r="T336" t="n">
-        <v>0.2906699844347842</v>
+        <v>-0.05801317953544916</v>
       </c>
     </row>
     <row r="337">
@@ -22517,7 +22517,7 @@
         <v>46.63863941992496</v>
       </c>
       <c r="T337" t="n">
-        <v>1.206885062907865</v>
+        <v>0.2968496160357754</v>
       </c>
     </row>
     <row r="338">
@@ -22583,7 +22583,7 @@
         <v>11.77625210434193</v>
       </c>
       <c r="T338" t="n">
-        <v>0.1179534036460995</v>
+        <v>-0.2465627296447021</v>
       </c>
     </row>
     <row r="339">
@@ -22649,7 +22649,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T339" t="n">
-        <v>3.179774605806162</v>
+        <v>0.5648382927660356</v>
       </c>
     </row>
     <row r="340">
@@ -22711,7 +22711,7 @@
         <v>46.64163263432477</v>
       </c>
       <c r="T340" t="n">
-        <v>3.484671592363048</v>
+        <v>0.6379336795686206</v>
       </c>
     </row>
     <row r="341">
@@ -22777,7 +22777,7 @@
         <v>70.36470920776637</v>
       </c>
       <c r="T341" t="n">
-        <v>2.1116145213338</v>
+        <v>0.4344468906117382</v>
       </c>
     </row>
     <row r="342">
@@ -22843,7 +22843,7 @@
         <v>34.90526817078</v>
       </c>
       <c r="T342" t="n">
-        <v>0.8255249474162283</v>
+        <v>0.2144865853515712</v>
       </c>
     </row>
     <row r="343">
@@ -22909,7 +22909,7 @@
         <v>24.21014379007698</v>
       </c>
       <c r="T343" t="n">
-        <v>0.3891074221209483</v>
+        <v>0.0224579163283547</v>
       </c>
     </row>
     <row r="344">
@@ -22975,7 +22975,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T344" t="n">
-        <v>5.548835570469504</v>
+        <v>0.7560865218113402</v>
       </c>
     </row>
     <row r="345">
@@ -23041,7 +23041,7 @@
         <v>39.98100887235123</v>
       </c>
       <c r="T345" t="n">
-        <v>0.9865977273491677</v>
+        <v>0.2521876911261554</v>
       </c>
     </row>
     <row r="346">
@@ -23107,7 +23107,7 @@
         <v>37.69732360264492</v>
       </c>
       <c r="T346" t="n">
-        <v>1.881981668018598</v>
+        <v>0.4649817545880357</v>
       </c>
     </row>
     <row r="347">
@@ -23173,7 +23173,7 @@
         <v>36.54091281501157</v>
       </c>
       <c r="T347" t="n">
-        <v>0.6967426809340312</v>
+        <v>0.1432633945155659</v>
       </c>
     </row>
     <row r="348">
@@ -23239,7 +23239,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T348" t="n">
-        <v>3.944197074143792</v>
+        <v>0.6393243230778689</v>
       </c>
     </row>
     <row r="349">
@@ -23301,7 +23301,7 @@
         <v>58.26764565918054</v>
       </c>
       <c r="T349" t="n">
-        <v>5.111024177531747</v>
+        <v>0.7471094672879091</v>
       </c>
     </row>
     <row r="350">
@@ -23367,7 +23367,7 @@
         <v>19.96986578225203</v>
       </c>
       <c r="T350" t="n">
-        <v>0.3282618585312291</v>
+        <v>0.01243609257808309</v>
       </c>
     </row>
     <row r="351">
@@ -23433,7 +23433,7 @@
         <v>25.44120845273104</v>
       </c>
       <c r="T351" t="n">
-        <v>0.5511615967091171</v>
+        <v>0.1375815593233329</v>
       </c>
     </row>
     <row r="352">
@@ -23499,7 +23499,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T352" t="n">
-        <v>6.736838141126849</v>
+        <v>0.8227239303899878</v>
       </c>
     </row>
     <row r="353">
@@ -23565,7 +23565,7 @@
         <v>19.12915108949731</v>
       </c>
       <c r="T353" t="n">
-        <v>0.3305649422900857</v>
+        <v>0.02694588407825149</v>
       </c>
     </row>
     <row r="354">
@@ -23631,7 +23631,7 @@
         <v>31.87040648905106</v>
       </c>
       <c r="T354" t="n">
-        <v>0.6437146049762336</v>
+        <v>0.1446684168718775</v>
       </c>
     </row>
     <row r="355">
@@ -23697,7 +23697,7 @@
         <v>40.72745333629313</v>
       </c>
       <c r="T355" t="n">
-        <v>1.580929002944756</v>
+        <v>0.4035255139005793</v>
       </c>
     </row>
     <row r="356">
@@ -23759,7 +23759,7 @@
         <v>26.07977540019208</v>
       </c>
       <c r="T356" t="n">
-        <v>0.6619678252883873</v>
+        <v>0.1925404160699093</v>
       </c>
     </row>
     <row r="357">
@@ -23821,7 +23821,7 @@
         <v>33.09864408130603</v>
       </c>
       <c r="T357" t="n">
-        <v>1.248106899571839</v>
+        <v>0.3541463475269164</v>
       </c>
     </row>
     <row r="358">
@@ -23887,7 +23887,7 @@
         <v>33.78596609873861</v>
       </c>
       <c r="T358" t="n">
-        <v>0.6920515596193356</v>
+        <v>0.1584667282398582</v>
       </c>
     </row>
     <row r="359">
@@ -23953,7 +23953,7 @@
         <v>24.77943557297744</v>
       </c>
       <c r="T359" t="n">
-        <v>0.2907716256289593</v>
+        <v>-0.1388234700554229</v>
       </c>
     </row>
     <row r="360">
@@ -24019,7 +24019,7 @@
         <v>34.78130291226103</v>
       </c>
       <c r="T360" t="n">
-        <v>0.7094122462004662</v>
+        <v>0.1613139506729324</v>
       </c>
     </row>
     <row r="361">
@@ -24085,7 +24085,7 @@
         <v>31.91810552137758</v>
       </c>
       <c r="T361" t="n">
-        <v>0.6808310739723137</v>
+        <v>0.1644849570004616</v>
       </c>
     </row>
     <row r="362">
@@ -24151,7 +24151,7 @@
         <v>29.98948359656639</v>
       </c>
       <c r="T362" t="n">
-        <v>0.691298471609748</v>
+        <v>0.1818770846084843</v>
       </c>
     </row>
     <row r="363">
@@ -24217,7 +24217,7 @@
         <v>52.55854446604998</v>
       </c>
       <c r="T363" t="n">
-        <v>1.805133782747375</v>
+        <v>0.4172492154438541</v>
       </c>
     </row>
     <row r="364">
@@ -24283,7 +24283,7 @@
         <v>52.48848401661645</v>
       </c>
       <c r="T364" t="n">
-        <v>1.471881219893972</v>
+        <v>0.3480136428998974</v>
       </c>
     </row>
     <row r="365">
@@ -24349,7 +24349,7 @@
         <v>69.19324091283099</v>
       </c>
       <c r="T365" t="n">
-        <v>2.580097633392107</v>
+        <v>0.5069096304338743</v>
       </c>
     </row>
     <row r="366">
@@ -24415,7 +24415,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T366" t="n">
-        <v>4.112207571908459</v>
+        <v>0.6536289692662836</v>
       </c>
     </row>
     <row r="367">
@@ -24481,7 +24481,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T367" t="n">
-        <v>6.916744024892398</v>
+        <v>0.8318223287743827</v>
       </c>
     </row>
     <row r="368">
@@ -24547,7 +24547,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T368" t="n">
-        <v>2.984069177637596</v>
+        <v>0.542572876797405</v>
       </c>
     </row>
     <row r="369">
@@ -24613,7 +24613,7 @@
         <v>13.90314071384685</v>
       </c>
       <c r="T369" t="n">
-        <v>0.1776813655141796</v>
+        <v>-0.1125582075755376</v>
       </c>
     </row>
     <row r="370">
@@ -24679,7 +24679,7 @@
         <v>27.39231459698799</v>
       </c>
       <c r="T370" t="n">
-        <v>1.210367401831299</v>
+        <v>0.366528509591461</v>
       </c>
     </row>
     <row r="371">
@@ -24745,7 +24745,7 @@
         <v>24.28365347628901</v>
       </c>
       <c r="T371" t="n">
-        <v>0.4112427655901196</v>
+        <v>0.04358897632139569</v>
       </c>
     </row>
     <row r="372">
@@ -24811,7 +24811,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T372" t="n">
-        <v>1.70946972184154</v>
+        <v>0.3323686692116394</v>
       </c>
     </row>
     <row r="373">
@@ -24877,7 +24877,7 @@
         <v>75.45150234954764</v>
       </c>
       <c r="T373" t="n">
-        <v>2.139118901415389</v>
+        <v>0.4293408825861316</v>
       </c>
     </row>
     <row r="374">
@@ -24943,7 +24943,7 @@
         <v>20.7813054578905</v>
       </c>
       <c r="T374" t="n">
-        <v>0.2310128160740433</v>
+        <v>-0.1842050699875487</v>
       </c>
     </row>
     <row r="375">
@@ -25009,7 +25009,7 @@
         <v>42.07156667733643</v>
       </c>
       <c r="T375" t="n">
-        <v>1.191636904519058</v>
+        <v>0.3083218893720596</v>
       </c>
     </row>
     <row r="376">
@@ -25075,7 +25075,7 @@
         <v>50.78806234596796</v>
       </c>
       <c r="T376" t="n">
-        <v>2.325427947263084</v>
+        <v>0.5033316957331717</v>
       </c>
     </row>
     <row r="377">
@@ -25141,7 +25141,7 @@
         <v>22.25976358765023</v>
       </c>
       <c r="T377" t="n">
-        <v>0.4027487675133762</v>
+        <v>0.0588014284610392</v>
       </c>
     </row>
     <row r="378">
@@ -25207,7 +25207,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T378" t="n">
-        <v>7.389543165893499</v>
+        <v>0.8547112732010613</v>
       </c>
     </row>
     <row r="379">
@@ -25273,7 +25273,7 @@
         <v>23.31469481874703</v>
       </c>
       <c r="T379" t="n">
-        <v>0.4636510236847944</v>
+        <v>0.09741347260109467</v>
       </c>
     </row>
     <row r="380">
@@ -25339,7 +25339,7 @@
         <v>27.24330021298564</v>
       </c>
       <c r="T380" t="n">
-        <v>0.5690332110189483</v>
+        <v>0.1344072486827148</v>
       </c>
     </row>
     <row r="381">
@@ -25405,7 +25405,7 @@
         <v>38.39205786092417</v>
       </c>
       <c r="T381" t="n">
-        <v>1.418379829102253</v>
+        <v>0.376265606460519</v>
       </c>
     </row>
     <row r="382">
@@ -25471,7 +25471,7 @@
         <v>35.45542390314759</v>
       </c>
       <c r="T382" t="n">
-        <v>1.201755150233575</v>
+        <v>0.3341779190148828</v>
       </c>
     </row>
     <row r="383">
@@ -25533,7 +25533,7 @@
         <v>35.4996309387954</v>
       </c>
       <c r="T383" t="n">
-        <v>1.308817731609337</v>
+        <v>0.3604645566430547</v>
       </c>
     </row>
     <row r="384">
@@ -25599,7 +25599,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T384" t="n">
-        <v>6.519324556048468</v>
+        <v>0.8114113207953475</v>
       </c>
     </row>
     <row r="385">
@@ -25665,7 +25665,7 @@
         <v>30.60063528587546</v>
       </c>
       <c r="T385" t="n">
-        <v>0.6991274480226667</v>
+        <v>0.1819159654157159</v>
       </c>
     </row>
     <row r="386">
@@ -25727,7 +25727,7 @@
         <v>32.18902957130961</v>
       </c>
       <c r="T386" t="n">
-        <v>1.554107752917922</v>
+        <v>0.4227944352054447</v>
       </c>
     </row>
     <row r="387">
@@ -25789,7 +25789,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T387" t="n">
-        <v>9.052437441702844</v>
+        <v>0.9256352608064873</v>
       </c>
     </row>
     <row r="388">
@@ -25855,7 +25855,7 @@
         <v>16.54962648689497</v>
       </c>
       <c r="T388" t="n">
-        <v>0.3175314835379854</v>
+        <v>0.04960642354414269</v>
       </c>
     </row>
     <row r="389">
@@ -25921,7 +25921,7 @@
         <v>54.97979418884622</v>
       </c>
       <c r="T389" t="n">
-        <v>1.31785869888149</v>
+        <v>0.3007810708792606</v>
       </c>
     </row>
     <row r="390">
@@ -26043,7 +26043,7 @@
         <v>27.7693747334562</v>
       </c>
       <c r="T391" t="n">
-        <v>0.5832108932416697</v>
+        <v>0.13894023611955</v>
       </c>
     </row>
     <row r="392">
@@ -26105,7 +26105,7 @@
         <v>45.81105674626929</v>
       </c>
       <c r="T392" t="n">
-        <v>2.328428359262914</v>
+        <v>0.5130323220969037</v>
       </c>
     </row>
     <row r="393">
@@ -26171,7 +26171,7 @@
         <v>27.96027855545849</v>
       </c>
       <c r="T393" t="n">
-        <v>0.5371288968405258</v>
+        <v>0.1081547697641654</v>
       </c>
     </row>
     <row r="394">
@@ -26237,7 +26237,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T394" t="n">
-        <v>2.572742252799849</v>
+        <v>0.4897307690255572</v>
       </c>
     </row>
     <row r="395">
@@ -26303,7 +26303,7 @@
         <v>66.76849009179638</v>
       </c>
       <c r="T395" t="n">
-        <v>1.689151485648653</v>
+        <v>0.3602646394177338</v>
       </c>
     </row>
     <row r="396">
@@ -26365,7 +26365,7 @@
         <v>24.43947833496869</v>
       </c>
       <c r="T396" t="n">
-        <v>0.6816551730767975</v>
+        <v>0.21226747284561</v>
       </c>
     </row>
     <row r="397">
@@ -26431,7 +26431,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T397" t="n">
-        <v>20.90506748983858</v>
+        <v>1.233834660230386</v>
       </c>
     </row>
     <row r="398">
@@ -26497,7 +26497,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T398" t="n">
-        <v>10.21105855127162</v>
+        <v>0.9682861183036513</v>
       </c>
     </row>
     <row r="399">
@@ -26563,7 +26563,7 @@
         <v>41.34134593402792</v>
       </c>
       <c r="T399" t="n">
-        <v>1.922703604620727</v>
+        <v>0.462848237252806</v>
       </c>
     </row>
     <row r="400">
@@ -26629,7 +26629,7 @@
         <v>26.15407619625823</v>
       </c>
       <c r="T400" t="n">
-        <v>0.5298241300020384</v>
+        <v>0.1183060243666643</v>
       </c>
     </row>
     <row r="401">
@@ -26695,7 +26695,7 @@
         <v>66.4688694769153</v>
       </c>
       <c r="T401" t="n">
-        <v>4.110999535379927</v>
+        <v>0.6669260548707558</v>
       </c>
     </row>
     <row r="402">
@@ -26761,7 +26761,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T402" t="n">
-        <v>11.47504892783945</v>
+        <v>1.010083970399219</v>
       </c>
     </row>
     <row r="403">
@@ -26827,7 +26827,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T403" t="n">
-        <v>1.928843890475344</v>
+        <v>0.3814487171604666</v>
       </c>
     </row>
     <row r="404">
@@ -26893,7 +26893,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T404" t="n">
-        <v>3.649023110966485</v>
+        <v>0.6125700094941793</v>
       </c>
     </row>
     <row r="405">
@@ -26959,7 +26959,7 @@
         <v>19.46965524519494</v>
       </c>
       <c r="T405" t="n">
-        <v>0.2365057832237447</v>
+        <v>-0.1270847763101058</v>
       </c>
     </row>
     <row r="406">
@@ -27025,7 +27025,7 @@
         <v>14.20353630579561</v>
       </c>
       <c r="T406" t="n">
-        <v>0.2204453550993653</v>
+        <v>-0.03377681140587585</v>
       </c>
     </row>
     <row r="407">
@@ -27091,7 +27091,7 @@
         <v>29.32064278695829</v>
       </c>
       <c r="T407" t="n">
-        <v>0.5957199287756717</v>
+        <v>0.1348657615128428</v>
       </c>
     </row>
     <row r="408">
@@ -27153,7 +27153,7 @@
         <v>35.45356188682382</v>
       </c>
       <c r="T408" t="n">
-        <v>1.618134560078286</v>
+        <v>0.4252019802245166</v>
       </c>
     </row>
     <row r="409">
@@ -27219,7 +27219,7 @@
         <v>27.28172899868378</v>
       </c>
       <c r="T409" t="n">
-        <v>0.5246662144141473</v>
+        <v>0.1053245979069644</v>
       </c>
     </row>
     <row r="410">
@@ -27285,7 +27285,7 @@
         <v>29.55321131916491</v>
       </c>
       <c r="T410" t="n">
-        <v>0.8467317940833342</v>
+        <v>0.2499500816520377</v>
       </c>
     </row>
     <row r="411">
@@ -27351,7 +27351,7 @@
         <v>31.51895191088423</v>
       </c>
       <c r="T411" t="n">
-        <v>1.017979527188339</v>
+        <v>0.2979859066007822</v>
       </c>
     </row>
     <row r="412">
@@ -27417,7 +27417,7 @@
         <v>49.71971148169411</v>
       </c>
       <c r="T412" t="n">
-        <v>3.704636159868013</v>
+        <v>0.6529747528608527</v>
       </c>
     </row>
     <row r="413">
@@ -27483,7 +27483,7 @@
         <v>31.74014550821801</v>
       </c>
       <c r="T413" t="n">
-        <v>0.7676017217409745</v>
+        <v>0.2067398161662228</v>
       </c>
     </row>
     <row r="414">
@@ -27549,7 +27549,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T414" t="n">
-        <v>4.479875525918025</v>
+        <v>0.6829340762849194</v>
       </c>
     </row>
     <row r="415">
@@ -27615,7 +27615,7 @@
         <v>58.99118858753745</v>
       </c>
       <c r="T415" t="n">
-        <v>2.272038037511092</v>
+        <v>0.4809129830909455</v>
       </c>
     </row>
     <row r="416">
@@ -27681,7 +27681,7 @@
         <v>31.89396066462508</v>
       </c>
       <c r="T416" t="n">
-        <v>0.8266760634320751</v>
+        <v>0.23039548075387</v>
       </c>
     </row>
     <row r="417">
@@ -27747,7 +27747,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T417" t="n">
-        <v>4.434146877189305</v>
+        <v>0.6794260606199898</v>
       </c>
     </row>
     <row r="418">
@@ -27813,7 +27813,7 @@
         <v>37.88513307422858</v>
       </c>
       <c r="T418" t="n">
-        <v>0.9165969526692699</v>
+        <v>0.23601934474957</v>
       </c>
     </row>
     <row r="419">
@@ -27879,7 +27879,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T419" t="n">
-        <v>9.739666634873494</v>
+        <v>0.9514925215068883</v>
       </c>
     </row>
     <row r="420">
@@ -27945,7 +27945,7 @@
         <v>33.678187915898</v>
       </c>
       <c r="T420" t="n">
-        <v>1.387262725062238</v>
+        <v>0.3841536700697445</v>
       </c>
     </row>
     <row r="421">
@@ -28011,7 +28011,7 @@
         <v>21.7161036644406</v>
       </c>
       <c r="T421" t="n">
-        <v>0.5180654774717824</v>
+        <v>0.1480397323888529</v>
       </c>
     </row>
     <row r="422">
@@ -28077,7 +28077,7 @@
         <v>45.20322448534014</v>
       </c>
       <c r="T422" t="n">
-        <v>1.053557725228386</v>
+        <v>0.2537945950816125</v>
       </c>
     </row>
     <row r="423">
@@ -28143,7 +28143,7 @@
         <v>19.40225153544428</v>
       </c>
       <c r="T423" t="n">
-        <v>0.3722422323841023</v>
+        <v>0.06469395407931988</v>
       </c>
     </row>
     <row r="424">
@@ -28209,7 +28209,7 @@
         <v>30.57808894467006</v>
       </c>
       <c r="T424" t="n">
-        <v>1.475855894420016</v>
+        <v>0.4127191045138701</v>
       </c>
     </row>
     <row r="425">
@@ -28275,7 +28275,7 @@
         <v>19.2238948461959</v>
       </c>
       <c r="T425" t="n">
-        <v>0.3067717518916016</v>
+        <v>-0.002240125098488588</v>
       </c>
     </row>
     <row r="426">
@@ -28341,7 +28341,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T426" t="n">
-        <v>5.060478317304626</v>
+        <v>0.7245798199277387</v>
       </c>
     </row>
     <row r="427">
@@ -28407,7 +28407,7 @@
         <v>29.84132467235953</v>
       </c>
       <c r="T427" t="n">
-        <v>0.6796106451519318</v>
+        <v>0.17704744662929</v>
       </c>
     </row>
     <row r="428">
@@ -28473,7 +28473,7 @@
         <v>25.4292116300855</v>
       </c>
       <c r="T428" t="n">
-        <v>0.5292526578497746</v>
+        <v>0.123951743371667</v>
       </c>
     </row>
     <row r="429">
@@ -28535,7 +28535,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T429" t="n">
-        <v>1.883568467254586</v>
+        <v>0.3720180545034146</v>
       </c>
     </row>
     <row r="430">
@@ -28601,7 +28601,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T430" t="n">
-        <v>4.831626677864833</v>
+        <v>0.7087661992486431</v>
       </c>
     </row>
     <row r="431">
@@ -28667,7 +28667,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T431" t="n">
-        <v>3.734310502773758</v>
+        <v>0.6205293425773644</v>
       </c>
     </row>
     <row r="432">
@@ -28733,7 +28733,7 @@
         <v>29.55003802748062</v>
       </c>
       <c r="T432" t="n">
-        <v>0.5698609385295325</v>
+        <v>0.1170091984878052</v>
       </c>
     </row>
     <row r="433">
@@ -28799,7 +28799,7 @@
         <v>20.59942209476458</v>
       </c>
       <c r="T433" t="n">
-        <v>0.4942010534139174</v>
+        <v>0.1431980710003584</v>
       </c>
     </row>
     <row r="434">
@@ -28865,7 +28865,7 @@
         <v>53.08757068869356</v>
       </c>
       <c r="T434" t="n">
-        <v>3.16179484059137</v>
+        <v>0.5978172093743055</v>
       </c>
     </row>
     <row r="435">
@@ -28931,7 +28931,7 @@
         <v>51.49106035595634</v>
       </c>
       <c r="T435" t="n">
-        <v>1.426359482160445</v>
+        <v>0.3398969726108525</v>
       </c>
     </row>
     <row r="436">
@@ -28997,7 +28997,7 @@
         <v>44.62119078637263</v>
       </c>
       <c r="T436" t="n">
-        <v>1.620688687550081</v>
+        <v>0.4011502694138405</v>
       </c>
     </row>
     <row r="437">
@@ -29059,7 +29059,7 @@
         <v>35.83800305449604</v>
       </c>
       <c r="T437" t="n">
-        <v>2.101741698337641</v>
+        <v>0.5028283272600049</v>
       </c>
     </row>
     <row r="438">
@@ -29125,7 +29125,7 @@
         <v>50.09775712492509</v>
       </c>
       <c r="T438" t="n">
-        <v>3.41246212692956</v>
+        <v>0.6263579711271976</v>
       </c>
     </row>
     <row r="439">
@@ -29191,7 +29191,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T439" t="n">
-        <v>2.267248651197489</v>
+        <v>0.4433756808416085</v>
       </c>
     </row>
     <row r="440">
@@ -29253,7 +29253,7 @@
         <v>44.45871381453795</v>
       </c>
       <c r="T440" t="n">
-        <v>2.964097671260748</v>
+        <v>0.5907091235826272</v>
       </c>
     </row>
     <row r="441">
@@ -29319,7 +29319,7 @@
         <v>37.71762111895412</v>
       </c>
       <c r="T441" t="n">
-        <v>0.9712601717388419</v>
+        <v>0.2565445881348531</v>
       </c>
     </row>
     <row r="442">
@@ -29385,7 +29385,7 @@
         <v>31.61140455466182</v>
       </c>
       <c r="T442" t="n">
-        <v>1.213583584152446</v>
+        <v>0.3510453602471451</v>
       </c>
     </row>
     <row r="443">
@@ -29451,7 +29451,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T443" t="n">
-        <v>4.519821721755359</v>
+        <v>0.6859688592171385</v>
       </c>
     </row>
     <row r="444">
@@ -29517,7 +29517,7 @@
         <v>25.39203724913126</v>
       </c>
       <c r="T444" t="n">
-        <v>0.410859276681548</v>
+        <v>0.03029540967918765</v>
       </c>
     </row>
     <row r="445">
@@ -29583,7 +29583,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T445" t="n">
-        <v>1.872488082160846</v>
+        <v>0.3696599261761957</v>
       </c>
     </row>
     <row r="446">
@@ -29701,7 +29701,7 @@
         <v>41.56957514131883</v>
       </c>
       <c r="T447" t="n">
-        <v>1.342931533368507</v>
+        <v>0.349234022624584</v>
       </c>
     </row>
     <row r="448">
@@ -29767,7 +29767,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T448" t="n">
-        <v>3.024368146948305</v>
+        <v>0.5472901421254064</v>
       </c>
     </row>
     <row r="449">
@@ -29833,7 +29833,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T449" t="n">
-        <v>13.53215980289251</v>
+        <v>1.070019634662624</v>
       </c>
     </row>
     <row r="450">
@@ -29899,7 +29899,7 @@
         <v>39.24586480283918</v>
       </c>
       <c r="T450" t="n">
-        <v>0.9708645793288692</v>
+        <v>0.2497931582304995</v>
       </c>
     </row>
     <row r="451">
@@ -29965,7 +29965,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T451" t="n">
-        <v>3.385144970718365</v>
+        <v>0.5866158693277077</v>
       </c>
     </row>
     <row r="452">
@@ -30031,7 +30031,7 @@
         <v>29.05000278997168</v>
       </c>
       <c r="T452" t="n">
-        <v>0.6284490420655707</v>
+        <v>0.1555523175770435</v>
       </c>
     </row>
     <row r="453">
@@ -30097,7 +30097,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T453" t="n">
-        <v>3.478729361032517</v>
+        <v>0.5960634824093813</v>
       </c>
     </row>
     <row r="454">
@@ -30159,7 +30159,7 @@
         <v>40.96228324540169</v>
       </c>
       <c r="T454" t="n">
-        <v>3.356641748435963</v>
+        <v>0.6351273709350467</v>
       </c>
     </row>
     <row r="455">
@@ -30225,7 +30225,7 @@
         <v>19.93753360420809</v>
       </c>
       <c r="T455" t="n">
-        <v>0.3863163756500854</v>
+        <v>0.07085568234700212</v>
       </c>
     </row>
     <row r="456">
@@ -30291,7 +30291,7 @@
         <v>60.72296079001391</v>
       </c>
       <c r="T456" t="n">
-        <v>2.670890126674279</v>
+        <v>0.53173655536221</v>
       </c>
     </row>
     <row r="457">
@@ -30357,7 +30357,7 @@
         <v>16.74104538984231</v>
       </c>
       <c r="T457" t="n">
-        <v>0.249696403221331</v>
+        <v>-0.03899379613878273</v>
       </c>
     </row>
     <row r="458">
@@ -30423,7 +30423,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T458" t="n">
-        <v>5.725955265832989</v>
+        <v>0.7668468880300423</v>
       </c>
     </row>
     <row r="459">
@@ -30489,7 +30489,7 @@
         <v>36.99302375434084</v>
       </c>
       <c r="T459" t="n">
-        <v>0.9555763979506627</v>
+        <v>0.2542193087777538</v>
       </c>
     </row>
     <row r="460">
@@ -30555,7 +30555,7 @@
         <v>40.87500332144521</v>
       </c>
       <c r="T460" t="n">
-        <v>1.041167192610706</v>
+        <v>0.2670636012089451</v>
       </c>
     </row>
     <row r="461">
@@ -30621,7 +30621,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T461" t="n">
-        <v>2.278925929917456</v>
+        <v>0.4452897194123899</v>
       </c>
     </row>
     <row r="462">
@@ -30687,7 +30687,7 @@
         <v>36.67615860904036</v>
       </c>
       <c r="T462" t="n">
-        <v>1.135974528863252</v>
+        <v>0.3120112473876149</v>
       </c>
     </row>
     <row r="463">
@@ -30753,7 +30753,7 @@
         <v>44.07932278725424</v>
       </c>
       <c r="T463" t="n">
-        <v>1.00025126456258</v>
+        <v>0.239556006910151</v>
       </c>
     </row>
     <row r="464">
@@ -30819,7 +30819,7 @@
         <v>27.42055703853155</v>
       </c>
       <c r="T464" t="n">
-        <v>0.5909140888019812</v>
+        <v>0.14604158631912</v>
       </c>
     </row>
     <row r="465">
@@ -30885,7 +30885,7 @@
         <v>23.8636543137431</v>
       </c>
       <c r="T465" t="n">
-        <v>0.4722024387613314</v>
+        <v>0.09851530517984797</v>
       </c>
     </row>
     <row r="466">
@@ -30947,7 +30947,7 @@
         <v>25.14994443244406</v>
       </c>
       <c r="T466" t="n">
-        <v>0.9788496532338323</v>
+        <v>0.3151045916194011</v>
       </c>
     </row>
     <row r="467">
@@ -31013,7 +31013,7 @@
         <v>27.15103207069214</v>
       </c>
       <c r="T467" t="n">
-        <v>0.7706629618966211</v>
+        <v>0.2335237626375137</v>
       </c>
     </row>
     <row r="468">
@@ -31079,7 +31079,7 @@
         <v>52.87465369693896</v>
       </c>
       <c r="T468" t="n">
-        <v>1.462161768251327</v>
+        <v>0.3446103338243871</v>
       </c>
     </row>
     <row r="469">
@@ -31141,7 +31141,7 @@
         <v>26.72338296167519</v>
       </c>
       <c r="T469" t="n">
-        <v>1.086296057041623</v>
+        <v>0.3379646772819205</v>
       </c>
     </row>
     <row r="470">
@@ -31207,7 +31207,7 @@
         <v>25.79309368483652</v>
       </c>
       <c r="T470" t="n">
-        <v>0.6352982361294778</v>
+        <v>0.1813903250835991</v>
       </c>
     </row>
     <row r="471">
@@ -31273,7 +31273,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T471" t="n">
-        <v>4.594890871667535</v>
+        <v>0.6915991758401718</v>
       </c>
     </row>
     <row r="472">
@@ -31339,7 +31339,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T472" t="n">
-        <v>3.744626104203789</v>
+        <v>0.6214788967153888</v>
       </c>
     </row>
     <row r="473">
@@ -31405,7 +31405,7 @@
         <v>27.20397199213647</v>
       </c>
       <c r="T473" t="n">
-        <v>0.5765727135739063</v>
+        <v>0.1392461619741261</v>
       </c>
     </row>
     <row r="474">
@@ -31471,7 +31471,7 @@
         <v>26.76204711694031</v>
       </c>
       <c r="T474" t="n">
-        <v>0.5724856274014118</v>
+        <v>0.1401654196334232</v>
       </c>
     </row>
     <row r="475">
@@ -31533,7 +31533,7 @@
         <v>22.4341917579078</v>
       </c>
       <c r="T475" t="n">
-        <v>0.5927105395653257</v>
+        <v>0.1837216442091456</v>
       </c>
     </row>
     <row r="476">
@@ -31599,7 +31599,7 @@
         <v>30.37843096164813</v>
       </c>
       <c r="T476" t="n">
-        <v>0.8510967876445559</v>
+        <v>0.2474121759531704</v>
       </c>
     </row>
     <row r="477">
@@ -31665,7 +31665,7 @@
         <v>21.98982066745607</v>
       </c>
       <c r="T477" t="n">
-        <v>0.4148380185833573</v>
+        <v>0.07231075326475334</v>
       </c>
     </row>
     <row r="478">
@@ -31731,7 +31731,7 @@
         <v>20.65451157870781</v>
       </c>
       <c r="T478" t="n">
-        <v>0.3583938574332138</v>
+        <v>0.03578845197509284</v>
       </c>
     </row>
     <row r="479">
@@ -31797,7 +31797,7 @@
         <v>27.94294250338796</v>
       </c>
       <c r="T479" t="n">
-        <v>0.7246537686904514</v>
+        <v>0.209672409339098</v>
       </c>
     </row>
     <row r="480">
@@ -31863,7 +31863,7 @@
         <v>30.22024732326331</v>
       </c>
       <c r="T480" t="n">
-        <v>0.7044324174061795</v>
+        <v>0.1867915273940595</v>
       </c>
     </row>
     <row r="481">
@@ -31929,7 +31929,7 @@
         <v>20.57550005954479</v>
       </c>
       <c r="T481" t="n">
-        <v>0.401826219772687</v>
+        <v>0.07688437134675263</v>
       </c>
     </row>
     <row r="482">
@@ -31995,7 +31995,7 @@
         <v>31.84999544269346</v>
       </c>
       <c r="T482" t="n">
-        <v>0.8611486139834811</v>
+        <v>0.2438579653412567</v>
       </c>
     </row>
     <row r="483">
@@ -32061,7 +32061,7 @@
         <v>28.10899274538325</v>
       </c>
       <c r="T483" t="n">
-        <v>0.6908228804815345</v>
+        <v>0.1933051796273502</v>
       </c>
     </row>
     <row r="484">
@@ -32123,7 +32123,7 @@
         <v>24.92561366137426</v>
       </c>
       <c r="T484" t="n">
-        <v>0.8200722899532772</v>
+        <v>0.2646598593629281</v>
       </c>
     </row>
     <row r="485">
@@ -32189,7 +32189,7 @@
         <v>65.57921526997237</v>
       </c>
       <c r="T485" t="n">
-        <v>3.003707644324451</v>
+        <v>0.5636980698371865</v>
       </c>
     </row>
     <row r="486">
@@ -32255,7 +32255,7 @@
         <v>53.01084714287661</v>
       </c>
       <c r="T486" t="n">
-        <v>3.099133153581307</v>
+        <v>0.591524085264127</v>
       </c>
     </row>
     <row r="487">
@@ -32321,7 +32321,7 @@
         <v>14.7717697348674</v>
       </c>
       <c r="T487" t="n">
-        <v>0.1865800354520461</v>
+        <v>-0.1163493462006131</v>
       </c>
     </row>
     <row r="488">
@@ -32387,7 +32387,7 @@
         <v>29.91190278869903</v>
       </c>
       <c r="T488" t="n">
-        <v>0.4516187129149061</v>
+        <v>0.01832250072741837</v>
       </c>
     </row>
     <row r="489">
@@ -32453,7 +32453,7 @@
         <v>47.38137421751517</v>
       </c>
       <c r="T489" t="n">
-        <v>2.892844761849983</v>
+        <v>0.5783044687997747</v>
       </c>
     </row>
     <row r="490">
@@ -32515,7 +32515,7 @@
         <v>60.24501478616679</v>
       </c>
       <c r="T490" t="n">
-        <v>6.687278830386167</v>
+        <v>0.8346306008857112</v>
       </c>
     </row>
     <row r="491">
@@ -32581,7 +32581,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T491" t="n">
-        <v>4.302091574047816</v>
+        <v>0.6690846580626446</v>
       </c>
     </row>
     <row r="492">
@@ -32647,7 +32647,7 @@
         <v>22.73705646505742</v>
       </c>
       <c r="T492" t="n">
-        <v>0.4007077793497578</v>
+        <v>0.05149857607867503</v>
       </c>
     </row>
     <row r="493">
@@ -32713,7 +32713,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T493" t="n">
-        <v>1.196960720304894</v>
+        <v>0.1591903605593044</v>
       </c>
     </row>
     <row r="494">
@@ -32779,7 +32779,7 @@
         <v>52.93759675787797</v>
       </c>
       <c r="T494" t="n">
-        <v>1.66572387431973</v>
+        <v>0.3893561888959338</v>
       </c>
     </row>
     <row r="495">
@@ -32845,7 +32845,7 @@
         <v>21.75098630828329</v>
       </c>
       <c r="T495" t="n">
-        <v>0.4848484258608052</v>
+        <v>0.1267879918989792</v>
       </c>
     </row>
     <row r="496">
@@ -32907,7 +32907,7 @@
         <v>35.10802814242787</v>
       </c>
       <c r="T496" t="n">
-        <v>2.338829984392869</v>
+        <v>0.536608411940684</v>
       </c>
     </row>
     <row r="497">
@@ -32973,7 +32973,7 @@
         <v>24.8666558258181</v>
       </c>
       <c r="T497" t="n">
-        <v>0.7654896742527842</v>
+        <v>0.2445683716883762</v>
       </c>
     </row>
     <row r="498">
@@ -33039,7 +33039,7 @@
         <v>64.36666237433157</v>
       </c>
       <c r="T498" t="n">
-        <v>3.571677219365522</v>
+        <v>0.622740700330789</v>
       </c>
     </row>
     <row r="499">
@@ -33105,7 +33105,7 @@
         <v>70.27845535987642</v>
       </c>
       <c r="T499" t="n">
-        <v>3.177583293495095</v>
+        <v>0.5763647480902163</v>
       </c>
     </row>
     <row r="500">
@@ -33171,7 +33171,7 @@
         <v>39.30933083699012</v>
       </c>
       <c r="T500" t="n">
-        <v>0.8026147681359342</v>
+        <v>0.1809342722148173</v>
       </c>
     </row>
     <row r="501">
@@ -33237,7 +33237,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T501" t="n">
-        <v>3.723103052761161</v>
+        <v>0.6194945305105644</v>
       </c>
     </row>
     <row r="502">
@@ -33299,7 +33299,7 @@
         <v>42.97355347100712</v>
       </c>
       <c r="T502" t="n">
-        <v>1.48990164215096</v>
+        <v>0.378563339811786</v>
       </c>
     </row>
     <row r="503">
@@ -33365,7 +33365,7 @@
         <v>13.89254901774718</v>
       </c>
       <c r="T503" t="n">
-        <v>0.2130048252954735</v>
+        <v>-0.03937044955231195</v>
       </c>
     </row>
     <row r="504">
@@ -33431,7 +33431,7 @@
         <v>25.78884420309896</v>
       </c>
       <c r="T504" t="n">
-        <v>0.8231144677802614</v>
+        <v>0.261014328908826</v>
       </c>
     </row>
     <row r="505">
@@ -33497,7 +33497,7 @@
         <v>29.86857817817782</v>
       </c>
       <c r="T505" t="n">
-        <v>0.5396817964219794</v>
+        <v>0.09382187921092444</v>
       </c>
     </row>
     <row r="506">
@@ -33563,7 +33563,7 @@
         <v>26.03926416168699</v>
       </c>
       <c r="T506" t="n">
-        <v>0.4232414065747391</v>
+        <v>0.03492307701741826</v>
       </c>
     </row>
     <row r="507">
@@ -33629,7 +33629,7 @@
         <v>25.28348273388164</v>
       </c>
       <c r="T507" t="n">
-        <v>0.5510646134347316</v>
+        <v>0.1387696449132629</v>
       </c>
     </row>
     <row r="508">
@@ -33695,7 +33695,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T508" t="n">
-        <v>7.964944819130261</v>
+        <v>0.8807880045412118</v>
       </c>
     </row>
     <row r="509">
@@ -33761,7 +33761,7 @@
         <v>40.45913785559006</v>
       </c>
       <c r="T509" t="n">
-        <v>1.34285682840481</v>
+        <v>0.3526607346487571</v>
       </c>
     </row>
     <row r="510">
@@ -33827,7 +33827,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T510" t="n">
-        <v>4.426694916044652</v>
+        <v>0.6788509070005282</v>
       </c>
     </row>
     <row r="511">
@@ -33893,7 +33893,7 @@
         <v>18.59995084235902</v>
       </c>
       <c r="T511" t="n">
-        <v>0.3275689572851576</v>
+        <v>0.03111599231101247</v>
       </c>
     </row>
     <row r="512">
@@ -33959,7 +33959,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T512" t="n">
-        <v>5.718371534721803</v>
+        <v>0.7663928280173777</v>
       </c>
     </row>
     <row r="513">
@@ -34025,7 +34025,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T513" t="n">
-        <v>5.087418541812865</v>
+        <v>0.7263944498861929</v>
       </c>
     </row>
     <row r="514">
@@ -34091,7 +34091,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T514" t="n">
-        <v>3.50155089384424</v>
+        <v>0.5983255258606077</v>
       </c>
     </row>
     <row r="515">
@@ -34153,7 +34153,7 @@
         <v>33.30848410346447</v>
       </c>
       <c r="T515" t="n">
-        <v>2.447022021018514</v>
+        <v>0.5543501739629244</v>
       </c>
     </row>
     <row r="516">
@@ -34219,7 +34219,7 @@
         <v>25.01004542586258</v>
       </c>
       <c r="T516" t="n">
-        <v>0.6075768826752154</v>
+        <v>0.172626573985261</v>
       </c>
     </row>
     <row r="517">
@@ -34285,7 +34285,7 @@
         <v>73.25565865522655</v>
       </c>
       <c r="T517" t="n">
-        <v>6.240107883924444</v>
+        <v>0.8009617673512159</v>
       </c>
     </row>
     <row r="518">
@@ -34351,7 +34351,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T518" t="n">
-        <v>7.231345341160331</v>
+        <v>0.8472096586989069</v>
       </c>
     </row>
     <row r="519">
@@ -34417,7 +34417,7 @@
         <v>40.86396468523742</v>
       </c>
       <c r="T519" t="n">
-        <v>1.4708182339428</v>
+        <v>0.3804206848982028</v>
       </c>
     </row>
     <row r="520">
@@ -34483,7 +34483,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T520" t="n">
-        <v>3.42230328762076</v>
+        <v>0.5904007519650083</v>
       </c>
     </row>
     <row r="521">
@@ -34549,7 +34549,7 @@
         <v>33.75199100401795</v>
       </c>
       <c r="T521" t="n">
-        <v>0.635404805085911</v>
+        <v>0.1265955233741263</v>
       </c>
     </row>
     <row r="522">
@@ -34615,7 +34615,7 @@
         <v>28.02481760198778</v>
       </c>
       <c r="T522" t="n">
-        <v>0.7064053163504647</v>
+        <v>0.2010246103321065</v>
       </c>
     </row>
     <row r="523">
@@ -34681,7 +34681,7 @@
         <v>36.43856279459875</v>
       </c>
       <c r="T523" t="n">
-        <v>0.6570568026558469</v>
+        <v>0.1206344142468871</v>
       </c>
     </row>
     <row r="524">
@@ -34743,7 +34743,7 @@
         <v>27.90270115708508</v>
       </c>
       <c r="T524" t="n">
-        <v>0.9218806146021064</v>
+        <v>0.2841194987827167</v>
       </c>
     </row>
     <row r="525">
@@ -34805,7 +34805,7 @@
         <v>22.18312865563349</v>
       </c>
       <c r="T525" t="n">
-        <v>0.5642214736659941</v>
+        <v>0.170612348838032</v>
       </c>
     </row>
     <row r="526">
@@ -34867,7 +34867,7 @@
         <v>20.86538846270173</v>
       </c>
       <c r="T526" t="n">
-        <v>0.526072484082197</v>
+        <v>0.159996231388243</v>
       </c>
     </row>
     <row r="527">
@@ -34933,7 +34933,7 @@
         <v>19.7232193526665</v>
       </c>
       <c r="T527" t="n">
-        <v>0.265683199975046</v>
+        <v>-0.07240546542428483</v>
       </c>
     </row>
     <row r="528">
@@ -34999,7 +34999,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T528" t="n">
-        <v>12.54415860480428</v>
+        <v>1.042328658908662</v>
       </c>
     </row>
     <row r="529">
@@ -35065,7 +35065,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T529" t="n">
-        <v>4.848224872216413</v>
+        <v>0.7099379869324556</v>
       </c>
     </row>
     <row r="530">
@@ -35127,7 +35127,7 @@
         <v>28.9569059027334</v>
       </c>
       <c r="T530" t="n">
-        <v>1.171514242888721</v>
+        <v>0.3507119186376828</v>
       </c>
     </row>
     <row r="531">
@@ -35193,7 +35193,7 @@
         <v>20.5574730164655</v>
       </c>
       <c r="T531" t="n">
-        <v>0.5328225540100956</v>
+        <v>0.1664590152870489</v>
       </c>
     </row>
     <row r="532">
@@ -35259,7 +35259,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T532" t="n">
-        <v>4.89217005346588</v>
+        <v>0.7130211562895579</v>
       </c>
     </row>
     <row r="533">
@@ -35325,7 +35325,7 @@
         <v>54.65068594063985</v>
       </c>
       <c r="T533" t="n">
-        <v>1.39697950397714</v>
+        <v>0.3231982143687475</v>
       </c>
     </row>
     <row r="534">
@@ -35387,7 +35387,7 @@
         <v>18.84676263918492</v>
       </c>
       <c r="T534" t="n">
-        <v>0.3964467460350495</v>
+        <v>0.09182325790559664</v>
       </c>
     </row>
     <row r="535">
@@ -35453,7 +35453,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T535" t="n">
-        <v>13.32293677628676</v>
+        <v>1.06430908955058</v>
       </c>
     </row>
     <row r="536">
@@ -35519,7 +35519,7 @@
         <v>24.46262894247576</v>
       </c>
       <c r="T536" t="n">
-        <v>0.762515981130777</v>
+        <v>0.2457861403705826</v>
       </c>
     </row>
     <row r="537">
@@ -35585,7 +35585,7 @@
         <v>25.9762943284382</v>
       </c>
       <c r="T537" t="n">
-        <v>0.5359093610881984</v>
+        <v>0.1237360598236013</v>
       </c>
     </row>
     <row r="538">
@@ -35651,7 +35651,7 @@
         <v>30.55239534123553</v>
       </c>
       <c r="T538" t="n">
-        <v>0.7514031477404447</v>
+        <v>0.206315822039405</v>
       </c>
     </row>
     <row r="539">
@@ -35717,7 +35717,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T539" t="n">
-        <v>5.453565478262731</v>
+        <v>0.7501595018362421</v>
       </c>
     </row>
     <row r="540">
@@ -35783,7 +35783,7 @@
         <v>24.58964489120839</v>
       </c>
       <c r="T540" t="n">
-        <v>0.690178426201422</v>
+        <v>0.2150813102554621</v>
       </c>
     </row>
     <row r="541">
@@ -35849,7 +35849,7 @@
         <v>27.99304294493172</v>
       </c>
       <c r="T541" t="n">
-        <v>0.5484451407005094</v>
+        <v>0.1154614355184485</v>
       </c>
     </row>
     <row r="542">
@@ -35915,7 +35915,7 @@
         <v>22.60111080568453</v>
       </c>
       <c r="T542" t="n">
-        <v>0.3505444005104129</v>
+        <v>0.0009600611112119406</v>
       </c>
     </row>
     <row r="543">
@@ -35981,7 +35981,7 @@
         <v>25.0010947455868</v>
       </c>
       <c r="T543" t="n">
-        <v>0.6210446068266638</v>
+        <v>0.1796463383996851</v>
       </c>
     </row>
     <row r="544">
@@ -36047,7 +36047,7 @@
         <v>37.51559408501109</v>
       </c>
       <c r="T544" t="n">
-        <v>0.9086386496290958</v>
+        <v>0.2347209052656305</v>
       </c>
     </row>
     <row r="545">
@@ -36113,7 +36113,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T545" t="n">
-        <v>4.695229976750002</v>
+        <v>0.6989814278513182</v>
       </c>
     </row>
     <row r="546">
@@ -36179,7 +36179,7 @@
         <v>54.16663480732258</v>
       </c>
       <c r="T546" t="n">
-        <v>1.339218562870662</v>
+        <v>0.3093080673592004</v>
       </c>
     </row>
     <row r="547">
@@ -36241,7 +36241,7 @@
         <v>23.92062671860971</v>
       </c>
       <c r="T547" t="n">
-        <v>1.258641954659152</v>
+        <v>0.3924907298376217</v>
       </c>
     </row>
     <row r="548">
@@ -36303,7 +36303,7 @@
         <v>20.04222531089868</v>
       </c>
       <c r="T548" t="n">
-        <v>0.5629031125847737</v>
+        <v>0.1870387233511177</v>
       </c>
     </row>
     <row r="549">
@@ -36365,7 +36365,7 @@
         <v>25.25960940389869</v>
       </c>
       <c r="T549" t="n">
-        <v>0.93979959370188</v>
+        <v>0.3027656242477557</v>
       </c>
     </row>
     <row r="550">
@@ -36427,7 +36427,7 @@
         <v>19.95710349313154</v>
       </c>
       <c r="T550" t="n">
-        <v>0.3049343846975248</v>
+        <v>-0.0162782253505166</v>
       </c>
     </row>
     <row r="551">
@@ -36493,7 +36493,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T551" t="n">
-        <v>4.629425094704541</v>
+        <v>0.694158148241055</v>
       </c>
     </row>
     <row r="552">
@@ -36559,7 +36559,7 @@
         <v>29.95109803706451</v>
       </c>
       <c r="T552" t="n">
-        <v>0.9580149525935741</v>
+        <v>0.2862143746499872</v>
       </c>
     </row>
     <row r="553">
@@ -36625,7 +36625,7 @@
         <v>41.33949111544309</v>
       </c>
       <c r="T553" t="n">
-        <v>1.692089334552083</v>
+        <v>0.4231704150536506</v>
       </c>
     </row>
     <row r="554">
@@ -36687,7 +36687,7 @@
         <v>26.99645636528849</v>
       </c>
       <c r="T554" t="n">
-        <v>0.7073458577756112</v>
+        <v>0.2076971312411007</v>
       </c>
     </row>
     <row r="555">
@@ -36753,7 +36753,7 @@
         <v>19.40615562119852</v>
       </c>
       <c r="T555" t="n">
-        <v>0.3120939198122213</v>
+        <v>0.001552661769148589</v>
       </c>
     </row>
     <row r="556">
@@ -36819,7 +36819,7 @@
         <v>36.36575487061014</v>
       </c>
       <c r="T556" t="n">
-        <v>1.964704329023927</v>
+        <v>0.4812707736042494</v>
       </c>
     </row>
     <row r="557">
@@ -36885,7 +36885,7 @@
         <v>34.82519117515498</v>
       </c>
       <c r="T557" t="n">
-        <v>0.8667141499472729</v>
+        <v>0.2314348249351872</v>
       </c>
     </row>
     <row r="558">
@@ -36951,7 +36951,7 @@
         <v>28.60913458595566</v>
       </c>
       <c r="T558" t="n">
-        <v>0.6777969214200232</v>
+        <v>0.1839435731958072</v>
       </c>
     </row>
     <row r="559">
@@ -37017,7 +37017,7 @@
         <v>77.64432421885606</v>
       </c>
       <c r="T559" t="n">
-        <v>6.734430567337179</v>
+        <v>0.8238785647558722</v>
       </c>
     </row>
     <row r="560">
@@ -37083,7 +37083,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T560" t="n">
-        <v>3.47144808262723</v>
+        <v>0.5953383856569197</v>
       </c>
     </row>
     <row r="561">
@@ -37145,7 +37145,7 @@
         <v>34.29364451109238</v>
       </c>
       <c r="T561" t="n">
-        <v>2.318540140538077</v>
+        <v>0.5359062625077058</v>
       </c>
     </row>
     <row r="562">
@@ -37207,7 +37207,7 @@
         <v>24.10532620626672</v>
       </c>
       <c r="T562" t="n">
-        <v>1.474278841137771</v>
+        <v>0.4363246524413849</v>
       </c>
     </row>
     <row r="563">
@@ -37269,7 +37269,7 @@
         <v>65.80893687991811</v>
       </c>
       <c r="T563" t="n">
-        <v>8.406723543953811</v>
+        <v>0.9083588610065647</v>
       </c>
     </row>
     <row r="564">
@@ -37335,7 +37335,7 @@
         <v>21.17247440414505</v>
       </c>
       <c r="T564" t="n">
-        <v>0.527024831568692</v>
+        <v>0.1579467692487482</v>
       </c>
     </row>
     <row r="565">
@@ -37401,7 +37401,7 @@
         <v>40.31706306657556</v>
       </c>
       <c r="T565" t="n">
-        <v>1.309416428733865</v>
+        <v>0.3450194272164033</v>
       </c>
     </row>
     <row r="566">
@@ -37467,7 +37467,7 @@
         <v>22.89099138124035</v>
       </c>
       <c r="T566" t="n">
-        <v>0.5608924883153107</v>
+        <v>0.1632376366927053</v>
       </c>
     </row>
     <row r="567">
@@ -37533,7 +37533,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T567" t="n">
-        <v>4.183895958353593</v>
+        <v>0.6595488955675175</v>
       </c>
     </row>
     <row r="568">
@@ -37599,7 +37599,7 @@
         <v>64.08106152000013</v>
       </c>
       <c r="T568" t="n">
-        <v>5.274674830648507</v>
+        <v>0.7520014722995059</v>
       </c>
     </row>
     <row r="569">
@@ -37665,7 +37665,7 @@
         <v>16.73243831618179</v>
       </c>
       <c r="T569" t="n">
-        <v>0.2447112087788442</v>
+        <v>-0.04688348941287468</v>
       </c>
     </row>
     <row r="570">
@@ -37731,7 +37731,7 @@
         <v>20.86112874297339</v>
       </c>
       <c r="T570" t="n">
-        <v>0.4200082864207413</v>
+        <v>0.08863372822731663</v>
       </c>
     </row>
     <row r="571">
@@ -37797,7 +37797,7 @@
         <v>19.0427769174383</v>
       </c>
       <c r="T571" t="n">
-        <v>0.2574582419209413</v>
+        <v>-0.07288315714403826</v>
       </c>
     </row>
     <row r="572">
@@ -37863,7 +37863,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T572" t="n">
-        <v>8.46976955897887</v>
+        <v>0.902265201450172</v>
       </c>
     </row>
     <row r="573">
@@ -37929,7 +37929,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T573" t="n">
-        <v>6.969392099053315</v>
+        <v>0.8344426730620351</v>
       </c>
     </row>
     <row r="574">
@@ -37995,7 +37995,7 @@
         <v>19.90287545161434</v>
       </c>
       <c r="T574" t="n">
-        <v>0.3236506103227585</v>
+        <v>0.008026106928161969</v>
       </c>
     </row>
     <row r="575">
@@ -38057,7 +38057,7 @@
         <v>23.61989364613123</v>
       </c>
       <c r="T575" t="n">
-        <v>1.371278090492717</v>
+        <v>0.4179854463300714</v>
       </c>
     </row>
     <row r="576">
@@ -38123,7 +38123,7 @@
         <v>70.67852022667418</v>
       </c>
       <c r="T576" t="n">
-        <v>5.364103367295781</v>
+        <v>0.7518127914214277</v>
       </c>
     </row>
     <row r="577">
@@ -38189,7 +38189,7 @@
         <v>21.19682501665368</v>
       </c>
       <c r="T577" t="n">
-        <v>0.367588741128265</v>
+        <v>0.03817476842578671</v>
       </c>
     </row>
     <row r="578">
@@ -38255,7 +38255,7 @@
         <v>20.19760104622835</v>
       </c>
       <c r="T578" t="n">
-        <v>0.525801818032026</v>
+        <v>0.1655495446485988</v>
       </c>
     </row>
     <row r="579">
@@ -38321,7 +38321,7 @@
         <v>30.50938425830972</v>
       </c>
       <c r="T579" t="n">
-        <v>0.6457593497701571</v>
+        <v>0.1550617545258777</v>
       </c>
     </row>
     <row r="580">
@@ -38387,7 +38387,7 @@
         <v>17.75838871505948</v>
       </c>
       <c r="T580" t="n">
-        <v>0.2360829308513851</v>
+        <v>-0.08478213893889441</v>
       </c>
     </row>
     <row r="581">
@@ -38453,7 +38453,7 @@
         <v>19.00222137213181</v>
       </c>
       <c r="T581" t="n">
-        <v>0.2775532400817699</v>
+        <v>-0.03876020145988146</v>
       </c>
     </row>
     <row r="582">
@@ -38519,7 +38519,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T582" t="n">
-        <v>4.313861701343296</v>
+        <v>0.6700194761403726</v>
       </c>
     </row>
     <row r="583">
@@ -38585,7 +38585,7 @@
         <v>52.11792673332998</v>
       </c>
       <c r="T583" t="n">
-        <v>2.60540433033422</v>
+        <v>0.5374057364402851</v>
       </c>
     </row>
     <row r="584">
@@ -38651,7 +38651,7 @@
         <v>23.81686654531946</v>
       </c>
       <c r="T584" t="n">
-        <v>0.5938231627068487</v>
+        <v>0.1740426443915404</v>
       </c>
     </row>
     <row r="585">
@@ -38713,7 +38713,7 @@
         <v>26.05824831747013</v>
       </c>
       <c r="T585" t="n">
-        <v>2.035690062340022</v>
+        <v>0.520969443309333</v>
       </c>
     </row>
     <row r="586">
@@ -38779,7 +38779,7 @@
         <v>29.77277206993957</v>
       </c>
       <c r="T586" t="n">
-        <v>0.924991644386882</v>
+        <v>0.2762787147994088</v>
       </c>
     </row>
     <row r="587">
@@ -38841,7 +38841,7 @@
         <v>48.58760657342847</v>
       </c>
       <c r="T587" t="n">
-        <v>1.756766505835228</v>
+        <v>0.4174669133813771</v>
       </c>
     </row>
     <row r="588">
@@ -38907,7 +38907,7 @@
         <v>38.76304346341524</v>
       </c>
       <c r="T588" t="n">
-        <v>1.335226292942218</v>
+        <v>0.3561623520076616</v>
       </c>
     </row>
     <row r="589">
@@ -38969,7 +38969,7 @@
         <v>22.80852465768</v>
       </c>
       <c r="T589" t="n">
-        <v>1.162145093354499</v>
+        <v>0.3752877430141306</v>
       </c>
     </row>
     <row r="590">
@@ -39035,7 +39035,7 @@
         <v>22.68937139892954</v>
       </c>
       <c r="T590" t="n">
-        <v>0.6245853730238025</v>
+        <v>0.1976970001398926</v>
       </c>
     </row>
     <row r="591">
@@ -39101,7 +39101,7 @@
         <v>9.434369622757572</v>
       </c>
       <c r="T591" t="n">
-        <v>0.1067316516823584</v>
+        <v>-0.166501975906121</v>
       </c>
     </row>
     <row r="592">
@@ -39167,7 +39167,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T592" t="n">
-        <v>4.881817436097813</v>
+        <v>0.7122973186117396</v>
       </c>
     </row>
     <row r="593">
@@ -39229,7 +39229,7 @@
         <v>28.64440889898282</v>
       </c>
       <c r="T593" t="n">
-        <v>0.9820519558299065</v>
+        <v>0.2996387879956863</v>
       </c>
     </row>
     <row r="594">
@@ -39291,7 +39291,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T594" t="n">
-        <v>8.243438216362584</v>
+        <v>0.8927866279025392</v>
       </c>
     </row>
     <row r="595">
@@ -39357,7 +39357,7 @@
         <v>22.67619191587935</v>
       </c>
       <c r="T595" t="n">
-        <v>0.6357277633325427</v>
+        <v>0.2031020338167575</v>
       </c>
     </row>
     <row r="596">
@@ -39423,7 +39423,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T596" t="n">
-        <v>3.35261701788946</v>
+        <v>0.5832651645149045</v>
       </c>
     </row>
     <row r="597">
@@ -39485,7 +39485,7 @@
         <v>47.0651449371675</v>
       </c>
       <c r="T597" t="n">
-        <v>3.208129312275171</v>
+        <v>0.6112974686123469</v>
       </c>
     </row>
     <row r="598">
@@ -39547,7 +39547,7 @@
         <v>29.41119852635375</v>
       </c>
       <c r="T598" t="n">
-        <v>1.301014509004303</v>
+        <v>0.379787404844534</v>
       </c>
     </row>
     <row r="599">
@@ -39609,7 +39609,7 @@
         <v>19.56494835935888</v>
       </c>
       <c r="T599" t="n">
-        <v>0.5530256223561353</v>
+        <v>0.1858274834358344</v>
       </c>
     </row>
     <row r="600">
@@ -39675,7 +39675,7 @@
         <v>30.82394093319034</v>
       </c>
       <c r="T600" t="n">
-        <v>0.8828794903189795</v>
+        <v>0.2567910850111323</v>
       </c>
     </row>
     <row r="601">
@@ -39741,7 +39741,7 @@
         <v>19.51149672604596</v>
       </c>
       <c r="T601" t="n">
-        <v>0.4288349208071098</v>
+        <v>0.1095252503480404</v>
       </c>
     </row>
     <row r="602">
@@ -39807,7 +39807,7 @@
         <v>29.98601129464399</v>
       </c>
       <c r="T602" t="n">
-        <v>0.6498671935468563</v>
+        <v>0.1607860806956083</v>
       </c>
     </row>
     <row r="603">
@@ -39873,7 +39873,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T603" t="n">
-        <v>7.302431064923327</v>
+        <v>0.8505993073920051</v>
       </c>
     </row>
     <row r="604">
@@ -39935,7 +39935,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T604" t="n">
-        <v>6.460107062755054</v>
+        <v>0.8082694127500099</v>
       </c>
     </row>
     <row r="605">
@@ -40001,7 +40001,7 @@
         <v>15.76384613424678</v>
       </c>
       <c r="T605" t="n">
-        <v>0.2635279348223395</v>
+        <v>-0.0007213175092583013</v>
       </c>
     </row>
     <row r="606">
@@ -40063,7 +40063,7 @@
         <v>24.1378791068856</v>
       </c>
       <c r="T606" t="n">
-        <v>1.627206277775642</v>
+        <v>0.4641123218694294</v>
       </c>
     </row>
     <row r="607">
@@ -40125,7 +40125,7 @@
         <v>21.21389748667988</v>
       </c>
       <c r="T607" t="n">
-        <v>0.5710986250673308</v>
+        <v>0.1819020177991475</v>
       </c>
     </row>
     <row r="608">
@@ -40191,7 +40191,7 @@
         <v>71.14551279227847</v>
       </c>
       <c r="T608" t="n">
-        <v>1.855926999512876</v>
+        <v>0.3853293745592661</v>
       </c>
     </row>
     <row r="609">
@@ -40255,7 +40255,7 @@
         <v>28.51563797035093</v>
       </c>
       <c r="T609" t="n">
-        <v>0.3165539621155759</v>
+        <v>-0.1793588362061747</v>
       </c>
     </row>
     <row r="610">
@@ -40321,7 +40321,7 @@
         <v>47.45650570127712</v>
       </c>
       <c r="T610" t="n">
-        <v>1.248907664405491</v>
+        <v>0.3060488239076982</v>
       </c>
     </row>
     <row r="611">
@@ -40383,7 +40383,7 @@
         <v>18.35556483033511</v>
       </c>
       <c r="T611" t="n">
-        <v>0.2801842089133895</v>
+        <v>-0.02333249043373486</v>
       </c>
     </row>
     <row r="612">
@@ -40449,7 +40449,7 @@
         <v>18.05956562216421</v>
       </c>
       <c r="T612" t="n">
-        <v>0.3767758566241713</v>
+        <v>0.08476890870289888</v>
       </c>
     </row>
     <row r="613">
@@ -40571,7 +40571,7 @@
         <v>12.14876342043332</v>
       </c>
       <c r="T614" t="n">
-        <v>0.1938693992862816</v>
+        <v>-0.03151622348652872</v>
       </c>
     </row>
     <row r="615">
@@ -40637,7 +40637,7 @@
         <v>24.22991330956321</v>
       </c>
       <c r="T615" t="n">
-        <v>1.082549158387986</v>
+        <v>0.3483980038738048</v>
       </c>
     </row>
     <row r="616">
@@ -40699,7 +40699,7 @@
         <v>33.07870246937229</v>
       </c>
       <c r="T616" t="n">
-        <v>1.973213974462154</v>
+        <v>0.490957534115255</v>
       </c>
     </row>
     <row r="617">
@@ -40761,7 +40761,7 @@
         <v>29.63453676559554</v>
       </c>
       <c r="T617" t="n">
-        <v>1.077731746249937</v>
+        <v>0.32319291223599</v>
       </c>
     </row>
     <row r="618">
@@ -40823,7 +40823,7 @@
         <v>24.43876930115593</v>
       </c>
       <c r="T618" t="n">
-        <v>0.4275330396972116</v>
+        <v>0.05676553914805238</v>
       </c>
     </row>
     <row r="619">
@@ -40889,7 +40889,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T619" t="n">
-        <v>8.637010933435233</v>
+        <v>0.9091204067977727</v>
       </c>
     </row>
     <row r="620">
@@ -40955,7 +40955,7 @@
         <v>72.49303321564469</v>
       </c>
       <c r="T620" t="n">
-        <v>5.46521648584164</v>
+        <v>0.7565854232740219</v>
       </c>
     </row>
     <row r="621">
@@ -41021,7 +41021,7 @@
         <v>45.07637559470204</v>
       </c>
       <c r="T621" t="n">
-        <v>1.156668894314587</v>
+        <v>0.2875063491523804</v>
       </c>
     </row>
     <row r="622">
@@ -41087,7 +41087,7 @@
         <v>26.10210227163615</v>
       </c>
       <c r="T622" t="n">
-        <v>0.7897746117025634</v>
+        <v>0.2468806652115725</v>
       </c>
     </row>
     <row r="623">
@@ -41153,7 +41153,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T623" t="n">
-        <v>5.653330804009388</v>
+        <v>0.7624744813506201</v>
       </c>
     </row>
     <row r="624">
@@ -41219,7 +41219,7 @@
         <v>61.2622982804845</v>
       </c>
       <c r="T624" t="n">
-        <v>16.44107346870031</v>
+        <v>1.151238113452701</v>
       </c>
     </row>
     <row r="625">
@@ -41285,7 +41285,7 @@
         <v>31.07477336475703</v>
       </c>
       <c r="T625" t="n">
-        <v>0.9493721238787324</v>
+        <v>0.2783385429240792</v>
       </c>
     </row>
     <row r="626">
@@ -41347,7 +41347,7 @@
         <v>29.01029004197908</v>
       </c>
       <c r="T626" t="n">
-        <v>1.049618674262613</v>
+        <v>0.3179311321983938</v>
       </c>
     </row>
     <row r="627">
@@ -41409,7 +41409,7 @@
         <v>35.40967931088787</v>
       </c>
       <c r="T627" t="n">
-        <v>3.168988842409242</v>
+        <v>0.6276252587897693</v>
       </c>
     </row>
     <row r="628">
@@ -41475,7 +41475,7 @@
         <v>15.30063031760479</v>
       </c>
       <c r="T628" t="n">
-        <v>0.3732467782640965</v>
+        <v>0.1157831527061381</v>
       </c>
     </row>
     <row r="629">
@@ -41541,7 +41541,7 @@
         <v>30.51836482739692</v>
       </c>
       <c r="T629" t="n">
-        <v>2.64315030449758</v>
+        <v>0.5841712961836185</v>
       </c>
     </row>
     <row r="630">
@@ -41607,7 +41607,7 @@
         <v>28.97595984563806</v>
       </c>
       <c r="T630" t="n">
-        <v>0.8804555728557714</v>
+        <v>0.2649344615286413</v>
       </c>
     </row>
     <row r="631">
@@ -41673,7 +41673,7 @@
         <v>18.95118593463095</v>
       </c>
       <c r="T631" t="n">
-        <v>0.4141184590430949</v>
+        <v>0.1044781458485391</v>
       </c>
     </row>
     <row r="632">
@@ -41739,7 +41739,7 @@
         <v>29.78679443804727</v>
       </c>
       <c r="T632" t="n">
-        <v>0.7217069923598438</v>
+        <v>0.1974525405219352</v>
       </c>
     </row>
     <row r="633">
@@ -41805,7 +41805,7 @@
         <v>23.99747730165397</v>
       </c>
       <c r="T633" t="n">
-        <v>0.9281195129722417</v>
+        <v>0.3056308199913569</v>
       </c>
     </row>
     <row r="634">
@@ -41867,7 +41867,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T634" t="n">
-        <v>9.960782909550675</v>
+        <v>0.9594595815025235</v>
       </c>
     </row>
     <row r="635">
@@ -41929,7 +41929,7 @@
         <v>17.52224851928232</v>
       </c>
       <c r="T635" t="n">
-        <v>0.4302326859521262</v>
+        <v>0.1314755173402813</v>
       </c>
     </row>
     <row r="636">
@@ -41995,7 +41995,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T636" t="n">
-        <v>6.557055076420757</v>
+        <v>0.8133990707900769</v>
       </c>
     </row>
     <row r="637">
@@ -42061,7 +42061,7 @@
         <v>38.02354399216623</v>
       </c>
       <c r="T637" t="n">
-        <v>2.947383310318134</v>
+        <v>0.6004188084819568</v>
       </c>
     </row>
     <row r="638">
@@ -42127,7 +42127,7 @@
         <v>11.42189109421015</v>
       </c>
       <c r="T638" t="n">
-        <v>0.1486437741466106</v>
+        <v>-0.1083422872614845</v>
       </c>
     </row>
     <row r="639">
@@ -42189,7 +42189,7 @@
         <v>18.99228471534822</v>
       </c>
       <c r="T639" t="n">
-        <v>0.8582577781726819</v>
+        <v>0.3133486364044835</v>
       </c>
     </row>
     <row r="640">
@@ -42255,7 +42255,7 @@
         <v>25.24976021977045</v>
       </c>
       <c r="T640" t="n">
-        <v>0.4359030600228246</v>
+        <v>0.05542990190638153</v>
       </c>
     </row>
     <row r="641">
@@ -42321,7 +42321,7 @@
         <v>37.0299723332983</v>
       </c>
       <c r="T641" t="n">
-        <v>0.7081308519884834</v>
+        <v>0.1464139332390286</v>
       </c>
     </row>
     <row r="642">
@@ -42387,7 +42387,7 @@
         <v>8.184725332198857</v>
       </c>
       <c r="T642" t="n">
-        <v>0.09179512721425313</v>
+        <v>-0.1644276136394719</v>
       </c>
     </row>
     <row r="643">
@@ -42505,7 +42505,7 @@
         <v>67.2817921577812</v>
       </c>
       <c r="T644" t="n">
-        <v>7.143071278309082</v>
+        <v>0.8514367084101822</v>
       </c>
     </row>
     <row r="645">
@@ -42567,7 +42567,7 @@
         <v>24.03694211180075</v>
       </c>
       <c r="T645" t="n">
-        <v>1.68103119024991</v>
+        <v>0.4737424040831359</v>
       </c>
     </row>
     <row r="646">
@@ -42633,7 +42633,7 @@
         <v>61.88319736440946</v>
       </c>
       <c r="T646" t="n">
-        <v>2.856001386496581</v>
+        <v>0.5521593438009045</v>
       </c>
     </row>
     <row r="647">
@@ -42699,7 +42699,7 @@
         <v>8.238012070128397</v>
       </c>
       <c r="T647" t="n">
-        <v>0.08824784411918546</v>
+        <v>-0.185413512868211</v>
       </c>
     </row>
     <row r="648">
@@ -42765,7 +42765,7 @@
         <v>45.04454553776846</v>
       </c>
       <c r="T648" t="n">
-        <v>1.718574726465619</v>
+        <v>0.4188576839766693</v>
       </c>
     </row>
     <row r="649">
@@ -42831,7 +42831,7 @@
         <v>17.02318505394469</v>
       </c>
       <c r="T649" t="n">
-        <v>0.2967885368278111</v>
+        <v>0.01987061676254465</v>
       </c>
     </row>
     <row r="650">
@@ -42897,7 +42897,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T650" t="n">
-        <v>3.786353900875679</v>
+        <v>0.6252918475843263</v>
       </c>
     </row>
     <row r="651">
@@ -42963,7 +42963,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T651" t="n">
-        <v>4.620721394071595</v>
+        <v>0.6935150279113957</v>
       </c>
     </row>
     <row r="652">
@@ -43029,7 +43029,7 @@
         <v>40.02950574924316</v>
       </c>
       <c r="T652" t="n">
-        <v>1.336941100051099</v>
+        <v>0.3525894984576003</v>
       </c>
     </row>
     <row r="653">
@@ -43091,7 +43091,7 @@
         <v>58.85345075636693</v>
       </c>
       <c r="T653" t="n">
-        <v>1.760446273421316</v>
+        <v>0.3942799153262653</v>
       </c>
     </row>
     <row r="654">
@@ -43157,7 +43157,7 @@
         <v>40.6393374114793</v>
       </c>
       <c r="T654" t="n">
-        <v>2.655676728435444</v>
+        <v>0.563559878288213</v>
       </c>
     </row>
     <row r="655">
@@ -43223,7 +43223,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T655" t="n">
-        <v>7.480446857517758</v>
+        <v>0.8589541617676555</v>
       </c>
     </row>
     <row r="656">
@@ -43289,7 +43289,7 @@
         <v>68.61721831509215</v>
       </c>
       <c r="T656" t="n">
-        <v>5.619884032498813</v>
+        <v>0.7692321951946277</v>
       </c>
     </row>
     <row r="657">
@@ -43355,7 +43355,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T657" t="n">
-        <v>4.031829419508666</v>
+        <v>0.6468629309741742</v>
       </c>
     </row>
     <row r="658">
@@ -43421,7 +43421,7 @@
         <v>68.71352863598717</v>
       </c>
       <c r="T658" t="n">
-        <v>2.626075002440727</v>
+        <v>0.5137225772457692</v>
       </c>
     </row>
     <row r="659">
@@ -43487,7 +43487,7 @@
         <v>28.84150765850844</v>
       </c>
       <c r="T659" t="n">
-        <v>1.076157970067284</v>
+        <v>0.3260808864644336</v>
       </c>
     </row>
     <row r="660">
@@ -43549,7 +43549,7 @@
         <v>21.75407298430455</v>
       </c>
       <c r="T660" t="n">
-        <v>0.8632316068900273</v>
+        <v>0.2975148717864207</v>
       </c>
     </row>
     <row r="661">
@@ -43611,7 +43611,7 @@
         <v>20.18591804496483</v>
       </c>
       <c r="T661" t="n">
-        <v>0.5710961700101211</v>
+        <v>0.1901031195417351</v>
       </c>
     </row>
     <row r="662">
@@ -43673,7 +43673,7 @@
         <v>24.0837087277183</v>
       </c>
       <c r="T662" t="n">
-        <v>1.639337351879857</v>
+        <v>0.4664358314548116</v>
       </c>
     </row>
     <row r="663">
@@ -43739,7 +43739,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T663" t="n">
-        <v>2.953993015326021</v>
+        <v>0.5390046631428209</v>
       </c>
     </row>
     <row r="664">
@@ -43805,7 +43805,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T664" t="n">
-        <v>3.472808973520789</v>
+        <v>0.5954740334739677</v>
       </c>
     </row>
     <row r="665">
@@ -43867,7 +43867,7 @@
         <v>40.85381887104251</v>
       </c>
       <c r="T665" t="n">
-        <v>1.102260930455851</v>
+        <v>0.2865611819156859</v>
       </c>
     </row>
     <row r="666">
@@ -43989,7 +43989,7 @@
         <v>21.08725827227738</v>
       </c>
       <c r="T667" t="n">
-        <v>0.2653132915231404</v>
+        <v>-0.1034059106544656</v>
       </c>
     </row>
     <row r="668">
@@ -44055,7 +44055,7 @@
         <v>24.38471442264262</v>
       </c>
       <c r="T668" t="n">
-        <v>0.3942268804258536</v>
+        <v>0.02560760854105992</v>
       </c>
     </row>
     <row r="669">
@@ -44117,7 +44117,7 @@
         <v>11.04793396189347</v>
       </c>
       <c r="T669" t="n">
-        <v>0.2355089747384061</v>
+        <v>0.05324722816167116</v>
       </c>
     </row>
     <row r="670">
@@ -44179,7 +44179,7 @@
         <v>14.06985426798896</v>
       </c>
       <c r="T670" t="n">
-        <v>0.3144596309115931</v>
+        <v>0.08290757325860643</v>
       </c>
     </row>
     <row r="671">
@@ -44245,7 +44245,7 @@
         <v>26.08650402259163</v>
       </c>
       <c r="T671" t="n">
-        <v>2.104557997900492</v>
+        <v>0.5304747981243556</v>
       </c>
     </row>
     <row r="672">
@@ -44311,7 +44311,7 @@
         <v>25.66452311495556</v>
       </c>
       <c r="T672" t="n">
-        <v>0.5417852742684642</v>
+        <v>0.1300059460929002</v>
       </c>
     </row>
     <row r="673">
@@ -44377,7 +44377,7 @@
         <v>7.374376716596104</v>
       </c>
       <c r="T673" t="n">
-        <v>0.06601887314055942</v>
+        <v>-0.2746185856437192</v>
       </c>
     </row>
     <row r="674">
@@ -44439,7 +44439,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T674" t="n">
-        <v>8.90880685558515</v>
+        <v>0.9200054190663416</v>
       </c>
     </row>
     <row r="675">
@@ -44505,7 +44505,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T675" t="n">
-        <v>3.450699894876997</v>
+        <v>0.59326311762613</v>
       </c>
     </row>
     <row r="676">
@@ -44571,7 +44571,7 @@
         <v>38.53688296896276</v>
       </c>
       <c r="T676" t="n">
-        <v>1.298543923933484</v>
+        <v>0.3480771075515696</v>
       </c>
     </row>
     <row r="677">
@@ -44637,7 +44637,7 @@
         <v>58.81062890855614</v>
       </c>
       <c r="T677" t="n">
-        <v>3.07312952070842</v>
+        <v>0.5805784166544228</v>
       </c>
     </row>
     <row r="678">
@@ -44703,7 +44703,7 @@
         <v>24.63776290393327</v>
       </c>
       <c r="T678" t="n">
-        <v>0.6437775220746028</v>
+        <v>0.1934001934378202</v>
       </c>
     </row>
     <row r="679">
@@ -44765,7 +44765,7 @@
         <v>17.58056928542554</v>
       </c>
       <c r="T679" t="n">
-        <v>0.4371425905735152</v>
+        <v>0.1355723777959672</v>
       </c>
     </row>
     <row r="680">
@@ -44831,7 +44831,7 @@
         <v>20.88388683660341</v>
       </c>
       <c r="T680" t="n">
-        <v>0.4092442025934502</v>
+        <v>0.07966935874570269</v>
       </c>
     </row>
     <row r="681">
@@ -44893,7 +44893,7 @@
         <v>13.0706851206126</v>
       </c>
       <c r="T681" t="n">
-        <v>0.2599622951780141</v>
+        <v>0.04272578074995881</v>
       </c>
     </row>
     <row r="682">
@@ -44959,7 +44959,7 @@
         <v>11.91885673504876</v>
       </c>
       <c r="T682" t="n">
-        <v>0.1725782541662137</v>
+        <v>-0.06641175997981763</v>
       </c>
     </row>
     <row r="683">
@@ -45025,7 +45025,7 @@
         <v>35.72425771494634</v>
       </c>
       <c r="T683" t="n">
-        <v>2.69004591467262</v>
+        <v>0.5773265996484378</v>
       </c>
     </row>
     <row r="684">
@@ -45091,7 +45091,7 @@
         <v>24.28890118504144</v>
       </c>
       <c r="T684" t="n">
-        <v>0.4978388211738303</v>
+        <v>0.1128176420655116</v>
       </c>
     </row>
     <row r="685">
@@ -45157,7 +45157,7 @@
         <v>21.2147038299869</v>
       </c>
       <c r="T685" t="n">
-        <v>0.2668500304558345</v>
+        <v>-0.103211414317114</v>
       </c>
     </row>
     <row r="686">
@@ -45223,7 +45223,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T686" t="n">
-        <v>2.927575000319787</v>
+        <v>0.5358359606421448</v>
       </c>
     </row>
     <row r="687">
@@ -45289,7 +45289,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T687" t="n">
-        <v>4.385251586185636</v>
+        <v>0.675634137936056</v>
       </c>
     </row>
     <row r="688">
@@ -45355,7 +45355,7 @@
         <v>31.24490484902901</v>
       </c>
       <c r="T688" t="n">
-        <v>3.342676793154286</v>
+        <v>0.6527624122135387</v>
       </c>
     </row>
     <row r="689">
@@ -45417,7 +45417,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T689" t="n">
-        <v>8.367111990120842</v>
+        <v>0.8979952967435705</v>
       </c>
     </row>
     <row r="690">
@@ -45479,7 +45479,7 @@
         <v>20.18004902857977</v>
       </c>
       <c r="T690" t="n">
-        <v>0.6721495784969078</v>
+        <v>0.2370935835263699</v>
       </c>
     </row>
     <row r="691">
@@ -45545,7 +45545,7 @@
         <v>24.64950892735101</v>
       </c>
       <c r="T691" t="n">
-        <v>0.9845856304707109</v>
+        <v>0.3192584507221286</v>
       </c>
     </row>
     <row r="692">
@@ -45611,7 +45611,7 @@
         <v>30.51438670533685</v>
       </c>
       <c r="T692" t="n">
-        <v>0.7012399346855692</v>
+        <v>0.1834671709102873</v>
       </c>
     </row>
     <row r="693">
@@ -45673,7 +45673,7 @@
         <v>13.32244933900347</v>
       </c>
       <c r="T693" t="n">
-        <v>0.4298470161263661</v>
+        <v>0.1803443910845635</v>
       </c>
     </row>
     <row r="694">
@@ -45735,7 +45735,7 @@
         <v>34.43236013114549</v>
       </c>
       <c r="T694" t="n">
-        <v>1.614802699601161</v>
+        <v>0.4275036010241628</v>
       </c>
     </row>
     <row r="695">
@@ -45801,7 +45801,7 @@
         <v>16.48400768922743</v>
       </c>
       <c r="T695" t="n">
-        <v>0.4225384330171353</v>
+        <v>0.1375637177437683</v>
       </c>
     </row>
     <row r="696">
@@ -45867,7 +45867,7 @@
         <v>42.28691322059612</v>
       </c>
       <c r="T696" t="n">
-        <v>0.6924983584715189</v>
+        <v>0.1007905059674647</v>
       </c>
     </row>
     <row r="697">
@@ -45933,7 +45933,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T697" t="n">
-        <v>3.747406272909667</v>
+        <v>0.6217343370630248</v>
       </c>
     </row>
     <row r="698">
@@ -46055,7 +46055,7 @@
         <v>20.02328031975764</v>
       </c>
       <c r="T699" t="n">
-        <v>0.3718749798035221</v>
+        <v>0.05682398991759752</v>
       </c>
     </row>
     <row r="700">
@@ -46121,7 +46121,7 @@
         <v>79.49405534513394</v>
       </c>
       <c r="T700" t="n">
-        <v>4.816877571387979</v>
+        <v>0.7077215702052084</v>
       </c>
     </row>
     <row r="701">
@@ -46187,7 +46187,7 @@
         <v>18.92675689252865</v>
       </c>
       <c r="T701" t="n">
-        <v>0.4437084729428387</v>
+        <v>0.1261150225475101</v>
       </c>
     </row>
     <row r="702">
@@ -46253,7 +46253,7 @@
         <v>14.26718084427143</v>
       </c>
       <c r="T702" t="n">
-        <v>0.3916570880206569</v>
+        <v>0.1427035274517887</v>
       </c>
     </row>
     <row r="703">
@@ -46315,7 +46315,7 @@
         <v>17.08239348955338</v>
       </c>
       <c r="T703" t="n">
-        <v>0.3886015743945599</v>
+        <v>0.1059232611897147</v>
       </c>
     </row>
     <row r="704">
@@ -46381,7 +46381,7 @@
         <v>25.0213858114018</v>
       </c>
       <c r="T704" t="n">
-        <v>0.72855643147905</v>
+        <v>0.2287980003453083</v>
       </c>
     </row>
     <row r="705">
@@ -46447,7 +46447,7 @@
         <v>13.31210178422034</v>
       </c>
       <c r="T705" t="n">
-        <v>0.3181601894872488</v>
+        <v>0.09786715129329249</v>
       </c>
     </row>
     <row r="706">
@@ -46513,7 +46513,7 @@
         <v>34.45841202625427</v>
       </c>
       <c r="T706" t="n">
-        <v>1.297399261910429</v>
+        <v>0.3612505565613007</v>
       </c>
     </row>
     <row r="707">
@@ -46579,7 +46579,7 @@
         <v>10.52317171250962</v>
       </c>
       <c r="T707" t="n">
-        <v>0.1724491160221383</v>
+        <v>-0.02775059057773988</v>
       </c>
     </row>
     <row r="708">
@@ -46645,7 +46645,7 @@
         <v>28.16772438402098</v>
       </c>
       <c r="T708" t="n">
-        <v>0.9773040252924775</v>
+        <v>0.3003605144582779</v>
       </c>
     </row>
     <row r="709">

--- a/data/Top_Stocks.xlsx
+++ b/data/Top_Stocks.xlsx
@@ -590,10 +590,10 @@
         <v>4.891563465941863</v>
       </c>
       <c r="S2" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4489057924994797</v>
+        <v>0.3853820017214316</v>
       </c>
     </row>
     <row r="3">
@@ -652,10 +652,10 @@
         <v>1.21205553378703</v>
       </c>
       <c r="S3" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5379285519124672</v>
+        <v>0.5608514183263387</v>
       </c>
     </row>
     <row r="4">
@@ -718,10 +718,10 @@
         <v>0.6629441595009575</v>
       </c>
       <c r="S4" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1950199481603847</v>
+        <v>-0.05759072075468996</v>
       </c>
     </row>
     <row r="5">
@@ -784,10 +784,10 @@
         <v>1.045354708829191</v>
       </c>
       <c r="S5" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4522756868442979</v>
+        <v>0.3918337947210595</v>
       </c>
     </row>
     <row r="6">
@@ -850,10 +850,10 @@
         <v>0.8101087287330189</v>
       </c>
       <c r="S6" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5226397802392109</v>
+        <v>0.529972369163388</v>
       </c>
     </row>
     <row r="7">
@@ -916,10 +916,10 @@
         <v>0.9230866376932501</v>
       </c>
       <c r="S7" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3961528167219717</v>
+        <v>0.286338172111966</v>
       </c>
     </row>
     <row r="8">
@@ -982,10 +982,10 @@
         <v>0.5776246932787867</v>
       </c>
       <c r="S8" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7907399419808243</v>
+        <v>1.116188183035848</v>
       </c>
     </row>
     <row r="9">
@@ -1048,10 +1048,10 @@
         <v>2.394153598109306</v>
       </c>
       <c r="S9" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3509623070594905</v>
+        <v>0.204413758212026</v>
       </c>
     </row>
     <row r="10">
@@ -1114,10 +1114,10 @@
         <v>0.8738098788950646</v>
       </c>
       <c r="S10" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6800695084548574</v>
+        <v>0.8627035558158247</v>
       </c>
     </row>
     <row r="11">
@@ -1180,10 +1180,10 @@
         <v>0.3724131248930496</v>
       </c>
       <c r="S11" t="n">
-        <v>78.85286867621187</v>
+        <v>50</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3738392626420184</v>
+        <v>0.2504749711427297</v>
       </c>
     </row>
     <row r="12">
@@ -1246,10 +1246,10 @@
         <v>1.431815777427671</v>
       </c>
       <c r="S12" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8879697012332854</v>
+        <v>1.352227291175059</v>
       </c>
     </row>
     <row r="13">
@@ -1312,10 +1312,10 @@
         <v>0.8320299463669443</v>
       </c>
       <c r="S13" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T13" t="n">
-        <v>0.282872362911984</v>
+        <v>0.08606581030272253</v>
       </c>
     </row>
     <row r="14">
@@ -1378,10 +1378,10 @@
         <v>0.7470096092002945</v>
       </c>
       <c r="S14" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3945811669860129</v>
+        <v>0.2834437394605993</v>
       </c>
     </row>
     <row r="15">
@@ -1444,10 +1444,10 @@
         <v>0.3464186408028558</v>
       </c>
       <c r="S15" t="n">
-        <v>71.50382115620025</v>
+        <v>47.01584035635558</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3841963883556125</v>
+        <v>0.305528011975879</v>
       </c>
     </row>
     <row r="16">
@@ -1510,10 +1510,10 @@
         <v>0.4832334020958198</v>
       </c>
       <c r="S16" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09580744246513762</v>
+        <v>-0.207575790455771</v>
       </c>
     </row>
     <row r="17">
@@ -1576,10 +1576,10 @@
         <v>0.7729225618197273</v>
       </c>
       <c r="S17" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6509376779309797</v>
+        <v>0.7986663183742941</v>
       </c>
     </row>
     <row r="18">
@@ -1642,10 +1642,10 @@
         <v>1.65333636205188</v>
       </c>
       <c r="S18" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1075134361395451</v>
+        <v>-0.1905551742595242</v>
       </c>
     </row>
     <row r="19">
@@ -1708,10 +1708,10 @@
         <v>0.02371406427850986</v>
       </c>
       <c r="S19" t="n">
-        <v>20.25480538202634</v>
+        <v>14.84326614075505</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.1565322871387893</v>
+        <v>-0.3839344760094594</v>
       </c>
     </row>
     <row r="20">
@@ -1774,10 +1774,10 @@
         <v>0.2088057573960946</v>
       </c>
       <c r="S20" t="n">
-        <v>42.88922293342031</v>
+        <v>29.48126974891526</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1265743010866756</v>
+        <v>-0.04398120484148127</v>
       </c>
     </row>
     <row r="21">
@@ -1840,10 +1840,10 @@
         <v>0.3300267587482577</v>
       </c>
       <c r="S21" t="n">
-        <v>67.88217291451005</v>
+        <v>44.83882839542717</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2612349495017814</v>
+        <v>0.09503184579179913</v>
       </c>
     </row>
     <row r="22">
@@ -1906,10 +1906,10 @@
         <v>0.1270140561797544</v>
       </c>
       <c r="S22" t="n">
-        <v>31.05351271443643</v>
+        <v>21.94359102883271</v>
       </c>
       <c r="T22" t="n">
-        <v>0.00137379250965064</v>
+        <v>-0.1963528858808689</v>
       </c>
     </row>
     <row r="23">
@@ -1972,10 +1972,10 @@
         <v>0.3493681319054993</v>
       </c>
       <c r="S23" t="n">
-        <v>71.89919159524224</v>
+        <v>47.25286804960975</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4392437554096755</v>
+        <v>0.4098991762044795</v>
       </c>
     </row>
     <row r="24">
@@ -2034,10 +2034,10 @@
         <v>0.1009466414021898</v>
       </c>
       <c r="S24" t="n">
-        <v>27.66918277051278</v>
+        <v>19.74530207137241</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04979689526263664</v>
+        <v>-0.09748107498772174</v>
       </c>
     </row>
     <row r="25">
@@ -2100,10 +2100,10 @@
         <v>0.4649888541112386</v>
       </c>
       <c r="S25" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1809022923245684</v>
+        <v>-0.07972595167784602</v>
       </c>
     </row>
     <row r="26">
@@ -2166,10 +2166,10 @@
         <v>1.147174902863279</v>
       </c>
       <c r="S26" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7336472846846749</v>
+        <v>0.9834019289745872</v>
       </c>
     </row>
     <row r="27">
@@ -2232,10 +2232,10 @@
         <v>1.006640218897515</v>
       </c>
       <c r="S27" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2851117273591635</v>
+        <v>0.08986076286547351</v>
       </c>
     </row>
     <row r="28">
@@ -2298,10 +2298,10 @@
         <v>3.07732163857914</v>
       </c>
       <c r="S28" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6065760128763547</v>
+        <v>0.7033025658744183</v>
       </c>
     </row>
     <row r="29">
@@ -2364,10 +2364,10 @@
         <v>2.010370767141683</v>
       </c>
       <c r="S29" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8874752537483663</v>
+        <v>1.350995385208374</v>
       </c>
     </row>
     <row r="30">
@@ -2430,10 +2430,10 @@
         <v>0.4445770793198442</v>
       </c>
       <c r="S30" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8722677524320275</v>
+        <v>1.313263781303128</v>
       </c>
     </row>
     <row r="31">
@@ -2496,10 +2496,10 @@
         <v>0.2523594673316323</v>
       </c>
       <c r="S31" t="n">
-        <v>51.14643647838282</v>
+        <v>34.6275054219759</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0395637281512653</v>
+        <v>-0.2134832739888436</v>
       </c>
     </row>
     <row r="32">
@@ -2562,10 +2562,10 @@
         <v>0.9951352804767477</v>
       </c>
       <c r="S32" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T32" t="n">
-        <v>0.486233179906268</v>
+        <v>0.4576832019717219</v>
       </c>
     </row>
     <row r="33">
@@ -2628,10 +2628,10 @@
         <v>0.3773146898247448</v>
       </c>
       <c r="S33" t="n">
-        <v>78.38523010620676</v>
+        <v>50</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5910453751418778</v>
+        <v>0.6820035263659667</v>
       </c>
     </row>
     <row r="34">
@@ -2694,10 +2694,10 @@
         <v>0.2446186612677426</v>
       </c>
       <c r="S34" t="n">
-        <v>49.08963620797418</v>
+        <v>33.35311396430709</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2071917446097935</v>
+        <v>0.06918029017887006</v>
       </c>
     </row>
     <row r="35">
@@ -2760,10 +2760,10 @@
         <v>0.3321040477386816</v>
       </c>
       <c r="S35" t="n">
-        <v>67.32326600772863</v>
+        <v>44.50191066746829</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4362679961564413</v>
+        <v>0.4223700308512315</v>
       </c>
     </row>
     <row r="36">
@@ -2826,10 +2826,10 @@
         <v>0.2629614681285057</v>
       </c>
       <c r="S36" t="n">
-        <v>52.54234472552474</v>
+        <v>35.48975856002378</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2506492278858519</v>
+        <v>0.1323560671535362</v>
       </c>
     </row>
     <row r="37">
@@ -2892,10 +2892,10 @@
         <v>0.5831229620769545</v>
       </c>
       <c r="S37" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3633491496255794</v>
+        <v>0.2266013180404716</v>
       </c>
     </row>
     <row r="38">
@@ -2958,10 +2958,10 @@
         <v>0.3891145215719982</v>
       </c>
       <c r="S38" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3232637977495592</v>
+        <v>0.1555323437526162</v>
       </c>
     </row>
     <row r="39">
@@ -3024,10 +3024,10 @@
         <v>0.4682192282841691</v>
       </c>
       <c r="S39" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1878913114143799</v>
+        <v>-0.06880066875774349</v>
       </c>
     </row>
     <row r="40">
@@ -3090,10 +3090,10 @@
         <v>0.4296119339639934</v>
       </c>
       <c r="S40" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3021016782643604</v>
+        <v>0.1188684845964547</v>
       </c>
     </row>
     <row r="41">
@@ -3156,10 +3156,10 @@
         <v>0.3037573671657026</v>
       </c>
       <c r="S41" t="n">
-        <v>60.47719599336233</v>
+        <v>40.353162865548</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4125348677166183</v>
+        <v>0.4050980095459118</v>
       </c>
     </row>
     <row r="42">
@@ -3222,10 +3222,10 @@
         <v>0.2628808395577003</v>
       </c>
       <c r="S42" t="n">
-        <v>52.5539117539753</v>
+        <v>35.49689476456218</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2452412280441283</v>
+        <v>0.1225357896614676</v>
       </c>
     </row>
     <row r="43">
@@ -3288,10 +3288,10 @@
         <v>0.2911727049961985</v>
       </c>
       <c r="S43" t="n">
-        <v>58.63922996665536</v>
+        <v>39.23213626263268</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2477446430146124</v>
+        <v>0.1030524805767963</v>
       </c>
     </row>
     <row r="44">
@@ -3354,10 +3354,10 @@
         <v>0.3602695399771592</v>
       </c>
       <c r="S44" t="n">
-        <v>75.1010696379612</v>
+        <v>49.16797298659918</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4160873486258811</v>
+        <v>0.353240245241434</v>
       </c>
     </row>
     <row r="45">
@@ -3420,10 +3420,10 @@
         <v>0.1902708472697143</v>
       </c>
       <c r="S45" t="n">
-        <v>39.70748996764812</v>
+        <v>27.47537697134907</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1493528140798879</v>
+        <v>0.01006735869659692</v>
       </c>
     </row>
     <row r="46">
@@ -3486,10 +3486,10 @@
         <v>0.6035848953992036</v>
       </c>
       <c r="S46" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8249239014371608</v>
+        <v>1.197752396932186</v>
       </c>
     </row>
     <row r="47">
@@ -3552,10 +3552,10 @@
         <v>0.5114054601519491</v>
       </c>
       <c r="S47" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T47" t="n">
-        <v>0.4571978771188459</v>
+        <v>0.4012844529401407</v>
       </c>
     </row>
     <row r="48">
@@ -3610,7 +3610,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>0.8066248384840319</v>
+        <v>0.7765419929105806</v>
       </c>
       <c r="T48" t="inlineStr"/>
     </row>
@@ -3674,10 +3674,10 @@
         <v>0.3858032361714361</v>
       </c>
       <c r="S49" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T49" t="n">
-        <v>0.293422782060059</v>
+        <v>0.1040030070828357</v>
       </c>
     </row>
     <row r="50">
@@ -3740,10 +3740,10 @@
         <v>44.37653910842737</v>
       </c>
       <c r="S50" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T50" t="n">
-        <v>0.5157375032949612</v>
+        <v>0.5161327759534349</v>
       </c>
     </row>
     <row r="51">
@@ -3806,10 +3806,10 @@
         <v>0.5800322904049013</v>
       </c>
       <c r="S51" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T51" t="n">
-        <v>0.6152068585039989</v>
+        <v>0.7216526838579822</v>
       </c>
     </row>
     <row r="52">
@@ -3868,10 +3868,10 @@
         <v>0.6232829060171396</v>
       </c>
       <c r="S52" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T52" t="n">
-        <v>0.5873175248628624</v>
+        <v>0.6627113680668564</v>
       </c>
     </row>
     <row r="53">
@@ -3934,10 +3934,10 @@
         <v>0.3521075860650948</v>
       </c>
       <c r="S53" t="n">
-        <v>73.06259579333476</v>
+        <v>47.94963156063902</v>
       </c>
       <c r="T53" t="n">
-        <v>0.3823472949918132</v>
+        <v>0.2965266205223307</v>
       </c>
     </row>
     <row r="54">
@@ -4000,10 +4000,10 @@
         <v>0.485623176294308</v>
       </c>
       <c r="S54" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T54" t="n">
-        <v>0.95407281512304</v>
+        <v>1.519827026483579</v>
       </c>
     </row>
     <row r="55">
@@ -4066,10 +4066,10 @@
         <v>0.4972282543081281</v>
       </c>
       <c r="S55" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T55" t="n">
-        <v>0.7779787666296132</v>
+        <v>1.086134878111095</v>
       </c>
     </row>
     <row r="56">
@@ -4132,10 +4132,10 @@
         <v>0.1519976271167858</v>
       </c>
       <c r="S56" t="n">
-        <v>33.91594496924451</v>
+        <v>23.78663949874721</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1433914825111275</v>
+        <v>0.03037862286191961</v>
       </c>
     </row>
     <row r="57">
@@ -4198,10 +4198,10 @@
         <v>0.560904615543641</v>
       </c>
       <c r="S57" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T57" t="n">
-        <v>0.4980552934101554</v>
+        <v>0.4809654638577303</v>
       </c>
     </row>
     <row r="58">
@@ -4264,10 +4264,10 @@
         <v>0.5210262910416044</v>
       </c>
       <c r="S58" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T58" t="n">
-        <v>0.401328620901422</v>
+        <v>0.2958932513801216</v>
       </c>
     </row>
     <row r="59">
@@ -4330,10 +4330,10 @@
         <v>0.1842998561689908</v>
       </c>
       <c r="S59" t="n">
-        <v>38.5024366599919</v>
+        <v>26.71199808323134</v>
       </c>
       <c r="T59" t="n">
-        <v>0.1985494385835256</v>
+        <v>0.1049513048676096</v>
       </c>
     </row>
     <row r="60">
@@ -4396,10 +4396,10 @@
         <v>0.4457647582102782</v>
       </c>
       <c r="S60" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T60" t="n">
-        <v>0.5651114547591343</v>
+        <v>0.6165151671410116</v>
       </c>
     </row>
     <row r="61">
@@ -4462,10 +4462,10 @@
         <v>0.188024064908902</v>
       </c>
       <c r="S61" t="n">
-        <v>39.13565453125074</v>
+        <v>27.1133887629377</v>
       </c>
       <c r="T61" t="n">
-        <v>0.1921155056507835</v>
+        <v>0.08968011115127128</v>
       </c>
     </row>
     <row r="62">
@@ -4528,10 +4528,10 @@
         <v>0.2673132038889368</v>
       </c>
       <c r="S62" t="n">
-        <v>50.21976135047367</v>
+        <v>34.05392303100781</v>
       </c>
       <c r="T62" t="n">
-        <v>0.5635648110265448</v>
+        <v>0.7856403269866785</v>
       </c>
     </row>
     <row r="63">
@@ -4594,10 +4594,10 @@
         <v>1.131528184989696</v>
       </c>
       <c r="S63" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T63" t="n">
-        <v>0.5483518241575343</v>
+        <v>0.582080377531935</v>
       </c>
     </row>
     <row r="64">
@@ -4660,10 +4660,10 @@
         <v>0.3946663648383644</v>
       </c>
       <c r="S64" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T64" t="n">
-        <v>0.4791122545173063</v>
+        <v>0.4437483945545551</v>
       </c>
     </row>
     <row r="65">
@@ -4726,10 +4726,10 @@
         <v>1.083157092462534</v>
       </c>
       <c r="S65" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T65" t="n">
-        <v>0.4138408751561486</v>
+        <v>0.3191382407938896</v>
       </c>
     </row>
     <row r="66">
@@ -4792,10 +4792,10 @@
         <v>0.3326379298180904</v>
       </c>
       <c r="S66" t="n">
-        <v>68.16416606415464</v>
+        <v>45.00871998796224</v>
       </c>
       <c r="T66" t="n">
-        <v>0.3374341992393515</v>
+        <v>0.2303400493899106</v>
       </c>
     </row>
     <row r="67">
@@ -4858,10 +4858,10 @@
         <v>2.073684503307425</v>
       </c>
       <c r="S67" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T67" t="n">
-        <v>0.4655077465952164</v>
+        <v>0.4173120539059243</v>
       </c>
     </row>
     <row r="68">
@@ -4916,7 +4916,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>5.749653277652333</v>
+        <v>4.699790948027571</v>
       </c>
       <c r="T68" t="inlineStr"/>
     </row>
@@ -4980,10 +4980,10 @@
         <v>2.689457823434952</v>
       </c>
       <c r="S69" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T69" t="n">
-        <v>0.6439027616547597</v>
+        <v>0.7833701531971686</v>
       </c>
     </row>
     <row r="70">
@@ -5046,10 +5046,10 @@
         <v>0.1858993488860199</v>
       </c>
       <c r="S70" t="n">
-        <v>39.12724249216108</v>
+        <v>27.10806022962264</v>
       </c>
       <c r="T70" t="n">
-        <v>0.1201791976723765</v>
+        <v>-0.03782203212820456</v>
       </c>
     </row>
     <row r="71">
@@ -5112,10 +5112,10 @@
         <v>1.137405573499318</v>
       </c>
       <c r="S71" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T71" t="n">
-        <v>0.7841738018018998</v>
+        <v>1.100697699963217</v>
       </c>
     </row>
     <row r="72">
@@ -5178,10 +5178,10 @@
         <v>0.02059422447218617</v>
       </c>
       <c r="S72" t="n">
-        <v>19.74892268819649</v>
+        <v>14.50376609005263</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.05172778519202326</v>
+        <v>-0.2179553393736288</v>
       </c>
     </row>
     <row r="73">
@@ -5244,10 +5244,10 @@
         <v>0.3036946890479257</v>
       </c>
       <c r="S73" t="n">
-        <v>60.18503116808004</v>
+        <v>40.17517531160555</v>
       </c>
       <c r="T73" t="n">
-        <v>0.4427591463032778</v>
+        <v>0.4672688576478601</v>
       </c>
     </row>
     <row r="74">
@@ -5310,10 +5310,10 @@
         <v>0.7065057582889869</v>
       </c>
       <c r="S74" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T74" t="n">
-        <v>1.083003737994724</v>
+        <v>1.863316411110064</v>
       </c>
     </row>
     <row r="75">
@@ -5376,10 +5376,10 @@
         <v>0.6054607433638328</v>
       </c>
       <c r="S75" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T75" t="n">
-        <v>0.4636074524651679</v>
+        <v>0.4136388374351208</v>
       </c>
     </row>
     <row r="76">
@@ -5442,10 +5442,10 @@
         <v>0.2339167248397114</v>
       </c>
       <c r="S76" t="n">
-        <v>44.97724372224751</v>
+        <v>30.79039980414512</v>
       </c>
       <c r="T76" t="n">
-        <v>0.4524669012728288</v>
+        <v>0.5744808559521331</v>
       </c>
     </row>
     <row r="77">
@@ -5508,10 +5508,10 @@
         <v>0.2068335129499337</v>
       </c>
       <c r="S77" t="n">
-        <v>42.35004305546572</v>
+        <v>29.14230613956768</v>
       </c>
       <c r="T77" t="n">
-        <v>0.1748078404576068</v>
+        <v>0.04219494728086803</v>
       </c>
     </row>
     <row r="78">
@@ -5574,10 +5574,10 @@
         <v>0.3058100078083705</v>
       </c>
       <c r="S78" t="n">
-        <v>60.63252577684857</v>
+        <v>40.44775790723294</v>
       </c>
       <c r="T78" t="n">
-        <v>0.4488789607604866</v>
+        <v>0.4775878226638324</v>
       </c>
     </row>
     <row r="79">
@@ -5640,10 +5640,10 @@
         <v>0.2693664315348434</v>
       </c>
       <c r="S79" t="n">
-        <v>53.49308849005374</v>
+        <v>36.07584079976727</v>
       </c>
       <c r="T79" t="n">
-        <v>0.3155937856644531</v>
+        <v>0.2486106111116584</v>
       </c>
     </row>
     <row r="80">
@@ -5706,10 +5706,10 @@
         <v>0.3408373925418997</v>
       </c>
       <c r="S80" t="n">
-        <v>68.16517752865101</v>
+        <v>45.00932924392808</v>
       </c>
       <c r="T80" t="n">
-        <v>0.5723865250115996</v>
+        <v>0.7005823632121131</v>
       </c>
     </row>
     <row r="81">
@@ -5772,10 +5772,10 @@
         <v>0.2270588441013732</v>
       </c>
       <c r="S81" t="n">
-        <v>45.34292727335862</v>
+        <v>31.0191076609772</v>
       </c>
       <c r="T81" t="n">
-        <v>0.2814122984704617</v>
+        <v>0.2235354686857625</v>
       </c>
     </row>
     <row r="82">
@@ -5838,10 +5838,10 @@
         <v>0.1356734239409412</v>
       </c>
       <c r="S82" t="n">
-        <v>31.2083555818036</v>
+        <v>22.04365667152545</v>
       </c>
       <c r="T82" t="n">
-        <v>0.214691690394371</v>
+        <v>0.1814011320532112</v>
       </c>
     </row>
     <row r="83">
@@ -5896,7 +5896,7 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
-        <v>1.203986515301684</v>
+        <v>1.127578391050799</v>
       </c>
       <c r="T83" t="inlineStr"/>
     </row>
@@ -5960,10 +5960,10 @@
         <v>0.5220856495166002</v>
       </c>
       <c r="S84" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T84" t="n">
-        <v>0.6437435139671512</v>
+        <v>0.7830246536651961</v>
       </c>
     </row>
     <row r="85">
@@ -6022,10 +6022,10 @@
         <v>0.7899836436323058</v>
       </c>
       <c r="S85" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T85" t="n">
-        <v>0.6659196080846435</v>
+        <v>0.8314595183555815</v>
       </c>
     </row>
     <row r="86">
@@ -6088,10 +6088,10 @@
         <v>0.2782369086929892</v>
       </c>
       <c r="S86" t="n">
-        <v>54.06041483976104</v>
+        <v>36.42511484754149</v>
       </c>
       <c r="T86" t="n">
-        <v>0.4662367643587135</v>
+        <v>0.5477187413039435</v>
       </c>
     </row>
     <row r="87">
@@ -6154,10 +6154,10 @@
         <v>0.0864280202627925</v>
       </c>
       <c r="S87" t="n">
-        <v>25.99233161706424</v>
+        <v>18.64766859061211</v>
       </c>
       <c r="T87" t="n">
-        <v>0.04893786247607901</v>
+        <v>-0.08852247377279787</v>
       </c>
     </row>
     <row r="88">
@@ -6220,10 +6220,10 @@
         <v>0.3996107284993979</v>
       </c>
       <c r="S88" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T88" t="n">
-        <v>0.8786904097207977</v>
+        <v>1.329161917482947</v>
       </c>
     </row>
     <row r="89">
@@ -6286,10 +6286,10 @@
         <v>1.000582642172757</v>
       </c>
       <c r="S89" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T89" t="n">
-        <v>0.6709434582713596</v>
+        <v>0.8425222991980823</v>
       </c>
     </row>
     <row r="90">
@@ -6352,10 +6352,10 @@
         <v>0.517988724018646</v>
       </c>
       <c r="S90" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T90" t="n">
-        <v>0.5664191443551636</v>
+        <v>0.6192175729888982</v>
       </c>
     </row>
     <row r="91">
@@ -6418,10 +6418,10 @@
         <v>0.2096408061186663</v>
       </c>
       <c r="S91" t="n">
-        <v>42.91884324570856</v>
+        <v>29.49987997570432</v>
       </c>
       <c r="T91" t="n">
-        <v>0.1553417116991427</v>
+        <v>0.005331573115241683</v>
       </c>
     </row>
     <row r="92">
@@ -6484,10 +6484,10 @@
         <v>0.333512804364938</v>
       </c>
       <c r="S92" t="n">
-        <v>66.70897316921287</v>
+        <v>44.1313047448811</v>
       </c>
       <c r="T92" t="n">
-        <v>0.5326387814052373</v>
+        <v>0.6225756650858238</v>
       </c>
     </row>
     <row r="93">
@@ -6550,10 +6550,10 @@
         <v>0.2046110099878682</v>
       </c>
       <c r="S93" t="n">
-        <v>41.4433837761479</v>
+        <v>28.57145267568502</v>
       </c>
       <c r="T93" t="n">
-        <v>0.26624165014783</v>
+        <v>0.2158343270483036</v>
       </c>
     </row>
     <row r="94">
@@ -6616,10 +6616,10 @@
         <v>0.5233812774737026</v>
       </c>
       <c r="S94" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T94" t="n">
-        <v>0.7126648424497746</v>
+        <v>0.9356819890485231</v>
       </c>
     </row>
     <row r="95">
@@ -6682,10 +6682,10 @@
         <v>0.4852376658507049</v>
       </c>
       <c r="S95" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T95" t="n">
-        <v>0.6150113275441718</v>
+        <v>0.7212358752937871</v>
       </c>
     </row>
     <row r="96">
@@ -6740,7 +6740,7 @@
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
-        <v>16.18255252957177</v>
+        <v>12.0883368123743</v>
       </c>
       <c r="T96" t="inlineStr"/>
     </row>
@@ -6804,10 +6804,10 @@
         <v>0.1159722708743793</v>
       </c>
       <c r="S97" t="n">
-        <v>29.79281152330486</v>
+        <v>21.12724690160724</v>
       </c>
       <c r="T97" t="n">
-        <v>-0.05619115145231079</v>
+        <v>-0.2805065764163784</v>
       </c>
     </row>
     <row r="98">
@@ -6870,10 +6870,10 @@
         <v>0.1376714777400061</v>
       </c>
       <c r="S98" t="n">
-        <v>31.99745917011508</v>
+        <v>22.55294320266945</v>
       </c>
       <c r="T98" t="n">
-        <v>0.1280931596554546</v>
+        <v>0.01415503236946103</v>
       </c>
     </row>
     <row r="99">
@@ -6932,10 +6932,10 @@
         <v>3.261457426521115</v>
       </c>
       <c r="S99" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T99" t="n">
-        <v>0.9131938422948214</v>
+        <v>1.41550083886678</v>
       </c>
     </row>
     <row r="100">
@@ -6998,10 +6998,10 @@
         <v>1.508218026461227</v>
       </c>
       <c r="S100" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T100" t="n">
-        <v>0.6140229831929014</v>
+        <v>0.7191298179692305</v>
       </c>
     </row>
     <row r="101">
@@ -7064,10 +7064,10 @@
         <v>0.1713657426576474</v>
       </c>
       <c r="S101" t="n">
-        <v>36.89059232685935</v>
+        <v>25.68761400290114</v>
       </c>
       <c r="T101" t="n">
-        <v>0.1149612438651055</v>
+        <v>-0.03588088633979614</v>
       </c>
     </row>
     <row r="102">
@@ -7130,10 +7130,10 @@
         <v>0.3526824241273401</v>
       </c>
       <c r="S102" t="n">
-        <v>73.30392912716668</v>
+        <v>48.09403525448571</v>
       </c>
       <c r="T102" t="n">
-        <v>0.3691088976167904</v>
+        <v>0.2709872233038473</v>
       </c>
     </row>
     <row r="103">
@@ -7196,10 +7196,10 @@
         <v>0.2491374083906996</v>
       </c>
       <c r="S103" t="n">
-        <v>49.13572639460301</v>
+        <v>33.38172350755048</v>
       </c>
       <c r="T103" t="n">
-        <v>0.3421787654142219</v>
+        <v>0.3214153729320171</v>
       </c>
     </row>
     <row r="104">
@@ -7262,10 +7262,10 @@
         <v>2.234075074195192</v>
       </c>
       <c r="S104" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T104" t="n">
-        <v>0.9459031678466796</v>
+        <v>1.498801131899359</v>
       </c>
     </row>
     <row r="105">
@@ -7328,10 +7328,10 @@
         <v>0.4119812859573306</v>
       </c>
       <c r="S105" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T105" t="n">
-        <v>0.7365439852962272</v>
+        <v>0.9900354829580553</v>
       </c>
     </row>
     <row r="106">
@@ -7394,10 +7394,10 @@
         <v>0.3782351566674444</v>
       </c>
       <c r="S106" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T106" t="n">
-        <v>0.2997574043191196</v>
+        <v>0.1148433410226972</v>
       </c>
     </row>
     <row r="107">
@@ -7460,10 +7460,10 @@
         <v>0.6022362405179211</v>
       </c>
       <c r="S107" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T107" t="n">
-        <v>0.8956079886217645</v>
+        <v>1.37129892476521</v>
       </c>
     </row>
     <row r="108">
@@ -7526,10 +7526,10 @@
         <v>0.1361779129747196</v>
       </c>
       <c r="S108" t="n">
-        <v>31.19399498227725</v>
+        <v>22.03437809190376</v>
       </c>
       <c r="T108" t="n">
-        <v>0.2259258232859667</v>
+        <v>0.2034592370761779</v>
       </c>
     </row>
     <row r="109">
@@ -7592,10 +7592,10 @@
         <v>0.2477353947625354</v>
       </c>
       <c r="S109" t="n">
-        <v>49.36851690309769</v>
+        <v>33.52618653089978</v>
       </c>
       <c r="T109" t="n">
-        <v>0.269190200682998</v>
+        <v>0.1805111233920029</v>
       </c>
     </row>
     <row r="110">
@@ -7658,10 +7658,10 @@
         <v>0.4232500203184391</v>
       </c>
       <c r="S110" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T110" t="n">
-        <v>0.8515934754933876</v>
+        <v>1.262458008511314</v>
       </c>
     </row>
     <row r="111">
@@ -7724,10 +7724,10 @@
         <v>0.29916117251845</v>
       </c>
       <c r="S111" t="n">
-        <v>58.10482026003149</v>
+        <v>38.90558314832482</v>
       </c>
       <c r="T111" t="n">
-        <v>0.5288827778811114</v>
+        <v>0.6591093954819505</v>
       </c>
     </row>
     <row r="112">
@@ -7790,10 +7790,10 @@
         <v>0.08754984834330459</v>
       </c>
       <c r="S112" t="n">
-        <v>26.33169021434708</v>
+        <v>18.87028362464437</v>
       </c>
       <c r="T112" t="n">
-        <v>-0.01393544112052414</v>
+        <v>-0.1964285039385952</v>
       </c>
     </row>
     <row r="113">
@@ -7856,10 +7856,10 @@
         <v>0.07906544591585019</v>
       </c>
       <c r="S113" t="n">
-        <v>24.9145447384862</v>
+        <v>17.93898819469643</v>
       </c>
       <c r="T113" t="n">
-        <v>0.1039965114035601</v>
+        <v>0.01749864986536709</v>
       </c>
     </row>
     <row r="114">
@@ -7918,10 +7918,10 @@
         <v>2.518369184551227</v>
       </c>
       <c r="S114" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T114" t="n">
-        <v>0.7930521685788938</v>
+        <v>1.12165661037122</v>
       </c>
     </row>
     <row r="115">
@@ -7984,10 +7984,10 @@
         <v>0.5744823103804668</v>
       </c>
       <c r="S115" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T115" t="n">
-        <v>0.9728746079287778</v>
+        <v>1.568551100355078</v>
       </c>
     </row>
     <row r="116">
@@ -8050,10 +8050,10 @@
         <v>0.125188709745629</v>
       </c>
       <c r="S116" t="n">
-        <v>30.34180724177848</v>
+        <v>21.48309909598345</v>
       </c>
       <c r="T116" t="n">
-        <v>0.1274140153926802</v>
+        <v>0.02314321908140116</v>
       </c>
     </row>
     <row r="117">
@@ -8116,10 +8116,10 @@
         <v>0.09238640389680031</v>
       </c>
       <c r="S117" t="n">
-        <v>26.60855503133399</v>
+        <v>19.05172155455372</v>
       </c>
       <c r="T117" t="n">
-        <v>0.06456370184991211</v>
+        <v>-0.06519172955868058</v>
       </c>
     </row>
     <row r="118">
@@ -8182,10 +8182,10 @@
         <v>0.3165063473191971</v>
       </c>
       <c r="S118" t="n">
-        <v>64.02239056813093</v>
+        <v>42.50670446295648</v>
       </c>
       <c r="T118" t="n">
-        <v>0.3510428481181602</v>
+        <v>0.2710945190459011</v>
       </c>
     </row>
     <row r="119">
@@ -8248,10 +8248,10 @@
         <v>0.1659414233371432</v>
       </c>
       <c r="S119" t="n">
-        <v>35.64484696372541</v>
+        <v>24.89320793919332</v>
       </c>
       <c r="T119" t="n">
-        <v>0.200606178584674</v>
+        <v>0.1253250001857713</v>
       </c>
     </row>
     <row r="120">
@@ -8314,10 +8314,10 @@
         <v>2.891628883850926</v>
       </c>
       <c r="S120" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T120" t="n">
-        <v>1.049753496811173</v>
+        <v>1.772633816322466</v>
       </c>
     </row>
     <row r="121">
@@ -8380,10 +8380,10 @@
         <v>-0.04698884585143615</v>
       </c>
       <c r="S121" t="n">
-        <v>14.67342424265041</v>
+        <v>11.05325951950748</v>
       </c>
       <c r="T121" t="n">
-        <v>-0.1163197173475548</v>
+        <v>-0.2878000019225192</v>
       </c>
     </row>
     <row r="122">
@@ -8446,10 +8446,10 @@
         <v>0.1255834271074412</v>
       </c>
       <c r="S122" t="n">
-        <v>30.12837498057593</v>
+        <v>21.34482162803501</v>
       </c>
       <c r="T122" t="n">
-        <v>0.174402582096004</v>
+        <v>0.1116799208082355</v>
       </c>
     </row>
     <row r="123">
@@ -8512,10 +8512,10 @@
         <v>0.2519201845056953</v>
       </c>
       <c r="S123" t="n">
-        <v>49.48735581892284</v>
+        <v>33.59991079658531</v>
       </c>
       <c r="T123" t="n">
-        <v>0.3668056899035503</v>
+        <v>0.368439877180659</v>
       </c>
     </row>
     <row r="124">
@@ -8578,10 +8578,10 @@
         <v>0.1642667976580228</v>
       </c>
       <c r="S124" t="n">
-        <v>35.54684782326347</v>
+        <v>24.8306120896921</v>
       </c>
       <c r="T124" t="n">
-        <v>0.1739771440307609</v>
+        <v>0.07652806833577519</v>
       </c>
     </row>
     <row r="125">
@@ -8644,10 +8644,10 @@
         <v>0.3987674804633976</v>
       </c>
       <c r="S125" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T125" t="n">
-        <v>0.5462522146559177</v>
+        <v>0.5777925939076112</v>
       </c>
     </row>
     <row r="126">
@@ -8710,10 +8710,10 @@
         <v>0.1603438882888535</v>
       </c>
       <c r="S126" t="n">
-        <v>35.09864500251216</v>
+        <v>24.54413428402656</v>
       </c>
       <c r="T126" t="n">
-        <v>0.1483735442369969</v>
+        <v>0.03259076210871714</v>
       </c>
     </row>
     <row r="127">
@@ -8776,10 +8776,10 @@
         <v>0.2435930430491398</v>
       </c>
       <c r="S127" t="n">
-        <v>48.30533663309678</v>
+        <v>32.86590278396559</v>
       </c>
       <c r="T127" t="n">
-        <v>0.3073217817210354</v>
+        <v>0.2578607613729613</v>
       </c>
     </row>
     <row r="128">
@@ -8842,10 +8842,10 @@
         <v>0.2320139604704716</v>
       </c>
       <c r="S128" t="n">
-        <v>45.17025679782777</v>
+        <v>30.91113576960379</v>
       </c>
       <c r="T128" t="n">
-        <v>0.4064761789286246</v>
+        <v>0.4751183384748776</v>
       </c>
     </row>
     <row r="129">
@@ -8908,10 +8908,10 @@
         <v>-0.01127328823884843</v>
       </c>
       <c r="S129" t="n">
-        <v>17.36227043394047</v>
+        <v>12.89184313230371</v>
       </c>
       <c r="T129" t="n">
-        <v>-0.1616979166688755</v>
+        <v>-0.3756153194810047</v>
       </c>
     </row>
     <row r="130">
@@ -8974,10 +8974,10 @@
         <v>0.253175508861385</v>
       </c>
       <c r="S130" t="n">
-        <v>50.089021365188</v>
+        <v>33.97292247851792</v>
       </c>
       <c r="T130" t="n">
-        <v>0.3236872755837796</v>
+        <v>0.2804270135235749</v>
       </c>
     </row>
     <row r="131">
@@ -9040,10 +9040,10 @@
         <v>0.5097278713603082</v>
       </c>
       <c r="S131" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T131" t="n">
-        <v>0.604999797709098</v>
+        <v>0.6999619778165911</v>
       </c>
     </row>
     <row r="132">
@@ -9106,10 +9106,10 @@
         <v>0.3059501343820912</v>
       </c>
       <c r="S132" t="n">
-        <v>57.93877697000119</v>
+        <v>38.80406576095756</v>
       </c>
       <c r="T132" t="n">
-        <v>0.6393889306404943</v>
+        <v>0.908688355716738</v>
       </c>
     </row>
     <row r="133">
@@ -9172,10 +9172,10 @@
         <v>0.2348610096692638</v>
       </c>
       <c r="S133" t="n">
-        <v>46.31342682158018</v>
+        <v>31.62528628184107</v>
       </c>
       <c r="T133" t="n">
-        <v>0.3458636460550675</v>
+        <v>0.3441422995251699</v>
       </c>
     </row>
     <row r="134">
@@ -9234,10 +9234,10 @@
         <v>0.3871677923361958</v>
       </c>
       <c r="S134" t="n">
-        <v>77.72701317702585</v>
+        <v>50</v>
       </c>
       <c r="T134" t="n">
-        <v>0.7999202710706768</v>
+        <v>1.161485477316948</v>
       </c>
     </row>
     <row r="135">
@@ -9300,10 +9300,10 @@
         <v>0.5135292932880617</v>
       </c>
       <c r="S135" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T135" t="n">
-        <v>0.4925367328938219</v>
+        <v>0.4700743518562249</v>
       </c>
     </row>
     <row r="136">
@@ -9366,10 +9366,10 @@
         <v>0.1575070616473406</v>
       </c>
       <c r="S136" t="n">
-        <v>34.98997300754649</v>
+        <v>24.47462632393327</v>
       </c>
       <c r="T136" t="n">
-        <v>0.07545823858824474</v>
+        <v>-0.09383602345212916</v>
       </c>
     </row>
     <row r="137">
@@ -9432,10 +9432,10 @@
         <v>0.2289840001881922</v>
       </c>
       <c r="S137" t="n">
-        <v>45.96620506066797</v>
+        <v>31.40854192142013</v>
       </c>
       <c r="T137" t="n">
-        <v>0.2385612434833961</v>
+        <v>0.1400302809871472</v>
       </c>
     </row>
     <row r="138">
@@ -9498,10 +9498,10 @@
         <v>0.1326127746831089</v>
       </c>
       <c r="S138" t="n">
-        <v>29.75795305114774</v>
+        <v>21.10463304947405</v>
       </c>
       <c r="T138" t="n">
-        <v>0.3239025623085339</v>
+        <v>0.4160093614710472</v>
       </c>
     </row>
     <row r="139">
@@ -9564,10 +9564,10 @@
         <v>0.2975600821954714</v>
       </c>
       <c r="S139" t="n">
-        <v>58.87503541473586</v>
+        <v>39.37613911371097</v>
       </c>
       <c r="T139" t="n">
-        <v>0.4279690052777336</v>
+        <v>0.4435755972573923</v>
       </c>
     </row>
     <row r="140">
@@ -9630,10 +9630,10 @@
         <v>0.1266462203222765</v>
       </c>
       <c r="S140" t="n">
-        <v>30.7680510250886</v>
+        <v>21.75900080400067</v>
       </c>
       <c r="T140" t="n">
-        <v>0.074182900332187</v>
+        <v>-0.07362757629554095</v>
       </c>
     </row>
     <row r="141">
@@ -9692,10 +9692,10 @@
         <v>0.2505632708264218</v>
       </c>
       <c r="S141" t="n">
-        <v>47.72961680751122</v>
+        <v>32.50780945902162</v>
       </c>
       <c r="T141" t="n">
-        <v>0.4953817398389135</v>
+        <v>0.6496447149108748</v>
       </c>
     </row>
     <row r="142">
@@ -9758,10 +9758,10 @@
         <v>0.312868463942831</v>
       </c>
       <c r="S142" t="n">
-        <v>59.32702938069726</v>
+        <v>39.65201718777883</v>
       </c>
       <c r="T142" t="n">
-        <v>0.6579358931217414</v>
+        <v>0.9430508535884896</v>
       </c>
     </row>
     <row r="143">
@@ -9824,10 +9824,10 @@
         <v>0.5128843866022679</v>
       </c>
       <c r="S143" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T143" t="n">
-        <v>0.8360119362229337</v>
+        <v>1.224540128663836</v>
       </c>
     </row>
     <row r="144">
@@ -9890,10 +9890,10 @@
         <v>0.7592237018795196</v>
       </c>
       <c r="S144" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T144" t="n">
-        <v>0.7245412536418987</v>
+        <v>0.9626209005022126</v>
       </c>
     </row>
     <row r="145">
@@ -9956,10 +9956,10 @@
         <v>0.1469982046426888</v>
       </c>
       <c r="S145" t="n">
-        <v>33.38829646241937</v>
+        <v>23.44795179987924</v>
       </c>
       <c r="T145" t="n">
-        <v>0.1042953276332532</v>
+        <v>-0.03600395507616772</v>
       </c>
     </row>
     <row r="146">
@@ -10022,10 +10022,10 @@
         <v>0.199150564841216</v>
       </c>
       <c r="S146" t="n">
-        <v>40.33088427359148</v>
+        <v>27.86947880694532</v>
       </c>
       <c r="T146" t="n">
-        <v>0.290429454158136</v>
+        <v>0.2694099383527269</v>
       </c>
     </row>
     <row r="147">
@@ -10088,10 +10088,10 @@
         <v>0.2437612367085744</v>
       </c>
       <c r="S147" t="n">
-        <v>48.3159425827937</v>
+        <v>32.87249598648931</v>
       </c>
       <c r="T147" t="n">
-        <v>0.3104174867049849</v>
+        <v>0.2637706879702348</v>
       </c>
     </row>
     <row r="148">
@@ -10152,10 +10152,10 @@
         <v>4.986062290271948</v>
       </c>
       <c r="S148" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T148" t="n">
-        <v>0.09679193332371616</v>
+        <v>-0.2061512977889988</v>
       </c>
     </row>
     <row r="149">
@@ -10218,10 +10218,10 @@
         <v>0.198314119427849</v>
       </c>
       <c r="S149" t="n">
-        <v>40.80805744013018</v>
+        <v>28.17077688289523</v>
       </c>
       <c r="T149" t="n">
-        <v>0.195315717297875</v>
+        <v>0.08669669458258022</v>
       </c>
     </row>
     <row r="150">
@@ -10284,10 +10284,10 @@
         <v>0.3831399798347757</v>
       </c>
       <c r="S150" t="n">
-        <v>79.47939207571528</v>
+        <v>50</v>
       </c>
       <c r="T150" t="n">
-        <v>0.6417926203512236</v>
+        <v>0.778954689502702</v>
       </c>
     </row>
     <row r="151">
@@ -10350,10 +10350,10 @@
         <v>0.6370352916990947</v>
       </c>
       <c r="S151" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T151" t="n">
-        <v>0.4680181742203084</v>
+        <v>0.4221719488265745</v>
       </c>
     </row>
     <row r="152">
@@ -10416,10 +10416,10 @@
         <v>0.3604971030339603</v>
       </c>
       <c r="S152" t="n">
-        <v>73.40279216385875</v>
+        <v>48.15317782039364</v>
       </c>
       <c r="T152" t="n">
-        <v>0.5923527018915051</v>
+        <v>0.7188125777662253</v>
       </c>
     </row>
     <row r="153">
@@ -10482,10 +10482,10 @@
         <v>0.1345356455869695</v>
       </c>
       <c r="S153" t="n">
-        <v>31.67476363996469</v>
+        <v>22.34480910620659</v>
       </c>
       <c r="T153" t="n">
-        <v>0.1064632915508934</v>
+        <v>-0.02248878186017667</v>
       </c>
     </row>
     <row r="154">
@@ -10548,10 +10548,10 @@
         <v>0.2942185739914429</v>
       </c>
       <c r="S154" t="n">
-        <v>57.96450625398315</v>
+        <v>38.81979816056283</v>
       </c>
       <c r="T154" t="n">
-        <v>0.4414841789485988</v>
+        <v>0.4755464114976633</v>
       </c>
     </row>
     <row r="155">
@@ -10614,10 +10614,10 @@
         <v>4.476223321126144</v>
       </c>
       <c r="S155" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T155" t="n">
-        <v>0.5566656182695051</v>
+        <v>0.599115786070666</v>
       </c>
     </row>
     <row r="156">
@@ -10676,10 +10676,10 @@
         <v>0.129055618956706</v>
       </c>
       <c r="S156" t="n">
-        <v>29.72115210869535</v>
+        <v>21.08075656982296</v>
       </c>
       <c r="T156" t="n">
-        <v>0.2826815826455178</v>
+        <v>0.3295128904483187</v>
       </c>
     </row>
     <row r="157">
@@ -10742,10 +10742,10 @@
         <v>0.2225383660066995</v>
       </c>
       <c r="S157" t="n">
-        <v>44.16318916917719</v>
+        <v>30.28066986609637</v>
       </c>
       <c r="T157" t="n">
-        <v>0.3270736295863546</v>
+        <v>0.3190507333668031</v>
       </c>
     </row>
     <row r="158">
@@ -10808,10 +10808,10 @@
         <v>0.9946340900798105</v>
       </c>
       <c r="S158" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T158" t="n">
-        <v>0.8806545311082119</v>
+        <v>1.334034618282493</v>
       </c>
     </row>
     <row r="159">
@@ -10874,10 +10874,10 @@
         <v>0.3951441822683912</v>
       </c>
       <c r="S159" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T159" t="n">
-        <v>0.5432395262946375</v>
+        <v>0.571650301434611</v>
       </c>
     </row>
     <row r="160">
@@ -10940,10 +10940,10 @@
         <v>0.1662452063323772</v>
       </c>
       <c r="S160" t="n">
-        <v>35.8281125104284</v>
+        <v>25.01022632736925</v>
       </c>
       <c r="T160" t="n">
-        <v>0.1766791303045498</v>
+        <v>0.07985568066936888</v>
       </c>
     </row>
     <row r="161">
@@ -11006,10 +11006,10 @@
         <v>0.6114908119187472</v>
       </c>
       <c r="S161" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T161" t="n">
-        <v>0.5722475703572774</v>
+        <v>0.6312897538323325</v>
       </c>
     </row>
     <row r="162">
@@ -11072,10 +11072,10 @@
         <v>0.2208253231299258</v>
       </c>
       <c r="S162" t="n">
-        <v>43.84354971002398</v>
+        <v>30.08029511882236</v>
       </c>
       <c r="T162" t="n">
-        <v>0.3277617055395077</v>
+        <v>0.3222890223832746</v>
       </c>
     </row>
     <row r="163">
@@ -11138,10 +11138,10 @@
         <v>-0.09715198877767683</v>
       </c>
       <c r="S163" t="n">
-        <v>11.663677107764</v>
+        <v>8.961240448048471</v>
       </c>
       <c r="T163" t="n">
-        <v>-0.1486944036956644</v>
+        <v>-0.3177114593516995</v>
       </c>
     </row>
     <row r="164">
@@ -11204,10 +11204,10 @@
         <v>0.2967585918513935</v>
       </c>
       <c r="S164" t="n">
-        <v>55.54011244808699</v>
+        <v>37.33452868048449</v>
       </c>
       <c r="T164" t="n">
-        <v>0.6445368760012402</v>
+        <v>0.9367231499621866</v>
       </c>
     </row>
     <row r="165">
@@ -11270,10 +11270,10 @@
         <v>0.3800417241399485</v>
       </c>
       <c r="S165" t="n">
-        <v>79.3818602139483</v>
+        <v>50</v>
       </c>
       <c r="T165" t="n">
-        <v>0.577098925787223</v>
+        <v>0.6425025030370235</v>
       </c>
     </row>
     <row r="166">
@@ -11336,10 +11336,10 @@
         <v>0.2831335377609934</v>
       </c>
       <c r="S166" t="n">
-        <v>51.97672366046152</v>
+        <v>35.14062762738632</v>
       </c>
       <c r="T166" t="n">
-        <v>0.6555699325892188</v>
+        <v>0.988516709721331</v>
       </c>
     </row>
     <row r="167">
@@ -11402,10 +11402,10 @@
         <v>0.1162108689931161</v>
       </c>
       <c r="S167" t="n">
-        <v>27.95660911025148</v>
+        <v>19.93286350540788</v>
       </c>
       <c r="T167" t="n">
-        <v>0.2872490628654996</v>
+        <v>0.3543742611393927</v>
       </c>
     </row>
     <row r="168">
@@ -11468,10 +11468,10 @@
         <v>0.1241871073522567</v>
       </c>
       <c r="S168" t="n">
-        <v>30.73898267000965</v>
+        <v>21.74019581912258</v>
       </c>
       <c r="T168" t="n">
-        <v>-0.01749983796671439</v>
+        <v>-0.2248749866722657</v>
       </c>
     </row>
     <row r="169">
@@ -11534,10 +11534,10 @@
         <v>0.2039098188088695</v>
       </c>
       <c r="S169" t="n">
-        <v>41.79408407323849</v>
+        <v>28.79239189604004</v>
       </c>
       <c r="T169" t="n">
-        <v>0.1867461554586598</v>
+        <v>0.06621848536106834</v>
       </c>
     </row>
     <row r="170">
@@ -11600,10 +11600,10 @@
         <v>0.1636532830767279</v>
       </c>
       <c r="S170" t="n">
-        <v>34.81161760314495</v>
+        <v>24.36050703082911</v>
       </c>
       <c r="T170" t="n">
-        <v>0.2691714028174879</v>
+        <v>0.2632372903033491</v>
       </c>
     </row>
     <row r="171">
@@ -11666,10 +11666,10 @@
         <v>0.3131133280803435</v>
       </c>
       <c r="S171" t="n">
-        <v>64.09766474677767</v>
+        <v>42.55230838904025</v>
       </c>
       <c r="T171" t="n">
-        <v>0.1516937247162806</v>
+        <v>-0.0765504946217147</v>
       </c>
     </row>
     <row r="172">
@@ -11732,10 +11732,10 @@
         <v>0.769480761818786</v>
       </c>
       <c r="S172" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T172" t="n">
-        <v>0.4547813006738382</v>
+        <v>0.3966406043965061</v>
       </c>
     </row>
     <row r="173">
@@ -11798,10 +11798,10 @@
         <v>0.1657499620377052</v>
       </c>
       <c r="S173" t="n">
-        <v>35.51093104141344</v>
+        <v>24.80766686609773</v>
       </c>
       <c r="T173" t="n">
-        <v>0.217281950664743</v>
+        <v>0.1576375455817498</v>
       </c>
     </row>
     <row r="174">
@@ -11864,10 +11864,10 @@
         <v>0.4057697478901288</v>
       </c>
       <c r="S174" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T174" t="n">
-        <v>0.4423817962444556</v>
+        <v>0.3729341548014224</v>
       </c>
     </row>
     <row r="175">
@@ -11930,10 +11930,10 @@
         <v>1.118638910042147</v>
       </c>
       <c r="S175" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T175" t="n">
-        <v>0.882694841750473</v>
+        <v>1.339101725302</v>
       </c>
     </row>
     <row r="176">
@@ -11996,10 +11996,10 @@
         <v>0.4877365249627388</v>
       </c>
       <c r="S176" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T176" t="n">
-        <v>0.7116026353392901</v>
+        <v>0.9332816857096369</v>
       </c>
     </row>
     <row r="177">
@@ -12062,10 +12062,10 @@
         <v>0.1976600601807474</v>
       </c>
       <c r="S177" t="n">
-        <v>40.98875042906329</v>
+        <v>28.28478890707477</v>
       </c>
       <c r="T177" t="n">
-        <v>0.1322144309895665</v>
+        <v>-0.02584451762130779</v>
       </c>
     </row>
     <row r="178">
@@ -12128,10 +12128,10 @@
         <v>0.1117166242356769</v>
       </c>
       <c r="S178" t="n">
-        <v>28.78079384368289</v>
+        <v>20.46977638015234</v>
       </c>
       <c r="T178" t="n">
-        <v>0.09633470761137297</v>
+        <v>-0.02287051256440786</v>
       </c>
     </row>
     <row r="179">
@@ -12190,10 +12190,10 @@
         <v>0.3403213146039843</v>
       </c>
       <c r="S179" t="n">
-        <v>59.17031308096976</v>
+        <v>39.55638610519944</v>
       </c>
       <c r="T179" t="n">
-        <v>0.9070205374615898</v>
+        <v>1.57208540659867</v>
       </c>
     </row>
     <row r="180">
@@ -12252,10 +12252,10 @@
         <v>0.1796063440041435</v>
       </c>
       <c r="S180" t="n">
-        <v>36.71428653383241</v>
+        <v>25.5753294443623</v>
       </c>
       <c r="T180" t="n">
-        <v>0.3330608665492603</v>
+        <v>0.3794669521345302</v>
       </c>
     </row>
     <row r="181">
@@ -12318,10 +12318,10 @@
         <v>0.2394734919523054</v>
       </c>
       <c r="S181" t="n">
-        <v>47.27451247535599</v>
+        <v>32.22446320340766</v>
       </c>
       <c r="T181" t="n">
-        <v>0.3372190922511797</v>
+        <v>0.3216153245460072</v>
       </c>
     </row>
     <row r="182">
@@ -12384,10 +12384,10 @@
         <v>0.2547850868708033</v>
       </c>
       <c r="S182" t="n">
-        <v>50.0692868142369</v>
+        <v>33.96069418926849</v>
       </c>
       <c r="T182" t="n">
-        <v>0.3668123852695624</v>
+        <v>0.3653229283323045</v>
       </c>
     </row>
     <row r="183">
@@ -12450,10 +12450,10 @@
         <v>0.1890612832867387</v>
       </c>
       <c r="S183" t="n">
-        <v>38.47741797940089</v>
+        <v>26.6961270835603</v>
       </c>
       <c r="T183" t="n">
-        <v>0.31001331979904</v>
+        <v>0.3201922101255683</v>
       </c>
     </row>
     <row r="184">
@@ -12516,10 +12516,10 @@
         <v>0.3317639066344387</v>
       </c>
       <c r="S184" t="n">
-        <v>67.41486524950635</v>
+        <v>44.55714590547973</v>
       </c>
       <c r="T184" t="n">
-        <v>0.4143228562973478</v>
+        <v>0.3788673769004036</v>
       </c>
     </row>
     <row r="185">
@@ -12578,10 +12578,10 @@
         <v>0.2000759404450216</v>
       </c>
       <c r="S185" t="n">
-        <v>40.0073448199806</v>
+        <v>27.66500914864394</v>
       </c>
       <c r="T185" t="n">
-        <v>0.3448333401189945</v>
+        <v>0.3808545843989855</v>
       </c>
     </row>
     <row r="186">
@@ -12644,10 +12644,10 @@
         <v>0.1840263064791605</v>
       </c>
       <c r="S186" t="n">
-        <v>36.47924851010199</v>
+        <v>25.42556616438443</v>
       </c>
       <c r="T186" t="n">
-        <v>0.4128888282896113</v>
+        <v>0.5515420591144062</v>
       </c>
     </row>
     <row r="187">
@@ -12710,10 +12710,10 @@
         <v>1.497662558744192</v>
       </c>
       <c r="S187" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T187" t="n">
-        <v>0.7386702676803554</v>
+        <v>0.9949117981529128</v>
       </c>
     </row>
     <row r="188">
@@ -12776,10 +12776,10 @@
         <v>0.2702550272481909</v>
       </c>
       <c r="S188" t="n">
-        <v>53.45835457960032</v>
+        <v>36.05444597961606</v>
       </c>
       <c r="T188" t="n">
-        <v>0.3468596005049382</v>
+        <v>0.3088305511505638</v>
       </c>
     </row>
     <row r="189">
@@ -12842,10 +12842,10 @@
         <v>0.3227876414522826</v>
       </c>
       <c r="S189" t="n">
-        <v>65.26706996433147</v>
+        <v>43.26014427991448</v>
       </c>
       <c r="T189" t="n">
-        <v>0.3959420252642374</v>
+        <v>0.3518494207843819</v>
       </c>
     </row>
     <row r="190">
@@ -12908,10 +12908,10 @@
         <v>0.131322449618972</v>
       </c>
       <c r="S190" t="n">
-        <v>31.09896610853925</v>
+        <v>21.97296929993773</v>
       </c>
       <c r="T190" t="n">
-        <v>0.1371848997799368</v>
+        <v>0.03613241401047906</v>
       </c>
     </row>
     <row r="191">
@@ -12974,10 +12974,10 @@
         <v>0.6730635841614498</v>
       </c>
       <c r="S191" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T191" t="n">
-        <v>0.5925842649793716</v>
+        <v>0.6737634689359424</v>
       </c>
     </row>
     <row r="192">
@@ -13040,10 +13040,10 @@
         <v>0.160411612949426</v>
       </c>
       <c r="S192" t="n">
-        <v>34.59497529450631</v>
+        <v>24.22182136967264</v>
       </c>
       <c r="T192" t="n">
-        <v>0.2343067321332952</v>
+        <v>0.1962144908259613</v>
       </c>
     </row>
     <row r="193">
@@ -13106,10 +13106,10 @@
         <v>0.215119805601937</v>
       </c>
       <c r="S193" t="n">
-        <v>42.96030334402992</v>
+        <v>29.52592713343289</v>
       </c>
       <c r="T193" t="n">
-        <v>0.3097850020645376</v>
+        <v>0.2918344262138657</v>
       </c>
     </row>
     <row r="194">
@@ -13172,10 +13172,10 @@
         <v>0.2533423621621296</v>
       </c>
       <c r="S194" t="n">
-        <v>49.43977342317808</v>
+        <v>33.57039395866273</v>
       </c>
       <c r="T194" t="n">
-        <v>0.4024828755857484</v>
+        <v>0.4410834227151599</v>
       </c>
     </row>
     <row r="195">
@@ -13238,10 +13238,10 @@
         <v>0.999284812434611</v>
       </c>
       <c r="S195" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T195" t="n">
-        <v>0.9137383693652652</v>
+        <v>1.416876018679074</v>
       </c>
     </row>
     <row r="196">
@@ -13304,10 +13304,10 @@
         <v>0.102326446215929</v>
       </c>
       <c r="S196" t="n">
-        <v>27.66366747372614</v>
+        <v>19.7417014065088</v>
       </c>
       <c r="T196" t="n">
-        <v>0.09049243445458699</v>
+        <v>-0.02611628928632115</v>
       </c>
     </row>
     <row r="197">
@@ -13370,10 +13370,10 @@
         <v>0.3764785605200669</v>
       </c>
       <c r="S197" t="n">
-        <v>73.47358641314023</v>
+        <v>48.19552427077867</v>
       </c>
       <c r="T197" t="n">
-        <v>0.8299876070372516</v>
+        <v>1.269676049070203</v>
       </c>
     </row>
     <row r="198">
@@ -13436,10 +13436,10 @@
         <v>0.2821989658304378</v>
       </c>
       <c r="S198" t="n">
-        <v>56.0523778062018</v>
+        <v>37.64884629641458</v>
       </c>
       <c r="T198" t="n">
-        <v>0.3468191870548847</v>
+        <v>0.296628045834064</v>
       </c>
     </row>
     <row r="199">
@@ -13498,10 +13498,10 @@
         <v>0.2879351137332273</v>
       </c>
       <c r="S199" t="n">
-        <v>49.83620815870195</v>
+        <v>33.81623666805265</v>
       </c>
       <c r="T199" t="n">
-        <v>0.7685753548247385</v>
+        <v>1.288030049328509</v>
       </c>
     </row>
     <row r="200">
@@ -13564,10 +13564,10 @@
         <v>0.5303814872509887</v>
       </c>
       <c r="S200" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T200" t="n">
-        <v>0.5116538431131954</v>
+        <v>0.5079743306826179</v>
       </c>
     </row>
     <row r="201">
@@ -13630,10 +13630,10 @@
         <v>0.1415075569491098</v>
       </c>
       <c r="S201" t="n">
-        <v>32.378039007116</v>
+        <v>22.79817786659465</v>
       </c>
       <c r="T201" t="n">
-        <v>0.1562175225754814</v>
+        <v>0.0629677244504987</v>
       </c>
     </row>
     <row r="202">
@@ -13696,10 +13696,10 @@
         <v>0.1421683293429261</v>
       </c>
       <c r="S202" t="n">
-        <v>32.34672532249375</v>
+        <v>22.77800972650595</v>
       </c>
       <c r="T202" t="n">
-        <v>0.1777276204173917</v>
+        <v>0.1030886597971379</v>
       </c>
     </row>
     <row r="203">
@@ -13762,10 +13762,10 @@
         <v>0.4065197489099681</v>
       </c>
       <c r="S203" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T203" t="n">
-        <v>0.5975675231296478</v>
+        <v>0.6842543986389469</v>
       </c>
     </row>
     <row r="204">
@@ -13828,10 +13828,10 @@
         <v>0.3891200936166497</v>
       </c>
       <c r="S204" t="n">
-        <v>78.26819150967484</v>
+        <v>50</v>
       </c>
       <c r="T204" t="n">
-        <v>0.8038375661195525</v>
+        <v>1.163579075949576</v>
       </c>
     </row>
     <row r="205">
@@ -13894,10 +13894,10 @@
         <v>1.204094006688318</v>
       </c>
       <c r="S205" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T205" t="n">
-        <v>0.634186111031219</v>
+        <v>0.7623504511927537</v>
       </c>
     </row>
     <row r="206">
@@ -13960,10 +13960,10 @@
         <v>0.3601224838145896</v>
       </c>
       <c r="S206" t="n">
-        <v>71.83300003060002</v>
+        <v>47.21319422093271</v>
       </c>
       <c r="T206" t="n">
-        <v>0.6844617150681924</v>
+        <v>0.9316141616520057</v>
       </c>
     </row>
     <row r="207">
@@ -14026,10 +14026,10 @@
         <v>0.4173690932642511</v>
       </c>
       <c r="S207" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T207" t="n">
-        <v>0.5962144951339041</v>
+        <v>0.6814027153018263</v>
       </c>
     </row>
     <row r="208">
@@ -14092,10 +14092,10 @@
         <v>1.053002938435256</v>
       </c>
       <c r="S208" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T208" t="n">
-        <v>0.7083794762151077</v>
+        <v>0.9260073251230321</v>
       </c>
     </row>
     <row r="209">
@@ -14158,10 +14158,10 @@
         <v>0.3833550784422073</v>
       </c>
       <c r="S209" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T209" t="n">
-        <v>0.6011045198026794</v>
+        <v>0.6917204953238016</v>
       </c>
     </row>
     <row r="210">
@@ -14220,10 +14220,10 @@
         <v>0.1851052403138782</v>
       </c>
       <c r="S210" t="n">
-        <v>35.64353887234927</v>
+        <v>24.89237250988094</v>
       </c>
       <c r="T210" t="n">
-        <v>0.4761842381239345</v>
+        <v>0.7012220509183003</v>
       </c>
     </row>
     <row r="211">
@@ -14282,10 +14282,10 @@
         <v>0.1301900502273328</v>
       </c>
       <c r="S211" t="n">
-        <v>31.49993505560784</v>
+        <v>22.23197036673493</v>
       </c>
       <c r="T211" t="n">
-        <v>-0.01166162523779513</v>
+        <v>-0.2192471163320668</v>
       </c>
     </row>
     <row r="212">
@@ -14348,10 +14348,10 @@
         <v>1.235260321269643</v>
       </c>
       <c r="S212" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T212" t="n">
-        <v>0.6996627589860342</v>
+        <v>0.9064032133599302</v>
       </c>
     </row>
     <row r="213">
@@ -14410,10 +14410,10 @@
         <v>0.2049646304582817</v>
       </c>
       <c r="S213" t="n">
-        <v>40.31064321958368</v>
+        <v>27.85669118551423</v>
       </c>
       <c r="T213" t="n">
-        <v>0.3953560859847105</v>
+        <v>0.4843820977523432</v>
       </c>
     </row>
     <row r="214">
@@ -14476,10 +14476,10 @@
         <v>0.01735653161681272</v>
       </c>
       <c r="S214" t="n">
-        <v>19.7078281836968</v>
+        <v>14.47615547305373</v>
       </c>
       <c r="T214" t="n">
-        <v>-0.162081882883519</v>
+        <v>-0.3891671178800463</v>
       </c>
     </row>
     <row r="215">
@@ -14542,10 +14542,10 @@
         <v>0.5528451096579077</v>
       </c>
       <c r="S215" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T215" t="n">
-        <v>0.9409105316852049</v>
+        <v>1.485995149912462</v>
       </c>
     </row>
     <row r="216">
@@ -14608,10 +14608,10 @@
         <v>0.1473843229628695</v>
       </c>
       <c r="S216" t="n">
-        <v>33.18412584982892</v>
+        <v>23.31677368543728</v>
       </c>
       <c r="T216" t="n">
-        <v>0.1585935317991514</v>
+        <v>0.06236571649016609</v>
       </c>
     </row>
     <row r="217">
@@ -14674,10 +14674,10 @@
         <v>0.1631931802715647</v>
       </c>
       <c r="S217" t="n">
-        <v>34.46382812452368</v>
+        <v>24.13782938977024</v>
       </c>
       <c r="T217" t="n">
-        <v>0.30049142978211</v>
+        <v>0.328902545639808</v>
       </c>
     </row>
     <row r="218">
@@ -14740,10 +14740,10 @@
         <v>0.3213285442541014</v>
       </c>
       <c r="S218" t="n">
-        <v>63.64007217436296</v>
+        <v>42.27500480553002</v>
       </c>
       <c r="T218" t="n">
-        <v>0.5247834520547017</v>
+        <v>0.6209437278168357</v>
       </c>
     </row>
     <row r="219">
@@ -14806,10 +14806,10 @@
         <v>0.1647484875184313</v>
       </c>
       <c r="S219" t="n">
-        <v>34.97992298646163</v>
+        <v>24.46819725234422</v>
       </c>
       <c r="T219" t="n">
-        <v>0.2688815052349418</v>
+        <v>0.2614954987503484</v>
       </c>
     </row>
     <row r="220">
@@ -14872,10 +14872,10 @@
         <v>0.105090747373231</v>
       </c>
       <c r="S220" t="n">
-        <v>27.32477606736467</v>
+        <v>19.520337167073</v>
       </c>
       <c r="T220" t="n">
-        <v>0.2023098165173478</v>
+        <v>0.1865475472909994</v>
       </c>
     </row>
     <row r="221">
@@ -14938,10 +14938,10 @@
         <v>0.5045350740336367</v>
       </c>
       <c r="S221" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T221" t="n">
-        <v>0.5275097255816494</v>
+        <v>0.539774815151588</v>
       </c>
     </row>
     <row r="222">
@@ -15004,10 +15004,10 @@
         <v>0.219140064936425</v>
       </c>
       <c r="S222" t="n">
-        <v>42.85515223956077</v>
+        <v>29.45986196444424</v>
       </c>
       <c r="T222" t="n">
-        <v>0.39680021167666</v>
+        <v>0.4698820308228331</v>
       </c>
     </row>
     <row r="223">
@@ -15070,10 +15070,10 @@
         <v>0.2009352750395037</v>
       </c>
       <c r="S223" t="n">
-        <v>40.52696750882459</v>
+        <v>27.99332826827268</v>
       </c>
       <c r="T223" t="n">
-        <v>0.303779774366798</v>
+        <v>0.2945940192566434</v>
       </c>
     </row>
     <row r="224">
@@ -15136,10 +15136,10 @@
         <v>0.2466984246426009</v>
       </c>
       <c r="S224" t="n">
-        <v>47.61348871801651</v>
+        <v>32.4355317175864</v>
       </c>
       <c r="T224" t="n">
-        <v>0.4451265255138297</v>
+        <v>0.5413629963118851</v>
       </c>
     </row>
     <row r="225">
@@ -15202,10 +15202,10 @@
         <v>0.1242310363801222</v>
       </c>
       <c r="S225" t="n">
-        <v>29.76474848232992</v>
+        <v>21.10904165147624</v>
       </c>
       <c r="T225" t="n">
-        <v>0.2021348611704257</v>
+        <v>0.1674596223993459</v>
       </c>
     </row>
     <row r="226">
@@ -15268,10 +15268,10 @@
         <v>0.32950561082091</v>
       </c>
       <c r="S226" t="n">
-        <v>66.35925486969838</v>
+        <v>43.9201762379699</v>
       </c>
       <c r="T226" t="n">
-        <v>0.4682003583144714</v>
+        <v>0.4905459885215109</v>
       </c>
     </row>
     <row r="227">
@@ -15334,10 +15334,10 @@
         <v>0.3218872407207791</v>
       </c>
       <c r="S227" t="n">
-        <v>64.01338960207971</v>
+        <v>42.50125100708896</v>
       </c>
       <c r="T227" t="n">
-        <v>0.5052993899891896</v>
+        <v>0.5779650893663515</v>
       </c>
     </row>
     <row r="228">
@@ -15400,10 +15400,10 @@
         <v>2.784962495990522</v>
       </c>
       <c r="S228" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T228" t="n">
-        <v>0.772710381017701</v>
+        <v>1.073790209053837</v>
       </c>
     </row>
     <row r="229">
@@ -15462,10 +15462,10 @@
         <v>0.05691750579594879</v>
       </c>
       <c r="S229" t="n">
-        <v>22.61467851183785</v>
+        <v>16.4178357291568</v>
       </c>
       <c r="T229" t="n">
-        <v>0.09239614051974532</v>
+        <v>0.01368492787997977</v>
       </c>
     </row>
     <row r="230">
@@ -15528,10 +15528,10 @@
         <v>0.1827439651550178</v>
       </c>
       <c r="S230" t="n">
-        <v>38.85335373001455</v>
+        <v>26.9345123713676</v>
       </c>
       <c r="T230" t="n">
-        <v>0.05384630151135306</v>
+        <v>-0.1472442871397937</v>
       </c>
     </row>
     <row r="231">
@@ -15590,10 +15590,10 @@
         <v>1.027773245982523</v>
       </c>
       <c r="S231" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T231" t="n">
-        <v>0.6553484898155004</v>
+        <v>0.8082901545188472</v>
       </c>
     </row>
     <row r="232">
@@ -15656,10 +15656,10 @@
         <v>0.2878157766276639</v>
       </c>
       <c r="S232" t="n">
-        <v>55.73516016253039</v>
+        <v>37.45423784016301</v>
       </c>
       <c r="T232" t="n">
-        <v>0.5064077258003548</v>
+        <v>0.6239259817186673</v>
       </c>
     </row>
     <row r="233">
@@ -15722,10 +15722,10 @@
         <v>0.2114846790979048</v>
       </c>
       <c r="S233" t="n">
-        <v>42.89013698172306</v>
+        <v>29.48184405592501</v>
       </c>
       <c r="T233" t="n">
-        <v>0.2259422716283848</v>
+        <v>0.1321005203517958</v>
       </c>
     </row>
     <row r="234">
@@ -15788,10 +15788,10 @@
         <v>0.1390427477908447</v>
       </c>
       <c r="S234" t="n">
-        <v>31.25764308468296</v>
+        <v>22.07549918758373</v>
       </c>
       <c r="T234" t="n">
-        <v>0.2661190662953985</v>
+        <v>0.2831722421619352</v>
       </c>
     </row>
     <row r="235">
@@ -15854,10 +15854,10 @@
         <v>122.0917471652101</v>
       </c>
       <c r="S235" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T235" t="n">
-        <v>0.4462033482454875</v>
+        <v>0.3802188970630651</v>
       </c>
     </row>
     <row r="236">
@@ -15920,10 +15920,10 @@
         <v>0.3063505264510984</v>
       </c>
       <c r="S236" t="n">
-        <v>61.24990040878217</v>
+        <v>40.82351578593139</v>
       </c>
       <c r="T236" t="n">
-        <v>0.3940305230168573</v>
+        <v>0.3651110642463262</v>
       </c>
     </row>
     <row r="237">
@@ -15986,10 +15986,10 @@
         <v>0.2882912011512719</v>
       </c>
       <c r="S237" t="n">
-        <v>55.14012529494276</v>
+        <v>37.08891916679123</v>
       </c>
       <c r="T237" t="n">
-        <v>0.5554247707810029</v>
+        <v>0.7349822512356228</v>
       </c>
     </row>
     <row r="238">
@@ -16052,10 +16052,10 @@
         <v>0.5059446212777083</v>
       </c>
       <c r="S238" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T238" t="n">
-        <v>0.6881586828908053</v>
+        <v>0.8806837737336815</v>
       </c>
     </row>
     <row r="239">
@@ -16118,10 +16118,10 @@
         <v>0.3108722575063951</v>
       </c>
       <c r="S239" t="n">
-        <v>62.40321509566026</v>
+        <v>41.52453480551307</v>
       </c>
       <c r="T239" t="n">
-        <v>0.3857546601514037</v>
+        <v>0.3440080397830094</v>
       </c>
     </row>
     <row r="240">
@@ -16184,10 +16184,10 @@
         <v>0.3152690740943445</v>
       </c>
       <c r="S240" t="n">
-        <v>61.17137050687954</v>
+        <v>40.77573892663406</v>
       </c>
       <c r="T240" t="n">
-        <v>0.5905840473023805</v>
+        <v>0.7776501667831379</v>
       </c>
     </row>
     <row r="241">
@@ -16250,10 +16250,10 @@
         <v>0.4211281239217162</v>
       </c>
       <c r="S241" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T241" t="n">
-        <v>0.5931492937075771</v>
+        <v>0.6749513397827134</v>
       </c>
     </row>
     <row r="242">
@@ -16316,10 +16316,10 @@
         <v>0.2803839724637009</v>
       </c>
       <c r="S242" t="n">
-        <v>55.31842462049561</v>
+        <v>37.19842272447443</v>
       </c>
       <c r="T242" t="n">
-        <v>0.3887871915421139</v>
+        <v>0.3822703000665875</v>
       </c>
     </row>
     <row r="243">
@@ -16382,10 +16382,10 @@
         <v>0.187160997954309</v>
       </c>
       <c r="S243" t="n">
-        <v>38.98118211222967</v>
+        <v>27.01552340014829</v>
       </c>
       <c r="T243" t="n">
-        <v>0.1949383815820118</v>
+        <v>0.09568424585308533</v>
       </c>
     </row>
     <row r="244">
@@ -16448,10 +16448,10 @@
         <v>0.4161853895680891</v>
       </c>
       <c r="S244" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T244" t="n">
-        <v>0.5922386263603225</v>
+        <v>0.6730370338845313</v>
       </c>
     </row>
     <row r="245">
@@ -16514,10 +16514,10 @@
         <v>0.1232418037142573</v>
       </c>
       <c r="S245" t="n">
-        <v>29.08244235174834</v>
+        <v>20.66595175532431</v>
       </c>
       <c r="T245" t="n">
-        <v>0.2680859801538644</v>
+        <v>0.3047218460413064</v>
       </c>
     </row>
     <row r="246">
@@ -16580,10 +16580,10 @@
         <v>1.127961487528498</v>
       </c>
       <c r="S246" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T246" t="n">
-        <v>0.4373764603113934</v>
+        <v>0.363422008826469</v>
       </c>
     </row>
     <row r="247">
@@ -16638,7 +16638,7 @@
       <c r="Q247" t="inlineStr"/>
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="n">
-        <v>3.641639100535896</v>
+        <v>3.100882823897812</v>
       </c>
       <c r="T247" t="inlineStr"/>
     </row>
@@ -16702,10 +16702,10 @@
         <v>0.2619383788021106</v>
       </c>
       <c r="S248" t="n">
-        <v>51.80827851355831</v>
+        <v>35.03658801478703</v>
       </c>
       <c r="T248" t="n">
-        <v>0.3336327029296642</v>
+        <v>0.2911692722369277</v>
       </c>
     </row>
     <row r="249">
@@ -16768,10 +16768,10 @@
         <v>0.1812999287578492</v>
       </c>
       <c r="S249" t="n">
-        <v>37.28193845682429</v>
+        <v>25.93668403300418</v>
       </c>
       <c r="T249" t="n">
-        <v>0.3021729766470251</v>
+        <v>0.3124004803453426</v>
       </c>
     </row>
     <row r="250">
@@ -16834,10 +16834,10 @@
         <v>0.1497951705631262</v>
       </c>
       <c r="S250" t="n">
-        <v>33.70665949114824</v>
+        <v>23.65235843881796</v>
       </c>
       <c r="T250" t="n">
-        <v>0.1214512161788077</v>
+        <v>-0.007614685343627858</v>
       </c>
     </row>
     <row r="251">
@@ -16900,10 +16900,10 @@
         <v>0.1148490099104464</v>
       </c>
       <c r="S251" t="n">
-        <v>29.06916504060408</v>
+        <v>20.65732063448807</v>
       </c>
       <c r="T251" t="n">
-        <v>0.1176756328801474</v>
+        <v>0.01365262041426241</v>
       </c>
     </row>
     <row r="252">
@@ -16966,10 +16966,10 @@
         <v>0.2241800239085339</v>
       </c>
       <c r="S252" t="n">
-        <v>45.28751857079556</v>
+        <v>30.98446428031233</v>
       </c>
       <c r="T252" t="n">
-        <v>0.2002646857114692</v>
+        <v>0.07373340698127873</v>
       </c>
     </row>
     <row r="253">
@@ -17032,10 +17032,10 @@
         <v>0.3047188429914773</v>
       </c>
       <c r="S253" t="n">
-        <v>59.40690596543686</v>
+        <v>39.70075036980782</v>
       </c>
       <c r="T253" t="n">
-        <v>0.5319328689122784</v>
+        <v>0.6584914345653043</v>
       </c>
     </row>
     <row r="254">
@@ -17094,10 +17094,10 @@
         <v>0.1447737534671432</v>
       </c>
       <c r="S254" t="n">
-        <v>31.39754102998797</v>
+        <v>22.16585749493623</v>
       </c>
       <c r="T254" t="n">
-        <v>0.3316581812565997</v>
+        <v>0.4182573453712295</v>
       </c>
     </row>
     <row r="255">
@@ -17160,10 +17160,10 @@
         <v>0.06354202963230482</v>
       </c>
       <c r="S255" t="n">
-        <v>22.97823475462873</v>
+        <v>16.65913798890125</v>
       </c>
       <c r="T255" t="n">
-        <v>0.1455090565530068</v>
+        <v>0.1115012340509314</v>
       </c>
     </row>
     <row r="256">
@@ -17226,10 +17226,10 @@
         <v>0.1093745389014511</v>
       </c>
       <c r="S256" t="n">
-        <v>28.68165299928281</v>
+        <v>20.40526210578122</v>
       </c>
       <c r="T256" t="n">
-        <v>0.05041112320991226</v>
+        <v>-0.1024392719618245</v>
       </c>
     </row>
     <row r="257">
@@ -17292,10 +17292,10 @@
         <v>0.06574288679202223</v>
       </c>
       <c r="S257" t="n">
-        <v>22.68994895494773</v>
+        <v>16.46782162466632</v>
       </c>
       <c r="T257" t="n">
-        <v>0.2105063626773009</v>
+        <v>0.2440018553053664</v>
       </c>
     </row>
     <row r="258">
@@ -17358,10 +17358,10 @@
         <v>0.49342353213273</v>
       </c>
       <c r="S258" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T258" t="n">
-        <v>0.9668822139389448</v>
+        <v>1.552971402899324</v>
       </c>
     </row>
     <row r="259">
@@ -17424,10 +17424,10 @@
         <v>0.08341058124424472</v>
       </c>
       <c r="S259" t="n">
-        <v>25.66644987894391</v>
+        <v>18.43366015536711</v>
       </c>
       <c r="T259" t="n">
-        <v>0.04571533828975038</v>
+        <v>-0.09202233779225122</v>
       </c>
     </row>
     <row r="260">
@@ -17490,10 +17490,10 @@
         <v>0.1478170636339005</v>
       </c>
       <c r="S260" t="n">
-        <v>33.427348942451</v>
+        <v>23.47303475683163</v>
       </c>
       <c r="T260" t="n">
-        <v>0.1216597515198741</v>
+        <v>-0.005670374273446299</v>
       </c>
     </row>
     <row r="261">
@@ -17556,10 +17556,10 @@
         <v>0.09357420248425186</v>
       </c>
       <c r="S261" t="n">
-        <v>26.26274462988851</v>
+        <v>18.82507614831146</v>
       </c>
       <c r="T261" t="n">
-        <v>0.1563486872777686</v>
+        <v>0.1056059652136367</v>
       </c>
     </row>
     <row r="262">
@@ -17622,10 +17622,10 @@
         <v>0.09742939752169066</v>
       </c>
       <c r="S262" t="n">
-        <v>26.82286426358426</v>
+        <v>19.19205383377469</v>
       </c>
       <c r="T262" t="n">
-        <v>0.1395354789274676</v>
+        <v>0.06953183081315295</v>
       </c>
     </row>
     <row r="263">
@@ -17688,10 +17688,10 @@
         <v>0.2657652439000366</v>
       </c>
       <c r="S263" t="n">
-        <v>53.21414525566782</v>
+        <v>35.9039862181648</v>
       </c>
       <c r="T263" t="n">
-        <v>0.2325458677203158</v>
+        <v>0.09707240198620548</v>
       </c>
     </row>
     <row r="264">
@@ -17754,10 +17754,10 @@
         <v>0.7208368871272686</v>
       </c>
       <c r="S264" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T264" t="n">
-        <v>0.5973163288324994</v>
+        <v>0.6837247911794162</v>
       </c>
     </row>
     <row r="265">
@@ -17820,10 +17820,10 @@
         <v>0.30895404759983</v>
       </c>
       <c r="S265" t="n">
-        <v>60.15858784810432</v>
+        <v>40.15906205394751</v>
       </c>
       <c r="T265" t="n">
-        <v>0.5527447856355843</v>
+        <v>0.6996509187920925</v>
       </c>
     </row>
     <row r="266">
@@ -17886,10 +17886,10 @@
         <v>0.4067963744612371</v>
       </c>
       <c r="S266" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T266" t="n">
-        <v>0.4604955484637847</v>
+        <v>0.4076339053305063</v>
       </c>
     </row>
     <row r="267">
@@ -17952,10 +17952,10 @@
         <v>0.1984443881986262</v>
       </c>
       <c r="S267" t="n">
-        <v>40.42569483351863</v>
+        <v>27.92936939003992</v>
       </c>
       <c r="T267" t="n">
-        <v>0.2616431660931153</v>
+        <v>0.2128548097958929</v>
       </c>
     </row>
     <row r="268">
@@ -18018,10 +18018,10 @@
         <v>0.1461207644064737</v>
       </c>
       <c r="S268" t="n">
-        <v>32.96659733102562</v>
+        <v>23.17693584882335</v>
       </c>
       <c r="T268" t="n">
-        <v>0.1658886320821811</v>
+        <v>0.07713281774968417</v>
       </c>
     </row>
     <row r="269">
@@ -18084,10 +18084,10 @@
         <v>0.1003084152886888</v>
       </c>
       <c r="S269" t="n">
-        <v>27.31074950413509</v>
+        <v>19.51116994057941</v>
       </c>
       <c r="T269" t="n">
-        <v>0.1133508264823406</v>
+        <v>0.01755442465787183</v>
       </c>
     </row>
     <row r="270">
@@ -18150,10 +18150,10 @@
         <v>0.2296680315148665</v>
       </c>
       <c r="S270" t="n">
-        <v>45.95203661605073</v>
+        <v>31.39969452062279</v>
       </c>
       <c r="T270" t="n">
-        <v>0.262259434046678</v>
+        <v>0.1841447897240773</v>
       </c>
     </row>
     <row r="271">
@@ -18212,10 +18212,10 @@
         <v>1.049242649561214</v>
       </c>
       <c r="S271" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T271" t="n">
-        <v>0.7405332180989759</v>
+        <v>0.9991891046375285</v>
       </c>
     </row>
     <row r="272">
@@ -18278,10 +18278,10 @@
         <v>1.134061527957756</v>
       </c>
       <c r="S272" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T272" t="n">
-        <v>0.6831757285026703</v>
+        <v>0.8695976942217123</v>
       </c>
     </row>
     <row r="273">
@@ -18344,10 +18344,10 @@
         <v>0.3393309003230329</v>
       </c>
       <c r="S273" t="n">
-        <v>67.49807364834891</v>
+        <v>44.60731532388186</v>
       </c>
       <c r="T273" t="n">
-        <v>0.5907580996874471</v>
+        <v>0.7439265886114834</v>
       </c>
     </row>
     <row r="274">
@@ -18410,10 +18410,10 @@
         <v>0.2521342860049032</v>
       </c>
       <c r="S274" t="n">
-        <v>46.69270426959368</v>
+        <v>31.86187415296846</v>
       </c>
       <c r="T274" t="n">
-        <v>0.5749214936012388</v>
+        <v>0.8376759196961376</v>
       </c>
     </row>
     <row r="275">
@@ -18472,10 +18472,10 @@
         <v>0.1848566781853933</v>
       </c>
       <c r="S275" t="n">
-        <v>38.13477132706445</v>
+        <v>26.47867188058888</v>
       </c>
       <c r="T275" t="n">
-        <v>0.2682400575641866</v>
+        <v>0.2394771103654088</v>
       </c>
     </row>
     <row r="276">
@@ -18538,10 +18538,10 @@
         <v>0.4674784834535581</v>
       </c>
       <c r="S276" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T276" t="n">
-        <v>0.4866695167916169</v>
+        <v>0.4585392376504485</v>
       </c>
     </row>
     <row r="277">
@@ -18604,10 +18604,10 @@
         <v>0.7643358244094123</v>
       </c>
       <c r="S277" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T277" t="n">
-        <v>1.063031169974994</v>
+        <v>1.808670696824472</v>
       </c>
     </row>
     <row r="278">
@@ -18666,10 +18666,10 @@
         <v>0.3897783781844086</v>
       </c>
       <c r="S278" t="n">
-        <v>78.58308558795127</v>
+        <v>50</v>
       </c>
       <c r="T278" t="n">
-        <v>0.7997814415149846</v>
+        <v>1.149650736329711</v>
       </c>
     </row>
     <row r="279">
@@ -18732,10 +18732,10 @@
         <v>0.08309771144742495</v>
       </c>
       <c r="S279" t="n">
-        <v>24.93852475806429</v>
+        <v>17.95478391923817</v>
       </c>
       <c r="T279" t="n">
-        <v>0.1724230094267469</v>
+        <v>0.1473377943938532</v>
       </c>
     </row>
     <row r="280">
@@ -18798,10 +18798,10 @@
         <v>-0.004956067430061828</v>
       </c>
       <c r="S280" t="n">
-        <v>17.80818643032944</v>
+        <v>13.19435208980171</v>
       </c>
       <c r="T280" t="n">
-        <v>-0.1343206008106651</v>
+        <v>-0.3369072870103421</v>
       </c>
     </row>
     <row r="281">
@@ -18864,10 +18864,10 @@
         <v>0.3011145823783552</v>
       </c>
       <c r="S281" t="n">
-        <v>57.56478590747959</v>
+        <v>38.57531312887089</v>
       </c>
       <c r="T281" t="n">
-        <v>0.5947968358306324</v>
+        <v>0.8085675361371185</v>
       </c>
     </row>
     <row r="282">
@@ -18930,10 +18930,10 @@
         <v>0.0921707497617279</v>
       </c>
       <c r="S282" t="n">
-        <v>25.86393760734588</v>
+        <v>18.56337903982992</v>
       </c>
       <c r="T282" t="n">
-        <v>0.1894335582844173</v>
+        <v>0.1730602111979704</v>
       </c>
     </row>
     <row r="283">
@@ -18996,10 +18996,10 @@
         <v>0.1831497442455132</v>
       </c>
       <c r="S283" t="n">
-        <v>37.43533281947128</v>
+        <v>26.03424818384276</v>
       </c>
       <c r="T283" t="n">
-        <v>0.318056946531069</v>
+        <v>0.3435502349836415</v>
       </c>
     </row>
     <row r="284">
@@ -19062,10 +19062,10 @@
         <v>0.1128166119212477</v>
       </c>
       <c r="S284" t="n">
-        <v>28.81919472097196</v>
+        <v>20.49475997352233</v>
       </c>
       <c r="T284" t="n">
-        <v>0.1168293934039433</v>
+        <v>0.01375135707925401</v>
       </c>
     </row>
     <row r="285">
@@ -19128,10 +19128,10 @@
         <v>0.8662336856752719</v>
       </c>
       <c r="S285" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T285" t="n">
-        <v>0.6111616573477154</v>
+        <v>0.7130399041838662</v>
       </c>
     </row>
     <row r="286">
@@ -19194,10 +19194,10 @@
         <v>0.2173472389947004</v>
       </c>
       <c r="S286" t="n">
-        <v>43.8909474992229</v>
+        <v>30.11001593110229</v>
       </c>
       <c r="T286" t="n">
-        <v>0.2318586236043005</v>
+        <v>0.1379323391656695</v>
       </c>
     </row>
     <row r="287">
@@ -19260,10 +19260,10 @@
         <v>0.2475525290908227</v>
       </c>
       <c r="S287" t="n">
-        <v>49.58593916195237</v>
+        <v>33.66105695826687</v>
       </c>
       <c r="T287" t="n">
-        <v>0.2228847638651315</v>
+        <v>0.09499957456290375</v>
       </c>
     </row>
     <row r="288">
@@ -19326,10 +19326,10 @@
         <v>0.4360009720809335</v>
       </c>
       <c r="S288" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T288" t="n">
-        <v>0.5892002832406318</v>
+        <v>0.6666580772575004</v>
       </c>
     </row>
     <row r="289">
@@ -19392,10 +19392,10 @@
         <v>0.09383144579973646</v>
       </c>
       <c r="S289" t="n">
-        <v>26.87110193886208</v>
+        <v>19.2236271749573</v>
       </c>
       <c r="T289" t="n">
-        <v>0.04031324838232808</v>
+        <v>-0.1089080678860862</v>
       </c>
     </row>
     <row r="290">
@@ -19458,10 +19458,10 @@
         <v>0.1441246319773362</v>
       </c>
       <c r="S290" t="n">
-        <v>31.93448650618576</v>
+        <v>22.51234108225671</v>
       </c>
       <c r="T290" t="n">
-        <v>0.2705708468703034</v>
+        <v>0.2869872144286727</v>
       </c>
     </row>
     <row r="291">
@@ -19520,10 +19520,10 @@
         <v>3.441456559208483</v>
       </c>
       <c r="S291" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T291" t="n">
-        <v>0.9520248882342188</v>
+        <v>1.51454808565336</v>
       </c>
     </row>
     <row r="292">
@@ -19586,10 +19586,10 @@
         <v>0.4569036809433753</v>
       </c>
       <c r="S292" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T292" t="n">
-        <v>0.2024901679289184</v>
+        <v>-0.04577165712378406</v>
       </c>
     </row>
     <row r="293">
@@ -19648,10 +19648,10 @@
         <v>1.084205156268432</v>
       </c>
       <c r="S293" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T293" t="n">
-        <v>0.7913167242026853</v>
+        <v>1.117551615282689</v>
       </c>
     </row>
     <row r="294">
@@ -19714,10 +19714,10 @@
         <v>0.1743508877245514</v>
       </c>
       <c r="S294" t="n">
-        <v>36.55577220016344</v>
+        <v>25.47433537418325</v>
       </c>
       <c r="T294" t="n">
-        <v>0.2563805110173063</v>
+        <v>0.2263516617632491</v>
       </c>
     </row>
     <row r="295">
@@ -19776,10 +19776,10 @@
         <v>0.338079625893847</v>
       </c>
       <c r="S295" t="n">
-        <v>65.32335128221776</v>
+        <v>43.29418127994936</v>
       </c>
       <c r="T295" t="n">
-        <v>0.6946743283320578</v>
+        <v>0.9920139103189505</v>
       </c>
     </row>
     <row r="296">
@@ -19838,10 +19838,10 @@
         <v>0.05949017412972135</v>
       </c>
       <c r="S296" t="n">
-        <v>22.9926638302917</v>
+        <v>16.66870824808924</v>
       </c>
       <c r="T296" t="n">
-        <v>0.07035253372866079</v>
+        <v>-0.0296731108123649</v>
       </c>
     </row>
     <row r="297">
@@ -19904,10 +19904,10 @@
         <v>0.07286931449383194</v>
       </c>
       <c r="S297" t="n">
-        <v>23.78913324153513</v>
+        <v>17.1961947844642</v>
       </c>
       <c r="T297" t="n">
-        <v>0.1727794900804114</v>
+        <v>0.1578541812555139</v>
       </c>
     </row>
     <row r="298">
@@ -19970,10 +19970,10 @@
         <v>0.2173417917699509</v>
       </c>
       <c r="S298" t="n">
-        <v>41.52709801066278</v>
+        <v>28.62420720576593</v>
       </c>
       <c r="T298" t="n">
-        <v>0.4715910524260138</v>
+        <v>0.641516822759636</v>
       </c>
     </row>
     <row r="299">
@@ -20036,10 +20036,10 @@
         <v>0.08719667141301835</v>
       </c>
       <c r="S299" t="n">
-        <v>25.61814446635015</v>
+        <v>18.40191801172257</v>
       </c>
       <c r="T299" t="n">
-        <v>0.1411336368015379</v>
+        <v>0.08160969333454493</v>
       </c>
     </row>
     <row r="300">
@@ -20102,10 +20102,10 @@
         <v>1.75528317366668</v>
       </c>
       <c r="S300" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T300" t="n">
-        <v>0.8054859914758368</v>
+        <v>1.151183658600052</v>
       </c>
     </row>
     <row r="301">
@@ -20168,10 +20168,10 @@
         <v>0.4130177283273599</v>
       </c>
       <c r="S301" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T301" t="n">
-        <v>0.6564666031464246</v>
+        <v>0.8107338166027696</v>
       </c>
     </row>
     <row r="302">
@@ -20230,10 +20230,10 @@
         <v>0.1824979465831424</v>
       </c>
       <c r="S302" t="n">
-        <v>36.45769191368717</v>
+        <v>25.41182633862118</v>
       </c>
       <c r="T302" t="n">
-        <v>0.3957570695108716</v>
+        <v>0.5143162410491484</v>
       </c>
     </row>
     <row r="303">
@@ -20296,10 +20296,10 @@
         <v>0.1083494994839018</v>
       </c>
       <c r="S303" t="n">
-        <v>28.48991878492761</v>
+        <v>20.28043966843308</v>
       </c>
       <c r="T303" t="n">
-        <v>0.06770599122742182</v>
+        <v>-0.07147998973943459</v>
       </c>
     </row>
     <row r="304">
@@ -20362,10 +20362,10 @@
         <v>0.1565398037273416</v>
       </c>
       <c r="S304" t="n">
-        <v>34.78846486645764</v>
+        <v>24.34568919184622</v>
       </c>
       <c r="T304" t="n">
-        <v>0.09243192500010711</v>
+        <v>-0.06397290360376406</v>
       </c>
     </row>
     <row r="305">
@@ -20428,10 +20428,10 @@
         <v>0.6859611948566371</v>
       </c>
       <c r="S305" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T305" t="n">
-        <v>0.4079858378032162</v>
+        <v>0.308235159397316</v>
       </c>
     </row>
     <row r="306">
@@ -20494,10 +20494,10 @@
         <v>5.001127191788862</v>
       </c>
       <c r="S306" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T306" t="n">
-        <v>0.6181464878694385</v>
+        <v>0.7279251018024517</v>
       </c>
     </row>
     <row r="307">
@@ -20560,10 +20560,10 @@
         <v>1.796764661805128</v>
       </c>
       <c r="S307" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T307" t="n">
-        <v>0.7811099730734505</v>
+        <v>1.093489151365523</v>
       </c>
     </row>
     <row r="308">
@@ -20626,10 +20626,10 @@
         <v>0.1062297065427518</v>
       </c>
       <c r="S308" t="n">
-        <v>27.98611101084219</v>
+        <v>19.95210570692628</v>
       </c>
       <c r="T308" t="n">
-        <v>0.1208960854618237</v>
+        <v>0.02673698533475366</v>
       </c>
     </row>
     <row r="309">
@@ -20692,10 +20692,10 @@
         <v>0.4618781654951101</v>
       </c>
       <c r="S309" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T309" t="n">
-        <v>0.8266457083868162</v>
+        <v>1.201901491028991</v>
       </c>
     </row>
     <row r="310">
@@ -20758,10 +20758,10 @@
         <v>0.1925140634728153</v>
       </c>
       <c r="S310" t="n">
-        <v>40.15907821364315</v>
+        <v>27.76091939347864</v>
       </c>
       <c r="T310" t="n">
-        <v>0.1284404476464751</v>
+        <v>-0.02848420733353485</v>
       </c>
     </row>
     <row r="311">
@@ -20824,10 +20824,10 @@
         <v>0.1195515591823695</v>
       </c>
       <c r="S311" t="n">
-        <v>27.95660911025148</v>
+        <v>19.93286350540788</v>
       </c>
       <c r="T311" t="n">
-        <v>0.3249039089282115</v>
+        <v>0.4347699953795348</v>
       </c>
     </row>
     <row r="312">
@@ -20890,10 +20890,10 @@
         <v>0.1839173344033269</v>
       </c>
       <c r="S312" t="n">
-        <v>38.83924933021467</v>
+        <v>26.92557229135183</v>
       </c>
       <c r="T312" t="n">
-        <v>0.1133922675713055</v>
+        <v>-0.04808765662065029</v>
       </c>
     </row>
     <row r="313">
@@ -20952,10 +20952,10 @@
         <v>0.3889171305197328</v>
       </c>
       <c r="S313" t="n">
-        <v>67.59905811349309</v>
+        <v>44.66819485133565</v>
       </c>
       <c r="T313" t="n">
-        <v>1.062394216803423</v>
+        <v>1.930457698575371</v>
       </c>
     </row>
     <row r="314">
@@ -21018,10 +21018,10 @@
         <v>0.07119315510190027</v>
       </c>
       <c r="S314" t="n">
-        <v>23.79845074457683</v>
+        <v>17.20235661342737</v>
       </c>
       <c r="T314" t="n">
-        <v>0.1458203606999404</v>
+        <v>0.1051562612379049</v>
       </c>
     </row>
     <row r="315">
@@ -21080,10 +21080,10 @@
         <v>0.3664570219461614</v>
       </c>
       <c r="S315" t="n">
-        <v>71.69497756433634</v>
+        <v>47.13045543155167</v>
       </c>
       <c r="T315" t="n">
-        <v>0.778815204590072</v>
+        <v>1.154885431732971</v>
       </c>
     </row>
     <row r="316">
@@ -21146,10 +21146,10 @@
         <v>0.7114554611370336</v>
       </c>
       <c r="S316" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T316" t="n">
-        <v>0.5728557763893272</v>
+        <v>0.6325520895992316</v>
       </c>
     </row>
     <row r="317">
@@ -21212,10 +21212,10 @@
         <v>3.119094051352045</v>
       </c>
       <c r="S317" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T317" t="n">
-        <v>0.9889561075780844</v>
+        <v>1.61059584354321</v>
       </c>
     </row>
     <row r="318">
@@ -21278,10 +21278,10 @@
         <v>0.07914581445493751</v>
       </c>
       <c r="S318" t="n">
-        <v>25.35177922961694</v>
+        <v>18.22679367238167</v>
       </c>
       <c r="T318" t="n">
-        <v>0.001711149736472573</v>
+        <v>-0.1649545310087644</v>
       </c>
     </row>
     <row r="319">
@@ -21344,10 +21344,10 @@
         <v>0.2502279002345724</v>
       </c>
       <c r="S319" t="n">
-        <v>48.8899993901087</v>
+        <v>33.22916548107406</v>
       </c>
       <c r="T319" t="n">
-        <v>0.3941242390679043</v>
+        <v>0.4270785634563043</v>
       </c>
     </row>
     <row r="320">
@@ -21410,10 +21410,10 @@
         <v>0.3691680077530561</v>
       </c>
       <c r="S320" t="n">
-        <v>76.12687839404229</v>
+        <v>49.7798890150083</v>
       </c>
       <c r="T320" t="n">
-        <v>0.5771248276194441</v>
+        <v>0.6740461187700906</v>
       </c>
     </row>
     <row r="321">
@@ -21476,10 +21476,10 @@
         <v>0.6167195507459953</v>
       </c>
       <c r="S321" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T321" t="n">
-        <v>0.8534943316578019</v>
+        <v>1.267105696918973</v>
       </c>
     </row>
     <row r="322">
@@ -21542,10 +21542,10 @@
         <v>0.1370040497562677</v>
       </c>
       <c r="S322" t="n">
-        <v>31.67828250053623</v>
+        <v>22.34707971115414</v>
       </c>
       <c r="T322" t="n">
-        <v>0.1707341783290726</v>
+        <v>0.09434736812754396</v>
       </c>
     </row>
     <row r="323">
@@ -21608,10 +21608,10 @@
         <v>2.178696440333995</v>
       </c>
       <c r="S323" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T323" t="n">
-        <v>0.4235154091280873</v>
+        <v>0.3372530252571377</v>
       </c>
     </row>
     <row r="324">
@@ -21674,10 +21674,10 @@
         <v>0.2033804752354895</v>
       </c>
       <c r="S324" t="n">
-        <v>41.54575205946763</v>
+        <v>28.63596121459893</v>
       </c>
       <c r="T324" t="n">
-        <v>0.2165983256075825</v>
+        <v>0.1218314691610602</v>
       </c>
     </row>
     <row r="325">
@@ -21740,10 +21740,10 @@
         <v>0.1761065618030568</v>
       </c>
       <c r="S325" t="n">
-        <v>34.62648198397789</v>
+        <v>24.24199538631816</v>
       </c>
       <c r="T325" t="n">
-        <v>0.4473094985198482</v>
+        <v>0.6444099826237448</v>
       </c>
     </row>
     <row r="326">
@@ -21806,10 +21806,10 @@
         <v>0.2196743945876736</v>
       </c>
       <c r="S326" t="n">
-        <v>44.00942026338215</v>
+        <v>30.18429183119716</v>
       </c>
       <c r="T326" t="n">
-        <v>0.2790557819842618</v>
+        <v>0.2261556280587635</v>
       </c>
     </row>
     <row r="327">
@@ -21868,10 +21868,10 @@
         <v>0.2670285537441217</v>
       </c>
       <c r="S327" t="n">
-        <v>49.42825129022349</v>
+        <v>33.56324603624607</v>
       </c>
       <c r="T327" t="n">
-        <v>0.601463942185728</v>
+        <v>0.8790924273301675</v>
       </c>
     </row>
     <row r="328">
@@ -21934,10 +21934,10 @@
         <v>0.2115203125012144</v>
       </c>
       <c r="S328" t="n">
-        <v>43.5027588761206</v>
+        <v>29.86651742522249</v>
       </c>
       <c r="T328" t="n">
-        <v>0.08286796706507826</v>
+        <v>-0.1191597778142676</v>
       </c>
     </row>
     <row r="329">
@@ -22000,10 +22000,10 @@
         <v>0.1610571892817763</v>
       </c>
       <c r="S329" t="n">
-        <v>35.11941635811037</v>
+        <v>24.55741775670337</v>
       </c>
       <c r="T329" t="n">
-        <v>0.1649424551582221</v>
+        <v>0.06248211227117917</v>
       </c>
     </row>
     <row r="330">
@@ -22066,10 +22066,10 @@
         <v>0.05280591163844206</v>
       </c>
       <c r="S330" t="n">
-        <v>22.36551464422926</v>
+        <v>16.25226909499102</v>
       </c>
       <c r="T330" t="n">
-        <v>0.0592461350374649</v>
+        <v>-0.04503451214588161</v>
       </c>
     </row>
     <row r="331">
@@ -22132,10 +22132,10 @@
         <v>0.3620581362516155</v>
       </c>
       <c r="S331" t="n">
-        <v>73.76002669826239</v>
+        <v>48.36682292888496</v>
       </c>
       <c r="T331" t="n">
-        <v>0.5992975495785506</v>
+        <v>0.7321819389695534</v>
       </c>
     </row>
     <row r="332">
@@ -22190,7 +22190,7 @@
       <c r="Q332" t="inlineStr"/>
       <c r="R332" t="inlineStr"/>
       <c r="S332" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T332" t="inlineStr"/>
     </row>
@@ -22254,10 +22254,10 @@
         <v>0.1726804327157301</v>
       </c>
       <c r="S333" t="n">
-        <v>36.37700791507034</v>
+        <v>25.36039333098109</v>
       </c>
       <c r="T333" t="n">
-        <v>0.2453821315522393</v>
+        <v>0.2061104127303528</v>
       </c>
     </row>
     <row r="334">
@@ -22316,10 +22316,10 @@
         <v>0.189276230089259</v>
       </c>
       <c r="S334" t="n">
-        <v>38.93233181337055</v>
+        <v>26.98456737523373</v>
       </c>
       <c r="T334" t="n">
-        <v>0.2575229799482377</v>
+        <v>0.2137563464586807</v>
       </c>
     </row>
     <row r="335">
@@ -22382,10 +22382,10 @@
         <v>0.3337443819474573</v>
       </c>
       <c r="S335" t="n">
-        <v>67.06017134400788</v>
+        <v>44.3432230564725</v>
       </c>
       <c r="T335" t="n">
-        <v>0.5074778003263105</v>
+        <v>0.5681162447327022</v>
       </c>
     </row>
     <row r="336">
@@ -22448,10 +22448,10 @@
         <v>0.03580679649309948</v>
       </c>
       <c r="S336" t="n">
-        <v>21.14555907350079</v>
+        <v>15.43933082918276</v>
       </c>
       <c r="T336" t="n">
-        <v>-0.05801317953544916</v>
+        <v>-0.2373019828618005</v>
       </c>
     </row>
     <row r="337">
@@ -22514,10 +22514,10 @@
         <v>0.2345497357075239</v>
       </c>
       <c r="S337" t="n">
-        <v>46.63863941992496</v>
+        <v>31.8281598390896</v>
       </c>
       <c r="T337" t="n">
-        <v>0.2968496160357754</v>
+        <v>0.2463173944673285</v>
       </c>
     </row>
     <row r="338">
@@ -22580,10 +22580,10 @@
         <v>-0.09820112372304624</v>
       </c>
       <c r="S338" t="n">
-        <v>11.77625210434193</v>
+        <v>9.040234347635369</v>
       </c>
       <c r="T338" t="n">
-        <v>-0.2465627296447021</v>
+        <v>-0.4662239363579863</v>
       </c>
     </row>
     <row r="339">
@@ -22646,10 +22646,10 @@
         <v>0.8312439501953686</v>
       </c>
       <c r="S339" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T339" t="n">
-        <v>0.5648382927660356</v>
+        <v>0.6159509492132702</v>
       </c>
     </row>
     <row r="340">
@@ -22708,10 +22708,10 @@
         <v>0.2583298490417532</v>
       </c>
       <c r="S340" t="n">
-        <v>46.64163263432477</v>
+        <v>31.83002647012698</v>
       </c>
       <c r="T340" t="n">
-        <v>0.6379336795686206</v>
+        <v>0.9880925641096734</v>
       </c>
     </row>
     <row r="341">
@@ -22774,10 +22774,10 @@
         <v>0.3435620250222544</v>
       </c>
       <c r="S341" t="n">
-        <v>70.36470920776637</v>
+        <v>46.33224435614961</v>
       </c>
       <c r="T341" t="n">
-        <v>0.4344468906117382</v>
+        <v>0.4064772235570178</v>
       </c>
     </row>
     <row r="342">
@@ -22840,10 +22840,10 @@
         <v>0.1615823726965022</v>
       </c>
       <c r="S342" t="n">
-        <v>34.90526817078</v>
+        <v>24.4204349632615</v>
       </c>
       <c r="T342" t="n">
-        <v>0.2144865853515712</v>
+        <v>0.1561297801904056</v>
       </c>
     </row>
     <row r="343">
@@ -22906,10 +22906,10 @@
         <v>0.06920182319330537</v>
       </c>
       <c r="S343" t="n">
-        <v>24.21014379007698</v>
+        <v>17.47441286596141</v>
       </c>
       <c r="T343" t="n">
-        <v>0.0224579163283547</v>
+        <v>-0.1227129756330287</v>
       </c>
     </row>
     <row r="344">
@@ -22972,10 +22972,10 @@
         <v>0.6390701003026233</v>
       </c>
       <c r="S344" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T344" t="n">
-        <v>0.7560865218113402</v>
+        <v>1.035078017375219</v>
       </c>
     </row>
     <row r="345">
@@ -23038,10 +23038,10 @@
         <v>0.1954015898623775</v>
       </c>
       <c r="S345" t="n">
-        <v>39.98100887235123</v>
+        <v>27.64835899631557</v>
       </c>
       <c r="T345" t="n">
-        <v>0.2521876911261554</v>
+        <v>0.1973062691426339</v>
       </c>
     </row>
     <row r="346">
@@ -23104,10 +23104,10 @@
         <v>0.1957405965415491</v>
       </c>
       <c r="S346" t="n">
-        <v>37.69732360264492</v>
+        <v>26.20080220463375</v>
       </c>
       <c r="T346" t="n">
-        <v>0.4649817545880357</v>
+        <v>0.657548834228852</v>
       </c>
     </row>
     <row r="347">
@@ -23170,10 +23170,10 @@
         <v>0.1698628430401572</v>
       </c>
       <c r="S347" t="n">
-        <v>36.54091281501157</v>
+        <v>25.46486606115328</v>
       </c>
       <c r="T347" t="n">
-        <v>0.1432633945155659</v>
+        <v>0.0155450184867898</v>
       </c>
     </row>
     <row r="348">
@@ -23236,10 +23236,10 @@
         <v>0.978562143788918</v>
       </c>
       <c r="S348" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T348" t="n">
-        <v>0.6393243230778689</v>
+        <v>0.7734502471751126</v>
       </c>
     </row>
     <row r="349">
@@ -23298,10 +23298,10 @@
         <v>0.3170655252467616</v>
       </c>
       <c r="S349" t="n">
-        <v>58.26764565918054</v>
+        <v>39.00510731148997</v>
       </c>
       <c r="T349" t="n">
-        <v>0.7471094672879091</v>
+        <v>1.165348986701357</v>
       </c>
     </row>
     <row r="350">
@@ -23364,10 +23364,10 @@
         <v>0.02555633874738916</v>
       </c>
       <c r="S350" t="n">
-        <v>19.96986578225203</v>
+        <v>14.6521309417504</v>
       </c>
       <c r="T350" t="n">
-        <v>0.01243609257808309</v>
+        <v>-0.1102300420198074</v>
       </c>
     </row>
     <row r="351">
@@ -23430,10 +23430,10 @@
         <v>0.08545903181987935</v>
       </c>
       <c r="S351" t="n">
-        <v>25.44120845273104</v>
+        <v>18.28560720203996</v>
       </c>
       <c r="T351" t="n">
-        <v>0.1375815593233329</v>
+        <v>0.07624610506546459</v>
       </c>
     </row>
     <row r="352">
@@ -23496,10 +23496,10 @@
         <v>0.4669357232582543</v>
       </c>
       <c r="S352" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T352" t="n">
-        <v>0.8227239303899878</v>
+        <v>1.192456748917939</v>
       </c>
     </row>
     <row r="353">
@@ -23562,10 +23562,10 @@
         <v>0.01682790478299689</v>
       </c>
       <c r="S353" t="n">
-        <v>19.12915108949731</v>
+        <v>14.08683390607083</v>
       </c>
       <c r="T353" t="n">
-        <v>0.02694588407825149</v>
+        <v>-0.07784963991142713</v>
       </c>
     </row>
     <row r="354">
@@ -23628,10 +23628,10 @@
         <v>0.1373501116088627</v>
       </c>
       <c r="S354" t="n">
-        <v>31.87040648905106</v>
+        <v>22.47101785085454</v>
       </c>
       <c r="T354" t="n">
-        <v>0.1446684168718775</v>
+        <v>0.04496329735907123</v>
       </c>
     </row>
     <row r="355">
@@ -23694,10 +23694,10 @@
         <v>0.2078620580712225</v>
       </c>
       <c r="S355" t="n">
-        <v>40.72745333629313</v>
+        <v>28.11990361260908</v>
       </c>
       <c r="T355" t="n">
-        <v>0.4035255139005793</v>
+        <v>0.4988225817076635</v>
       </c>
     </row>
     <row r="356">
@@ -23756,10 +23756,10 @@
         <v>0.09419429999988727</v>
       </c>
       <c r="S356" t="n">
-        <v>26.07977540019208</v>
+        <v>18.70505428311679</v>
       </c>
       <c r="T356" t="n">
-        <v>0.1925404160699093</v>
+        <v>0.1774041183651827</v>
       </c>
     </row>
     <row r="357">
@@ -23818,10 +23818,10 @@
         <v>0.1580318383217736</v>
       </c>
       <c r="S357" t="n">
-        <v>33.09864408130603</v>
+        <v>23.26183142440748</v>
       </c>
       <c r="T357" t="n">
-        <v>0.3541463475269164</v>
+        <v>0.4519650671883138</v>
       </c>
     </row>
     <row r="358">
@@ -23884,10 +23884,10 @@
         <v>0.1516262548450071</v>
       </c>
       <c r="S358" t="n">
-        <v>33.78596609873861</v>
+        <v>23.70325141603107</v>
       </c>
       <c r="T358" t="n">
-        <v>0.1584667282398582</v>
+        <v>0.05850302292913301</v>
       </c>
     </row>
     <row r="359">
@@ -23950,10 +23950,10 @@
         <v>0.07083176543337077</v>
       </c>
       <c r="S359" t="n">
-        <v>24.77943557297744</v>
+        <v>17.84996703448348</v>
       </c>
       <c r="T359" t="n">
-        <v>-0.1388234700554229</v>
+        <v>-0.3802579245984452</v>
       </c>
     </row>
     <row r="360">
@@ -24016,10 +24016,10 @@
         <v>0.1586229619170998</v>
       </c>
       <c r="S360" t="n">
-        <v>34.78130291226103</v>
+        <v>24.34110533952313</v>
       </c>
       <c r="T360" t="n">
-        <v>0.1613139506729324</v>
+        <v>0.05783040342987422</v>
       </c>
     </row>
     <row r="361">
@@ -24082,10 +24082,10 @@
         <v>0.1384949135705285</v>
       </c>
       <c r="S361" t="n">
-        <v>31.91810552137758</v>
+        <v>22.50177817462755</v>
       </c>
       <c r="T361" t="n">
-        <v>0.1644849570004616</v>
+        <v>0.08115116924976418</v>
       </c>
     </row>
     <row r="362">
@@ -24148,10 +24148,10 @@
         <v>0.124889031801015</v>
       </c>
       <c r="S362" t="n">
-        <v>29.98948359656639</v>
+        <v>21.2547918945377</v>
       </c>
       <c r="T362" t="n">
-        <v>0.1818770846084843</v>
+        <v>0.1268528864923282</v>
       </c>
     </row>
     <row r="363">
@@ -24214,10 +24214,10 @@
         <v>0.2689357788572631</v>
       </c>
       <c r="S363" t="n">
-        <v>52.55854446604998</v>
+        <v>35.49975284677932</v>
       </c>
       <c r="T363" t="n">
-        <v>0.4172492154438541</v>
+        <v>0.4540460232607757</v>
       </c>
     </row>
     <row r="364">
@@ -24280,10 +24280,10 @@
         <v>0.265717071378152</v>
       </c>
       <c r="S364" t="n">
-        <v>52.48848401661645</v>
+        <v>35.45652765988322</v>
       </c>
       <c r="T364" t="n">
-        <v>0.3480136428998974</v>
+        <v>0.3157941393835488</v>
       </c>
     </row>
     <row r="365">
@@ -24346,10 +24346,10 @@
         <v>0.3417235095812114</v>
       </c>
       <c r="S365" t="n">
-        <v>69.19324091283099</v>
+        <v>45.62814978364817</v>
       </c>
       <c r="T365" t="n">
-        <v>0.5069096304338743</v>
+        <v>0.5573046650636346</v>
       </c>
     </row>
     <row r="366">
@@ -24412,10 +24412,10 @@
         <v>0.3980719487069881</v>
       </c>
       <c r="S366" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T366" t="n">
-        <v>0.6536289692662836</v>
+        <v>0.8045353232762347</v>
       </c>
     </row>
     <row r="367">
@@ -24478,10 +24478,10 @@
         <v>0.4366846723999003</v>
       </c>
       <c r="S367" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T367" t="n">
-        <v>0.8318223287743827</v>
+        <v>1.214399327199338</v>
       </c>
     </row>
     <row r="368">
@@ -24544,10 +24544,10 @@
         <v>2.439366001939365</v>
       </c>
       <c r="S368" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T368" t="n">
-        <v>0.542572876797405</v>
+        <v>0.5702927499154979</v>
       </c>
     </row>
     <row r="369">
@@ -24610,10 +24610,10 @@
         <v>-0.05843768625775692</v>
       </c>
       <c r="S369" t="n">
-        <v>13.90314071384685</v>
+        <v>10.52156598185546</v>
       </c>
       <c r="T369" t="n">
-        <v>-0.1125582075755376</v>
+        <v>-0.2760302262250205</v>
       </c>
     </row>
     <row r="370">
@@ -24676,10 +24676,10 @@
         <v>0.119689133111899</v>
       </c>
       <c r="S370" t="n">
-        <v>27.39231459698799</v>
+        <v>19.56447212309197</v>
       </c>
       <c r="T370" t="n">
-        <v>0.366528509591461</v>
+        <v>0.5321156212309983</v>
       </c>
     </row>
     <row r="371">
@@ -24742,10 +24742,10 @@
         <v>0.0706640270343224</v>
       </c>
       <c r="S371" t="n">
-        <v>24.28365347628901</v>
+        <v>17.52294815426583</v>
       </c>
       <c r="T371" t="n">
-        <v>0.04358897632139569</v>
+        <v>-0.08657605140297109</v>
       </c>
     </row>
     <row r="372">
@@ -24808,10 +24808,10 @@
         <v>2.504728901663552</v>
       </c>
       <c r="S372" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T372" t="n">
-        <v>0.3323686692116394</v>
+        <v>0.1714886011108823</v>
       </c>
     </row>
     <row r="373">
@@ -24874,10 +24874,10 @@
         <v>0.3618526866173377</v>
       </c>
       <c r="S373" t="n">
-        <v>75.45150234954764</v>
+        <v>49.37710141247088</v>
       </c>
       <c r="T373" t="n">
-        <v>0.4293408825861316</v>
+        <v>0.3774268692566205</v>
       </c>
     </row>
     <row r="374">
@@ -24940,10 +24940,10 @@
         <v>0.02916156014993909</v>
       </c>
       <c r="S374" t="n">
-        <v>20.7813054578905</v>
+        <v>15.19584479798063</v>
       </c>
       <c r="T374" t="n">
-        <v>-0.1842050699875487</v>
+        <v>-0.4262362334566265</v>
       </c>
     </row>
     <row r="375">
@@ -25006,10 +25006,10 @@
         <v>0.2100475946438976</v>
       </c>
       <c r="S375" t="n">
-        <v>42.07156667733643</v>
+        <v>28.96708765617645</v>
       </c>
       <c r="T375" t="n">
-        <v>0.3083218893720596</v>
+        <v>0.2942000154369575</v>
       </c>
     </row>
     <row r="376">
@@ -25072,10 +25072,10 @@
         <v>0.2655245810551248</v>
       </c>
       <c r="S376" t="n">
-        <v>50.78806234596796</v>
+        <v>34.40579567527642</v>
       </c>
       <c r="T376" t="n">
-        <v>0.5033316957331717</v>
+        <v>0.647077492714164</v>
       </c>
     </row>
     <row r="377">
@@ -25138,10 +25138,10 @@
         <v>0.05173055952695038</v>
       </c>
       <c r="S377" t="n">
-        <v>22.25976358765023</v>
+        <v>16.18195153155386</v>
       </c>
       <c r="T377" t="n">
-        <v>0.0588014284610392</v>
+        <v>-0.0450375299525736</v>
       </c>
     </row>
     <row r="378">
@@ -25204,10 +25204,10 @@
         <v>0.4755355390292928</v>
       </c>
       <c r="S378" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T378" t="n">
-        <v>0.8547112732010613</v>
+        <v>1.270083683708609</v>
       </c>
     </row>
     <row r="379">
@@ -25270,10 +25270,10 @@
         <v>0.06392314213929717</v>
       </c>
       <c r="S379" t="n">
-        <v>23.31469481874703</v>
+        <v>16.88216719139091</v>
       </c>
       <c r="T379" t="n">
-        <v>0.09741347260109467</v>
+        <v>0.01748521867663944</v>
       </c>
     </row>
     <row r="380">
@@ -25336,10 +25336,10 @@
         <v>0.1007011608763038</v>
       </c>
       <c r="S380" t="n">
-        <v>27.24330021298564</v>
+        <v>19.46708201110071</v>
       </c>
       <c r="T380" t="n">
-        <v>0.1344072486827148</v>
+        <v>0.05689050184116251</v>
       </c>
     </row>
     <row r="381">
@@ -25402,10 +25402,10 @@
         <v>0.1925949658146409</v>
       </c>
       <c r="S381" t="n">
-        <v>38.39205786092417</v>
+        <v>26.64197067663834</v>
       </c>
       <c r="T381" t="n">
-        <v>0.376265606460519</v>
+        <v>0.4577279481802956</v>
       </c>
     </row>
     <row r="382">
@@ -25468,10 +25468,10 @@
         <v>0.1717830548691357</v>
       </c>
       <c r="S382" t="n">
-        <v>35.45542390314759</v>
+        <v>24.772202460905</v>
       </c>
       <c r="T382" t="n">
-        <v>0.3341779190148828</v>
+        <v>0.3910667115704607</v>
       </c>
     </row>
     <row r="383">
@@ -25530,10 +25530,10 @@
         <v>0.1739123270048302</v>
       </c>
       <c r="S383" t="n">
-        <v>35.4996309387954</v>
+        <v>24.80044744218443</v>
       </c>
       <c r="T383" t="n">
-        <v>0.3604645566430547</v>
+        <v>0.4460762653974903</v>
       </c>
     </row>
     <row r="384">
@@ -25596,10 +25596,10 @@
         <v>0.4241521966998696</v>
       </c>
       <c r="S384" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T384" t="n">
-        <v>0.8114113207953475</v>
+        <v>1.165326540517629</v>
       </c>
     </row>
     <row r="385">
@@ -25662,10 +25662,10 @@
         <v>0.1295145948794099</v>
       </c>
       <c r="S385" t="n">
-        <v>30.60063528587546</v>
+        <v>21.65067460303283</v>
       </c>
       <c r="T385" t="n">
-        <v>0.1819159654157159</v>
+        <v>0.1226610305227427</v>
       </c>
     </row>
     <row r="386">
@@ -25724,10 +25724,10 @@
         <v>0.1584839424050601</v>
       </c>
       <c r="S386" t="n">
-        <v>32.18902957130961</v>
+        <v>22.67641712632182</v>
       </c>
       <c r="T386" t="n">
-        <v>0.4227944352054447</v>
+        <v>0.6114153144874876</v>
       </c>
     </row>
     <row r="387">
@@ -25786,10 +25786,10 @@
         <v>1.167162578866114</v>
       </c>
       <c r="S387" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T387" t="n">
-        <v>0.9256352608064873</v>
+        <v>1.447018785936994</v>
       </c>
     </row>
     <row r="388">
@@ -25852,10 +25852,10 @@
         <v>-0.01268438178371112</v>
       </c>
       <c r="S388" t="n">
-        <v>16.54962648689497</v>
+        <v>12.3388596620835</v>
       </c>
       <c r="T388" t="n">
-        <v>0.04960642354414269</v>
+        <v>-0.01363868934246104</v>
       </c>
     </row>
     <row r="389">
@@ -25918,10 +25918,10 @@
         <v>0.2758738267428185</v>
       </c>
       <c r="S389" t="n">
-        <v>54.97979418884622</v>
+        <v>36.99042331057911</v>
       </c>
       <c r="T389" t="n">
-        <v>0.3007810708792606</v>
+        <v>0.21409832880637</v>
       </c>
     </row>
     <row r="390">
@@ -25976,7 +25976,7 @@
       <c r="Q390" t="inlineStr"/>
       <c r="R390" t="inlineStr"/>
       <c r="S390" t="n">
-        <v>-84722.62375332956</v>
+        <v>-84722.62375333672</v>
       </c>
       <c r="T390" t="inlineStr"/>
     </row>
@@ -26040,10 +26040,10 @@
         <v>0.1052644421256421</v>
       </c>
       <c r="S391" t="n">
-        <v>27.7693747334562</v>
+        <v>19.81070173583574</v>
       </c>
       <c r="T391" t="n">
-        <v>0.13894023611955</v>
+        <v>0.0615897497552782</v>
       </c>
     </row>
     <row r="392">
@@ -26102,10 +26102,10 @@
         <v>0.2425699439164877</v>
       </c>
       <c r="S392" t="n">
-        <v>45.81105674626929</v>
+        <v>31.31164715085188</v>
       </c>
       <c r="T392" t="n">
-        <v>0.5130323220969037</v>
+        <v>0.7024114034659164</v>
       </c>
     </row>
     <row r="393">
@@ -26168,10 +26168,10 @@
         <v>0.1054839103175662</v>
       </c>
       <c r="S393" t="n">
-        <v>27.96027855545849</v>
+        <v>19.93525694466936</v>
       </c>
       <c r="T393" t="n">
-        <v>0.1081547697641654</v>
+        <v>0.003699676781868444</v>
       </c>
     </row>
     <row r="394">
@@ -26234,10 +26234,10 @@
         <v>4.48733661075522</v>
       </c>
       <c r="S394" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T394" t="n">
-        <v>0.4897307690255572</v>
+        <v>0.4645520783277626</v>
       </c>
     </row>
     <row r="395">
@@ -26300,10 +26300,10 @@
         <v>0.327734625492434</v>
       </c>
       <c r="S395" t="n">
-        <v>66.76849009179638</v>
+        <v>44.1672254519515</v>
       </c>
       <c r="T395" t="n">
-        <v>0.3602646394177338</v>
+        <v>0.2778971702039086</v>
       </c>
     </row>
     <row r="396">
@@ -26362,10 +26362,10 @@
         <v>0.08154031793395489</v>
       </c>
       <c r="S396" t="n">
-        <v>24.43947833496869</v>
+        <v>17.62579130353318</v>
       </c>
       <c r="T396" t="n">
-        <v>0.21226747284561</v>
+        <v>0.2311442056537574</v>
       </c>
     </row>
     <row r="397">
@@ -26428,10 +26428,10 @@
         <v>0.6157178235159151</v>
       </c>
       <c r="S397" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T397" t="n">
-        <v>1.233834660230386</v>
+        <v>2.292996690127777</v>
       </c>
     </row>
     <row r="398">
@@ -26494,10 +26494,10 @@
         <v>1.565914281418139</v>
       </c>
       <c r="S398" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T398" t="n">
-        <v>0.9682861183036513</v>
+        <v>1.556617179747676</v>
       </c>
     </row>
     <row r="399">
@@ -26560,10 +26560,10 @@
         <v>0.2156362050960607</v>
       </c>
       <c r="S399" t="n">
-        <v>41.34134593402792</v>
+        <v>28.50713829174316</v>
       </c>
       <c r="T399" t="n">
-        <v>0.462848237252806</v>
+        <v>0.6234824046426004</v>
       </c>
     </row>
     <row r="400">
@@ -26626,10 +26626,10 @@
         <v>0.09069187700192605</v>
       </c>
       <c r="S400" t="n">
-        <v>26.15407619625823</v>
+        <v>18.75380184903916</v>
       </c>
       <c r="T400" t="n">
-        <v>0.1183060243666643</v>
+        <v>0.03484253260380576</v>
       </c>
     </row>
     <row r="401">
@@ -26692,10 +26692,10 @@
         <v>0.3401998479419335</v>
       </c>
       <c r="S401" t="n">
-        <v>66.4688694769153</v>
+        <v>43.98636280536022</v>
       </c>
       <c r="T401" t="n">
-        <v>0.6669260548707558</v>
+        <v>0.9207298632715222</v>
       </c>
     </row>
     <row r="402">
@@ -26758,10 +26758,10 @@
         <v>47.55145639119227</v>
       </c>
       <c r="S402" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T402" t="n">
-        <v>1.010083970399219</v>
+        <v>1.666352993795896</v>
       </c>
     </row>
     <row r="403">
@@ -26824,10 +26824,10 @@
         <v>0.4643184953602617</v>
       </c>
       <c r="S403" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T403" t="n">
-        <v>0.3814487171604666</v>
+        <v>0.2593857610373118</v>
       </c>
     </row>
     <row r="404">
@@ -26890,10 +26890,10 @@
         <v>0.4772160587114547</v>
       </c>
       <c r="S404" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T404" t="n">
-        <v>0.6125700094941793</v>
+        <v>0.716036025463979</v>
       </c>
     </row>
     <row r="405">
@@ -26956,10 +26956,10 @@
         <v>0.01530153423969649</v>
       </c>
       <c r="S405" t="n">
-        <v>19.46965524519494</v>
+        <v>14.31603585030005</v>
       </c>
       <c r="T405" t="n">
-        <v>-0.1270847763101058</v>
+        <v>-0.33570868214587</v>
       </c>
     </row>
     <row r="406">
@@ -27022,10 +27022,10 @@
         <v>-0.05003155040566054</v>
       </c>
       <c r="S406" t="n">
-        <v>14.20353630579561</v>
+        <v>10.72920032323631</v>
       </c>
       <c r="T406" t="n">
-        <v>-0.03377681140587585</v>
+        <v>-0.1444420341348377</v>
       </c>
     </row>
     <row r="407">
@@ -27088,10 +27088,10 @@
         <v>0.1175474674935766</v>
       </c>
       <c r="S407" t="n">
-        <v>29.32064278695829</v>
+        <v>20.82074006118673</v>
       </c>
       <c r="T407" t="n">
-        <v>0.1348657615128428</v>
+        <v>0.04339135167187136</v>
       </c>
     </row>
     <row r="408">
@@ -27150,10 +27150,10 @@
         <v>0.1789535092189909</v>
       </c>
       <c r="S408" t="n">
-        <v>35.45356188682382</v>
+        <v>24.7710127044289</v>
       </c>
       <c r="T408" t="n">
-        <v>0.4252019802245166</v>
+        <v>0.5873681656685532</v>
       </c>
     </row>
     <row r="409">
@@ -27216,10 +27216,10 @@
         <v>0.09972315758088324</v>
       </c>
       <c r="S409" t="n">
-        <v>27.28172899868378</v>
+        <v>19.49220196262134</v>
       </c>
       <c r="T409" t="n">
-        <v>0.1053245979069644</v>
+        <v>0.003133129337590912</v>
       </c>
     </row>
     <row r="410">
@@ -27282,10 +27282,10 @@
         <v>0.1255132607689382</v>
       </c>
       <c r="S410" t="n">
-        <v>29.55321131916491</v>
+        <v>20.97176400273846</v>
       </c>
       <c r="T410" t="n">
-        <v>0.2499500816520377</v>
+        <v>0.2638668249716158</v>
       </c>
     </row>
     <row r="411">
@@ -27348,10 +27348,10 @@
         <v>0.1430541794805555</v>
       </c>
       <c r="S411" t="n">
-        <v>31.51895191088423</v>
+        <v>22.24424694846588</v>
       </c>
       <c r="T411" t="n">
-        <v>0.2979859066007822</v>
+        <v>0.346457609485803</v>
       </c>
     </row>
     <row r="412">
@@ -27414,10 +27414,10 @@
         <v>0.2733573823319313</v>
       </c>
       <c r="S412" t="n">
-        <v>49.71971148169411</v>
+        <v>33.74401148384689</v>
       </c>
       <c r="T412" t="n">
-        <v>0.6529747528608527</v>
+        <v>0.9996138386600923</v>
       </c>
     </row>
     <row r="413">
@@ -27480,10 +27480,10 @@
         <v>0.1391340516447876</v>
       </c>
       <c r="S413" t="n">
-        <v>31.74014550821801</v>
+        <v>22.38699430258981</v>
       </c>
       <c r="T413" t="n">
-        <v>0.2067398161662228</v>
+        <v>0.1622661301254444</v>
       </c>
     </row>
     <row r="414">
@@ -27546,10 +27546,10 @@
         <v>0.593098738708751</v>
       </c>
       <c r="S414" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T414" t="n">
-        <v>0.6829340762849194</v>
+        <v>0.869060899412093</v>
       </c>
     </row>
     <row r="415">
@@ -27612,10 +27612,10 @@
         <v>0.3003705916564487</v>
       </c>
       <c r="S415" t="n">
-        <v>58.99118858753745</v>
+        <v>39.44705263394154</v>
       </c>
       <c r="T415" t="n">
-        <v>0.4809129830909455</v>
+        <v>0.5520035235878682</v>
       </c>
     </row>
     <row r="416">
@@ -27678,10 +27678,10 @@
         <v>0.1414760678983091</v>
       </c>
       <c r="S416" t="n">
-        <v>31.89396066462508</v>
+        <v>22.48620805156057</v>
       </c>
       <c r="T416" t="n">
-        <v>0.23039548075387</v>
+        <v>0.2071753058526142</v>
       </c>
     </row>
     <row r="417">
@@ -27744,10 +27744,10 @@
         <v>0.5663506115196448</v>
       </c>
       <c r="S417" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T417" t="n">
-        <v>0.6794260606199898</v>
+        <v>0.861277039772478</v>
       </c>
     </row>
     <row r="418">
@@ -27810,10 +27810,10 @@
         <v>0.1818692954855117</v>
       </c>
       <c r="S418" t="n">
-        <v>37.88513307422858</v>
+        <v>26.32013461232761</v>
       </c>
       <c r="T418" t="n">
-        <v>0.23601934474957</v>
+        <v>0.1787896501561239</v>
       </c>
     </row>
     <row r="419">
@@ -27876,10 +27876,10 @@
         <v>0.7599725231571997</v>
       </c>
       <c r="S419" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T419" t="n">
-        <v>0.9514925215068883</v>
+        <v>1.513176710524254</v>
       </c>
     </row>
     <row r="420">
@@ -27942,10 +27942,10 @@
         <v>0.164292064388176</v>
       </c>
       <c r="S420" t="n">
-        <v>33.678187915898</v>
+        <v>23.63408499109542</v>
       </c>
       <c r="T420" t="n">
-        <v>0.3841536700697445</v>
+        <v>0.5120220671377691</v>
       </c>
     </row>
     <row r="421">
@@ -28008,10 +28008,10 @@
         <v>0.0515794449920306</v>
       </c>
       <c r="S421" t="n">
-        <v>21.7161036644406</v>
+        <v>15.82000332896895</v>
       </c>
       <c r="T421" t="n">
-        <v>0.1480397323888529</v>
+        <v>0.1276103180612524</v>
       </c>
     </row>
     <row r="422">
@@ -28074,10 +28074,10 @@
         <v>0.2253285133549834</v>
       </c>
       <c r="S422" t="n">
-        <v>45.20322448534014</v>
+        <v>30.93175351210158</v>
       </c>
       <c r="T422" t="n">
-        <v>0.2537945950816125</v>
+        <v>0.1720686953762052</v>
       </c>
     </row>
     <row r="423">
@@ -28140,10 +28140,10 @@
         <v>0.02198369353230345</v>
       </c>
       <c r="S423" t="n">
-        <v>19.40225153544428</v>
+        <v>14.27069164869004</v>
       </c>
       <c r="T423" t="n">
-        <v>0.06469395407931988</v>
+        <v>-0.01117679775285429</v>
       </c>
     </row>
     <row r="424">
@@ -28206,10 +28206,10 @@
         <v>0.1469400957886466</v>
       </c>
       <c r="S424" t="n">
-        <v>30.57808894467006</v>
+        <v>21.63608210055486</v>
       </c>
       <c r="T424" t="n">
-        <v>0.4127191045138701</v>
+        <v>0.6041587714131729</v>
       </c>
     </row>
     <row r="425">
@@ -28272,10 +28272,10 @@
         <v>0.01651741939985696</v>
       </c>
       <c r="S425" t="n">
-        <v>19.2238948461959</v>
+        <v>14.15064250262598</v>
       </c>
       <c r="T425" t="n">
-        <v>-0.002240125098488588</v>
+        <v>-0.13024350776992</v>
       </c>
     </row>
     <row r="426">
@@ -28338,10 +28338,10 @@
         <v>4.591728502842705</v>
       </c>
       <c r="S426" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T426" t="n">
-        <v>0.7245798199277387</v>
+        <v>0.9627086825078111</v>
       </c>
     </row>
     <row r="427">
@@ -28404,10 +28404,10 @@
         <v>0.1235182536590007</v>
       </c>
       <c r="S427" t="n">
-        <v>29.84132467235953</v>
+        <v>21.15871519550922</v>
       </c>
       <c r="T427" t="n">
-        <v>0.17704744662929</v>
+        <v>0.1187013175817466</v>
       </c>
     </row>
     <row r="428">
@@ -28470,10 +28470,10 @@
         <v>0.08464113685032548</v>
       </c>
       <c r="S428" t="n">
-        <v>25.4292116300855</v>
+        <v>18.27771846442407</v>
       </c>
       <c r="T428" t="n">
-        <v>0.123951743371667</v>
+        <v>0.05070104935919528</v>
       </c>
     </row>
     <row r="429">
@@ -28532,10 +28532,10 @@
         <v>0.4143001584827135</v>
       </c>
       <c r="S429" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T429" t="n">
-        <v>0.3720180545034146</v>
+        <v>0.242249688426077</v>
       </c>
     </row>
     <row r="430">
@@ -28598,10 +28598,10 @@
         <v>0.4373514305653634</v>
       </c>
       <c r="S430" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T430" t="n">
-        <v>0.7087661992486431</v>
+        <v>0.9268793979954573</v>
       </c>
     </row>
     <row r="431">
@@ -28664,10 +28664,10 @@
         <v>1.576013316712576</v>
       </c>
       <c r="S431" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T431" t="n">
-        <v>0.6205293425773644</v>
+        <v>0.7330178744244911</v>
       </c>
     </row>
     <row r="432">
@@ -28730,10 +28730,10 @@
         <v>0.1186297591892598</v>
       </c>
       <c r="S432" t="n">
-        <v>29.55003802748062</v>
+        <v>20.96970404170577</v>
       </c>
       <c r="T432" t="n">
-        <v>0.1170091984878052</v>
+        <v>0.009341684712618203</v>
       </c>
     </row>
     <row r="433">
@@ -28796,10 +28796,10 @@
         <v>0.04004395946568251</v>
       </c>
       <c r="S433" t="n">
-        <v>20.59942209476458</v>
+        <v>15.07413001595247</v>
       </c>
       <c r="T433" t="n">
-        <v>0.1431980710003584</v>
+        <v>0.1284262815077384</v>
       </c>
     </row>
     <row r="434">
@@ -28862,10 +28862,10 @@
         <v>0.2826537465098102</v>
       </c>
       <c r="S434" t="n">
-        <v>53.08757068869356</v>
+        <v>35.82597770142813</v>
       </c>
       <c r="T434" t="n">
-        <v>0.5978172093743055</v>
+        <v>0.8445324518489248</v>
       </c>
     </row>
     <row r="435">
@@ -28928,10 +28928,10 @@
         <v>0.2606352888056069</v>
       </c>
       <c r="S435" t="n">
-        <v>51.49106035595634</v>
+        <v>34.84057587425683</v>
       </c>
       <c r="T435" t="n">
-        <v>0.3398969726108525</v>
+        <v>0.3048982660034221</v>
       </c>
     </row>
     <row r="436">
@@ -28994,10 +28994,10 @@
         <v>0.2288304440125175</v>
       </c>
       <c r="S436" t="n">
-        <v>44.62119078637263</v>
+        <v>30.56755534484608</v>
       </c>
       <c r="T436" t="n">
-        <v>0.4011502694138405</v>
+        <v>0.4674640547855318</v>
       </c>
     </row>
     <row r="437">
@@ -29056,10 +29056,10 @@
         <v>0.1891497010172403</v>
       </c>
       <c r="S437" t="n">
-        <v>35.83800305449604</v>
+        <v>25.01654012585109</v>
       </c>
       <c r="T437" t="n">
-        <v>0.5028283272600049</v>
+        <v>0.7613487739417715</v>
       </c>
     </row>
     <row r="438">
@@ -29122,10 +29122,10 @@
         <v>0.2723063172688971</v>
       </c>
       <c r="S438" t="n">
-        <v>50.09775712492509</v>
+        <v>33.97833535331708</v>
       </c>
       <c r="T438" t="n">
-        <v>0.6263579711271976</v>
+        <v>0.9328648371830144</v>
       </c>
     </row>
     <row r="439">
@@ -29188,10 +29188,10 @@
         <v>0.6103905709642614</v>
       </c>
       <c r="S439" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T439" t="n">
-        <v>0.4433756808416085</v>
+        <v>0.3748268689715686</v>
       </c>
     </row>
     <row r="440">
@@ -29250,10 +29250,10 @@
         <v>0.2432122063780757</v>
       </c>
       <c r="S440" t="n">
-        <v>44.45871381453795</v>
+        <v>30.46581240281989</v>
       </c>
       <c r="T440" t="n">
-        <v>0.5907091235826272</v>
+        <v>0.8927290918982909</v>
       </c>
     </row>
     <row r="441">
@@ -29316,10 +29316,10 @@
         <v>0.1817183671822622</v>
       </c>
       <c r="S441" t="n">
-        <v>37.71762111895412</v>
+        <v>26.21370157749518</v>
       </c>
       <c r="T441" t="n">
-        <v>0.2565445881348531</v>
+        <v>0.2193058147695861</v>
       </c>
     </row>
     <row r="442">
@@ -29382,10 +29382,10 @@
         <v>0.1478492846412989</v>
       </c>
       <c r="S442" t="n">
-        <v>31.61140455466182</v>
+        <v>22.30392182594564</v>
       </c>
       <c r="T442" t="n">
-        <v>0.3510453602471451</v>
+        <v>0.4579816932414134</v>
       </c>
     </row>
     <row r="443">
@@ -29448,10 +29448,10 @@
         <v>0.7062468221125306</v>
       </c>
       <c r="S443" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T443" t="n">
-        <v>0.6859688592171385</v>
+        <v>0.8758078165288861</v>
       </c>
     </row>
     <row r="444">
@@ -29514,10 +29514,10 @@
         <v>0.08040670551806728</v>
       </c>
       <c r="S444" t="n">
-        <v>25.39203724913126</v>
+        <v>18.25327172819533</v>
       </c>
       <c r="T444" t="n">
-        <v>0.03029540967918765</v>
+        <v>-0.1168730762651672</v>
       </c>
     </row>
     <row r="445">
@@ -29580,10 +29580,10 @@
         <v>1.446499273915405</v>
       </c>
       <c r="S445" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T445" t="n">
-        <v>0.3696599261761957</v>
+        <v>0.237983174934953</v>
       </c>
     </row>
     <row r="446">
@@ -29638,7 +29638,7 @@
       <c r="Q446" t="inlineStr"/>
       <c r="R446" t="inlineStr"/>
       <c r="S446" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T446" t="inlineStr"/>
     </row>
@@ -29698,10 +29698,10 @@
         <v>0.2092688568036942</v>
       </c>
       <c r="S447" t="n">
-        <v>41.56957514131883</v>
+        <v>28.65097157559642</v>
       </c>
       <c r="T447" t="n">
-        <v>0.349234022624584</v>
+        <v>0.3796197901248495</v>
       </c>
     </row>
     <row r="448">
@@ -29764,10 +29764,10 @@
         <v>0.5891187840046024</v>
       </c>
       <c r="S448" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T448" t="n">
-        <v>0.5472901421254064</v>
+        <v>0.5799115029611945</v>
       </c>
     </row>
     <row r="449">
@@ -29830,10 +29830,10 @@
         <v>6.106823566145131</v>
       </c>
       <c r="S449" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T449" t="n">
-        <v>1.070019634662624</v>
+        <v>1.827731524835583</v>
       </c>
     </row>
     <row r="450">
@@ -29896,10 +29896,10 @@
         <v>0.1908593829707392</v>
       </c>
       <c r="S450" t="n">
-        <v>39.24586480283918</v>
+        <v>27.18319117021573</v>
       </c>
       <c r="T450" t="n">
-        <v>0.2497931582304995</v>
+        <v>0.1970229394026914</v>
       </c>
     </row>
     <row r="451">
@@ -29962,10 +29962,10 @@
         <v>0.6753795008138963</v>
       </c>
       <c r="S451" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T451" t="n">
-        <v>0.5866158693277077</v>
+        <v>0.661241727917079</v>
       </c>
     </row>
     <row r="452">
@@ -30028,10 +30028,10 @@
         <v>0.1163377151734892</v>
       </c>
       <c r="S452" t="n">
-        <v>29.05000278997168</v>
+        <v>20.64486331881167</v>
       </c>
       <c r="T452" t="n">
-        <v>0.1555523175770435</v>
+        <v>0.08365316682239743</v>
       </c>
     </row>
     <row r="453">
@@ -30094,10 +30094,10 @@
         <v>1.679104798494464</v>
       </c>
       <c r="S453" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T453" t="n">
-        <v>0.5960634824093813</v>
+        <v>0.6810845861345052</v>
       </c>
     </row>
     <row r="454">
@@ -30156,10 +30156,10 @@
         <v>0.2320054342107805</v>
       </c>
       <c r="S454" t="n">
-        <v>40.96228324540169</v>
+        <v>28.26809167351226</v>
       </c>
       <c r="T454" t="n">
-        <v>0.6351273709350467</v>
+        <v>1.032022457265877</v>
       </c>
     </row>
     <row r="455">
@@ -30222,10 +30222,10 @@
         <v>0.02821411671587759</v>
       </c>
       <c r="S455" t="n">
-        <v>19.93753360420809</v>
+        <v>14.63042832273248</v>
       </c>
       <c r="T455" t="n">
-        <v>0.07085568234700212</v>
+        <v>-0.004309300200602606</v>
       </c>
     </row>
     <row r="456">
@@ -30288,10 +30288,10 @@
         <v>0.3100680296324043</v>
       </c>
       <c r="S456" t="n">
-        <v>60.72296079001391</v>
+        <v>40.50282208243989</v>
       </c>
       <c r="T456" t="n">
-        <v>0.53173655536221</v>
+        <v>0.6509346980256212</v>
       </c>
     </row>
     <row r="457">
@@ -30354,10 +30354,10 @@
         <v>-0.01530327693662226</v>
       </c>
       <c r="S457" t="n">
-        <v>16.74104538984231</v>
+        <v>12.46931573846061</v>
       </c>
       <c r="T457" t="n">
-        <v>-0.03899379613878273</v>
+        <v>-0.1746413838768355</v>
       </c>
     </row>
     <row r="458">
@@ -30420,10 +30420,10 @@
         <v>0.439551118886448</v>
       </c>
       <c r="S458" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T458" t="n">
-        <v>0.7668468880300423</v>
+        <v>1.060094182245188</v>
       </c>
     </row>
     <row r="459">
@@ -30486,10 +30486,10 @@
         <v>0.1770393249414979</v>
       </c>
       <c r="S459" t="n">
-        <v>36.99302375434084</v>
+        <v>25.75282824368203</v>
       </c>
       <c r="T459" t="n">
-        <v>0.2542193087777538</v>
+        <v>0.2193444504523716</v>
       </c>
     </row>
     <row r="460">
@@ -30552,10 +30552,10 @@
         <v>0.2013227111031013</v>
       </c>
       <c r="S460" t="n">
-        <v>40.87500332144521</v>
+        <v>28.21302299682924</v>
       </c>
       <c r="T460" t="n">
-        <v>0.2670636012089451</v>
+        <v>0.2206800503823487</v>
       </c>
     </row>
     <row r="461">
@@ -30618,10 +30618,10 @@
         <v>0.5423159822943895</v>
       </c>
       <c r="S461" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T461" t="n">
-        <v>0.4452897194123899</v>
+        <v>0.3784755606706316</v>
       </c>
     </row>
     <row r="462">
@@ -30684,10 +30684,10 @@
         <v>0.1780828690238172</v>
       </c>
       <c r="S462" t="n">
-        <v>36.67615860904036</v>
+        <v>25.55104054308749</v>
       </c>
       <c r="T462" t="n">
-        <v>0.3120112473876149</v>
+        <v>0.336513140365202</v>
       </c>
     </row>
     <row r="463">
@@ -30750,10 +30750,10 @@
         <v>0.2186526539080773</v>
       </c>
       <c r="S463" t="n">
-        <v>44.07932278725424</v>
+        <v>30.22810849165661</v>
       </c>
       <c r="T463" t="n">
-        <v>0.239556006910151</v>
+        <v>0.1512367188586556</v>
       </c>
     </row>
     <row r="464">
@@ -30816,10 +30816,10 @@
         <v>0.1027361713242267</v>
       </c>
       <c r="S464" t="n">
-        <v>27.42055703853155</v>
+        <v>19.58292517208921</v>
       </c>
       <c r="T464" t="n">
-        <v>0.14604158631912</v>
+        <v>0.07738799903766513</v>
       </c>
     </row>
     <row r="465">
@@ -30882,10 +30882,10 @@
         <v>0.06915288983109025</v>
       </c>
       <c r="S465" t="n">
-        <v>23.8636543137431</v>
+        <v>17.24547114648385</v>
       </c>
       <c r="T465" t="n">
-        <v>0.09851530517984797</v>
+        <v>0.01528852623457388</v>
       </c>
     </row>
     <row r="466">
@@ -30944,10 +30944,10 @@
         <v>0.09692480259092173</v>
       </c>
       <c r="S466" t="n">
-        <v>25.14994443244406</v>
+        <v>18.09399090145237</v>
       </c>
       <c r="T466" t="n">
-        <v>0.3151045916194011</v>
+        <v>0.4413761373181975</v>
       </c>
     </row>
     <row r="467">
@@ -31010,10 +31010,10 @@
         <v>0.1057746959240333</v>
       </c>
       <c r="S467" t="n">
-        <v>27.15103207069214</v>
+        <v>19.40675617520002</v>
       </c>
       <c r="T467" t="n">
-        <v>0.2335237626375137</v>
+        <v>0.2504293223215455</v>
       </c>
     </row>
     <row r="468">
@@ -31076,10 +31076,10 @@
         <v>0.2674247574409421</v>
       </c>
       <c r="S468" t="n">
-        <v>52.87465369693896</v>
+        <v>35.69471777592823</v>
       </c>
       <c r="T468" t="n">
-        <v>0.3446103338243871</v>
+        <v>0.3072767734348447</v>
       </c>
     </row>
     <row r="469">
@@ -31138,10 +31138,10 @@
         <v>0.1116007380999031</v>
       </c>
       <c r="S469" t="n">
-        <v>26.72338296167519</v>
+        <v>19.12692426704472</v>
       </c>
       <c r="T469" t="n">
-        <v>0.3379646772819205</v>
+        <v>0.4754498253249506</v>
       </c>
     </row>
     <row r="470">
@@ -31204,10 +31204,10 @@
         <v>0.0910550804009882</v>
       </c>
       <c r="S470" t="n">
-        <v>25.79309368483652</v>
+        <v>18.51685531419917</v>
       </c>
       <c r="T470" t="n">
-        <v>0.1813903250835991</v>
+        <v>0.157829283571536</v>
       </c>
     </row>
     <row r="471">
@@ -31270,10 +31270,10 @@
         <v>0.6700231731081165</v>
       </c>
       <c r="S471" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T471" t="n">
-        <v>0.6915991758401718</v>
+        <v>0.888357309161961</v>
       </c>
     </row>
     <row r="472">
@@ -31336,10 +31336,10 @@
         <v>0.5177615458495091</v>
       </c>
       <c r="S472" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T472" t="n">
-        <v>0.6214788967153888</v>
+        <v>0.7350494037170414</v>
       </c>
     </row>
     <row r="473">
@@ -31402,10 +31402,10 @@
         <v>0.1006063609425472</v>
       </c>
       <c r="S473" t="n">
-        <v>27.20397199213647</v>
+        <v>19.4413709730004</v>
       </c>
       <c r="T473" t="n">
-        <v>0.1392461619741261</v>
+        <v>0.06621072024898655</v>
       </c>
     </row>
     <row r="474">
@@ -31468,10 +31468,10 @@
         <v>0.09694854021208843</v>
       </c>
       <c r="S474" t="n">
-        <v>26.76204711694031</v>
+        <v>19.15223982649311</v>
       </c>
       <c r="T474" t="n">
-        <v>0.1401654196334232</v>
+        <v>0.07116232317075832</v>
       </c>
     </row>
     <row r="475">
@@ -31530,10 +31530,10 @@
         <v>0.06116123662502515</v>
       </c>
       <c r="S475" t="n">
-        <v>22.4341917579078</v>
+        <v>16.29791980943576</v>
       </c>
       <c r="T475" t="n">
-        <v>0.1837216442091456</v>
+        <v>0.1919492569474899</v>
       </c>
     </row>
     <row r="476">
@@ -31596,10 +31596,10 @@
         <v>0.1314763766394706</v>
       </c>
       <c r="S476" t="n">
-        <v>30.37843096164813</v>
+        <v>21.50681822647862</v>
       </c>
       <c r="T476" t="n">
-        <v>0.2474121759531704</v>
+        <v>0.2522498990343935</v>
       </c>
     </row>
     <row r="477">
@@ -31662,10 +31662,10 @@
         <v>0.04968811290583419</v>
       </c>
       <c r="S477" t="n">
-        <v>21.98982066745607</v>
+        <v>16.00232842820356</v>
       </c>
       <c r="T477" t="n">
-        <v>0.07231075326475334</v>
+        <v>-0.01840617274924528</v>
       </c>
     </row>
     <row r="478">
@@ -31728,10 +31728,10 @@
         <v>0.03406884713115144</v>
       </c>
       <c r="S478" t="n">
-        <v>20.65451157870781</v>
+        <v>15.11100495942174</v>
       </c>
       <c r="T478" t="n">
-        <v>0.03578845197509284</v>
+        <v>-0.0740824761735861</v>
       </c>
     </row>
     <row r="479">
@@ -31794,10 +31794,10 @@
         <v>0.1105069999899981</v>
       </c>
       <c r="S479" t="n">
-        <v>27.94294250338796</v>
+        <v>19.92394906100056</v>
       </c>
       <c r="T479" t="n">
-        <v>0.209672409339098</v>
+        <v>0.196157821412889</v>
       </c>
     </row>
     <row r="480">
@@ -31860,10 +31860,10 @@
         <v>0.1268864056994785</v>
       </c>
       <c r="S480" t="n">
-        <v>30.22024732326331</v>
+        <v>21.40435378621344</v>
       </c>
       <c r="T480" t="n">
-        <v>0.1867915273940595</v>
+        <v>0.1346089142048907</v>
       </c>
     </row>
     <row r="481">
@@ -31926,10 +31926,10 @@
         <v>0.03538339907589627</v>
       </c>
       <c r="S481" t="n">
-        <v>20.57550005954479</v>
+        <v>15.05811486651057</v>
       </c>
       <c r="T481" t="n">
-        <v>0.07688437134675263</v>
+        <v>0.001510159276212786</v>
       </c>
     </row>
     <row r="482">
@@ -31992,10 +31992,10 @@
         <v>0.1419152405232318</v>
       </c>
       <c r="S482" t="n">
-        <v>31.84999544269346</v>
+        <v>22.45785388110734</v>
       </c>
       <c r="T482" t="n">
-        <v>0.2438579653412567</v>
+        <v>0.2340589133893389</v>
       </c>
     </row>
     <row r="483">
@@ -32058,10 +32058,10 @@
         <v>0.1108484228614042</v>
       </c>
       <c r="S483" t="n">
-        <v>28.10899274538325</v>
+        <v>20.0322348622928</v>
       </c>
       <c r="T483" t="n">
-        <v>0.1933051796273502</v>
+        <v>0.1627282246630166</v>
       </c>
     </row>
     <row r="484">
@@ -32120,10 +32120,10 @@
         <v>0.0900924083679433</v>
       </c>
       <c r="S484" t="n">
-        <v>24.92561366137426</v>
+        <v>17.94627949478225</v>
       </c>
       <c r="T484" t="n">
-        <v>0.2646598593629281</v>
+        <v>0.3350911270567936</v>
       </c>
     </row>
     <row r="485">
@@ -32186,10 +32186,10 @@
         <v>0.3307453804084364</v>
       </c>
       <c r="S485" t="n">
-        <v>65.57921526997237</v>
+        <v>43.44888470953209</v>
       </c>
       <c r="T485" t="n">
-        <v>0.5636980698371865</v>
+        <v>0.694694639478147</v>
       </c>
     </row>
     <row r="486">
@@ -32252,10 +32252,10 @@
         <v>0.2818193301983474</v>
       </c>
       <c r="S486" t="n">
-        <v>53.01084714287661</v>
+        <v>35.77868438328813</v>
       </c>
       <c r="T486" t="n">
-        <v>0.591524085264127</v>
+        <v>0.8305509530762749</v>
       </c>
     </row>
     <row r="487">
@@ -32318,10 +32318,10 @@
         <v>-0.04554588028658957</v>
       </c>
       <c r="S487" t="n">
-        <v>14.7717697348674</v>
+        <v>11.12097355225251</v>
       </c>
       <c r="T487" t="n">
-        <v>-0.1163493462006131</v>
+        <v>-0.2885563809891488</v>
       </c>
     </row>
     <row r="488">
@@ -32384,10 +32384,10 @@
         <v>0.1184370539851229</v>
       </c>
       <c r="S488" t="n">
-        <v>29.91190278869903</v>
+        <v>21.20448815215425</v>
       </c>
       <c r="T488" t="n">
-        <v>0.01832250072741837</v>
+        <v>-0.1630405633459362</v>
       </c>
     </row>
     <row r="489">
@@ -32450,10 +32450,10 @@
         <v>0.2556402228171419</v>
       </c>
       <c r="S489" t="n">
-        <v>47.38137421751517</v>
+        <v>32.2910168667793</v>
       </c>
       <c r="T489" t="n">
-        <v>0.5783044687997747</v>
+        <v>0.8403048751217221</v>
       </c>
     </row>
     <row r="490">
@@ -32512,10 +32512,10 @@
         <v>0.3340016457851585</v>
       </c>
       <c r="S490" t="n">
-        <v>60.24501478616679</v>
+        <v>40.21172396096302</v>
       </c>
       <c r="T490" t="n">
-        <v>0.8346306008857112</v>
+        <v>1.372106498662805</v>
       </c>
     </row>
     <row r="491">
@@ -32578,10 +32578,10 @@
         <v>0.7540824742426344</v>
       </c>
       <c r="S491" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T491" t="n">
-        <v>0.6690846580626446</v>
+        <v>0.8384252415090494</v>
       </c>
     </row>
     <row r="492">
@@ -32644,10 +32644,10 @@
         <v>0.05613295655914596</v>
       </c>
       <c r="S492" t="n">
-        <v>22.73705646505742</v>
+        <v>16.49909781212846</v>
       </c>
       <c r="T492" t="n">
-        <v>0.05149857607867503</v>
+        <v>-0.0616940319385626</v>
       </c>
     </row>
     <row r="493">
@@ -32710,10 +32710,10 @@
         <v>1.124119020318998</v>
       </c>
       <c r="S493" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T493" t="n">
-        <v>0.1591903605593044</v>
+        <v>-0.1132549641486716</v>
       </c>
     </row>
     <row r="494">
@@ -32776,10 +32776,10 @@
         <v>0.2694647235430951</v>
       </c>
       <c r="S494" t="n">
-        <v>52.93759675787797</v>
+        <v>35.73352615938941</v>
       </c>
       <c r="T494" t="n">
-        <v>0.3893561888959338</v>
+        <v>0.3954055702437651</v>
       </c>
     </row>
     <row r="495">
@@ -32842,10 +32842,10 @@
         <v>0.05046525480310637</v>
       </c>
       <c r="S495" t="n">
-        <v>21.75098630828329</v>
+        <v>15.84324969921803</v>
       </c>
       <c r="T495" t="n">
-        <v>0.1267879918989792</v>
+        <v>0.08594412436808874</v>
       </c>
     </row>
     <row r="496">
@@ -32904,10 +32904,10 @@
         <v>0.1891824792184713</v>
       </c>
       <c r="S496" t="n">
-        <v>35.10802814242787</v>
+        <v>24.55013497332556</v>
       </c>
       <c r="T496" t="n">
-        <v>0.536608411940684</v>
+        <v>0.8486983915362505</v>
       </c>
     </row>
     <row r="497">
@@ -32970,10 +32970,10 @@
         <v>0.08782833198186801</v>
       </c>
       <c r="S497" t="n">
-        <v>24.8666558258181</v>
+        <v>17.90743971530787</v>
       </c>
       <c r="T497" t="n">
-        <v>0.2445683716883762</v>
+        <v>0.2935627966096033</v>
       </c>
     </row>
     <row r="498">
@@ -33036,10 +33036,10 @@
         <v>0.3295642464058057</v>
       </c>
       <c r="S498" t="n">
-        <v>64.36666237433157</v>
+        <v>42.71523675342736</v>
       </c>
       <c r="T498" t="n">
-        <v>0.622740700330789</v>
+        <v>0.8318057029716477</v>
       </c>
     </row>
     <row r="499">
@@ -33102,10 +33102,10 @@
         <v>0.3487135768210743</v>
       </c>
       <c r="S499" t="n">
-        <v>70.27845535987642</v>
+        <v>46.28044029206289</v>
       </c>
       <c r="T499" t="n">
-        <v>0.5763647480902163</v>
+        <v>0.6989556956497458</v>
       </c>
     </row>
     <row r="500">
@@ -33168,10 +33168,10 @@
         <v>0.1887363176754742</v>
       </c>
       <c r="S500" t="n">
-        <v>39.30933083699012</v>
+        <v>27.2233799460329</v>
       </c>
       <c r="T500" t="n">
-        <v>0.1809342722148173</v>
+        <v>0.06841978224465994</v>
       </c>
     </row>
     <row r="501">
@@ -33234,10 +33234,10 @@
         <v>0.7699135695429959</v>
       </c>
       <c r="S501" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T501" t="n">
-        <v>0.6194945305105644</v>
+        <v>0.7308052946489163</v>
       </c>
     </row>
     <row r="502">
@@ -33296,10 +33296,10 @@
         <v>0.2187010284170199</v>
       </c>
       <c r="S502" t="n">
-        <v>42.97355347100712</v>
+        <v>29.53425100596471</v>
       </c>
       <c r="T502" t="n">
-        <v>0.378563339811786</v>
+        <v>0.4309821580301314</v>
       </c>
     </row>
     <row r="503">
@@ -33362,10 +33362,10 @@
         <v>-0.05499146320142789</v>
       </c>
       <c r="S503" t="n">
-        <v>13.89254901774718</v>
+        <v>10.51423820718714</v>
       </c>
       <c r="T503" t="n">
-        <v>-0.03937044955231195</v>
+        <v>-0.1516008353292344</v>
       </c>
     </row>
     <row r="504">
@@ -33428,10 +33428,10 @@
         <v>0.09689492210203365</v>
       </c>
       <c r="S504" t="n">
-        <v>25.78884420309896</v>
+        <v>18.51406430126954</v>
       </c>
       <c r="T504" t="n">
-        <v>0.261014328908826</v>
+        <v>0.3192005720360866</v>
       </c>
     </row>
     <row r="505">
@@ -33494,10 +33494,10 @@
         <v>0.1202862621861533</v>
       </c>
       <c r="S505" t="n">
-        <v>29.86857817817782</v>
+        <v>21.17639137813091</v>
       </c>
       <c r="T505" t="n">
-        <v>0.09382187921092444</v>
+        <v>-0.03407134170245374</v>
       </c>
     </row>
     <row r="506">
@@ -33560,10 +33560,10 @@
         <v>0.0863684081737317</v>
       </c>
       <c r="S506" t="n">
-        <v>26.03926416168699</v>
+        <v>18.67847050340988</v>
       </c>
       <c r="T506" t="n">
-        <v>0.03492307701741826</v>
+        <v>-0.1130091590634817</v>
       </c>
     </row>
     <row r="507">
@@ -33626,10 +33626,10 @@
         <v>0.08413752572383815</v>
       </c>
       <c r="S507" t="n">
-        <v>25.28348273388164</v>
+        <v>18.18186624783037</v>
       </c>
       <c r="T507" t="n">
-        <v>0.1387696449132629</v>
+        <v>0.07971754791647001</v>
       </c>
     </row>
     <row r="508">
@@ -33692,10 +33692,10 @@
         <v>21.19344355271265</v>
       </c>
       <c r="S508" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T508" t="n">
-        <v>0.8807880045412118</v>
+        <v>1.334365931304708</v>
       </c>
     </row>
     <row r="509">
@@ -33758,10 +33758,10 @@
         <v>0.2031377407381636</v>
       </c>
       <c r="S509" t="n">
-        <v>40.45913785559006</v>
+        <v>27.95049193799505</v>
       </c>
       <c r="T509" t="n">
-        <v>0.3526607346487571</v>
+        <v>0.3939394082679248</v>
       </c>
     </row>
     <row r="510">
@@ -33824,10 +33824,10 @@
         <v>0.6340629633149584</v>
       </c>
       <c r="S510" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T510" t="n">
-        <v>0.6788509070005282</v>
+        <v>0.8600023937006696</v>
       </c>
     </row>
     <row r="511">
@@ -33890,10 +33890,10 @@
         <v>0.01096704575918017</v>
       </c>
       <c r="S511" t="n">
-        <v>18.59995084235902</v>
+        <v>13.72993250328112</v>
       </c>
       <c r="T511" t="n">
-        <v>0.03111599231101247</v>
+        <v>-0.06597355245871328</v>
       </c>
     </row>
     <row r="512">
@@ -33956,10 +33956,10 @@
         <v>0.8259296914409351</v>
       </c>
       <c r="S512" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T512" t="n">
-        <v>0.7663928280173777</v>
+        <v>1.059035475684598</v>
       </c>
     </row>
     <row r="513">
@@ -34022,10 +34022,10 @@
         <v>0.5659880634269134</v>
       </c>
       <c r="S513" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T513" t="n">
-        <v>0.7263944498861929</v>
+        <v>0.9668412413076548</v>
       </c>
     </row>
     <row r="514">
@@ -34088,10 +34088,10 @@
         <v>1.303789474803412</v>
       </c>
       <c r="S514" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T514" t="n">
-        <v>0.5983255258606077</v>
+        <v>0.6858530444400541</v>
       </c>
     </row>
     <row r="515">
@@ -34150,10 +34150,10 @@
         <v>0.1816836566305564</v>
       </c>
       <c r="S515" t="n">
-        <v>33.30848410346447</v>
+        <v>23.39668128931216</v>
       </c>
       <c r="T515" t="n">
-        <v>0.5543501739629244</v>
+        <v>0.910734764695071</v>
       </c>
     </row>
     <row r="516">
@@ -34216,10 +34216,10 @@
         <v>0.0837372740422524</v>
       </c>
       <c r="S516" t="n">
-        <v>25.01004542586258</v>
+        <v>18.00188715043009</v>
       </c>
       <c r="T516" t="n">
-        <v>0.172626573985261</v>
+        <v>0.1471397854763166</v>
       </c>
     </row>
     <row r="517">
@@ -34282,10 +34282,10 @@
         <v>0.373292843615576</v>
       </c>
       <c r="S517" t="n">
-        <v>73.25565865522655</v>
+        <v>48.06515581780734</v>
       </c>
       <c r="T517" t="n">
-        <v>0.8009617673512159</v>
+        <v>1.199533071991208</v>
       </c>
     </row>
     <row r="518">
@@ -34348,10 +34348,10 @@
         <v>0.4021857151826156</v>
       </c>
       <c r="S518" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T518" t="n">
-        <v>0.8472096586989069</v>
+        <v>1.251757538433584</v>
       </c>
     </row>
     <row r="519">
@@ -34414,10 +34414,10 @@
         <v>0.2071166913200793</v>
       </c>
       <c r="S519" t="n">
-        <v>40.86396468523742</v>
+        <v>28.20605750193201</v>
       </c>
       <c r="T519" t="n">
-        <v>0.3804206848982028</v>
+        <v>0.4489409441440109</v>
       </c>
     </row>
     <row r="520">
@@ -34480,10 +34480,10 @@
         <v>0.4556795624801491</v>
       </c>
       <c r="S520" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T520" t="n">
-        <v>0.5904007519650083</v>
+        <v>0.6691769876805127</v>
       </c>
     </row>
     <row r="521">
@@ -34546,10 +34546,10 @@
         <v>0.1502810111529338</v>
       </c>
       <c r="S521" t="n">
-        <v>33.75199100401795</v>
+        <v>23.68145004908796</v>
       </c>
       <c r="T521" t="n">
-        <v>0.1265955233741263</v>
+        <v>0.001254141122034369</v>
       </c>
     </row>
     <row r="522">
@@ -34612,10 +34612,10 @@
         <v>0.1106313197915312</v>
       </c>
       <c r="S522" t="n">
-        <v>28.02481760198778</v>
+        <v>19.97734889474667</v>
       </c>
       <c r="T522" t="n">
-        <v>0.2010246103321065</v>
+        <v>0.178476369739198</v>
       </c>
     </row>
     <row r="523">
@@ -34678,10 +34678,10 @@
         <v>0.1685245475865853</v>
       </c>
       <c r="S523" t="n">
-        <v>36.43856279459875</v>
+        <v>25.39963315052462</v>
       </c>
       <c r="T523" t="n">
-        <v>0.1206344142468871</v>
+        <v>-0.02373297197223845</v>
       </c>
     </row>
     <row r="524">
@@ -34740,10 +34740,10 @@
         <v>0.1155405855273415</v>
       </c>
       <c r="S524" t="n">
-        <v>27.90270115708508</v>
+        <v>19.89769828779815</v>
       </c>
       <c r="T524" t="n">
-        <v>0.2841194987827167</v>
+        <v>0.348279567078186</v>
       </c>
     </row>
     <row r="525">
@@ -34802,10 +34802,10 @@
         <v>0.05776733407649504</v>
       </c>
       <c r="S525" t="n">
-        <v>22.18312865563349</v>
+        <v>16.13097661694308</v>
       </c>
       <c r="T525" t="n">
-        <v>0.170612348838032</v>
+        <v>0.1680127225357337</v>
       </c>
     </row>
     <row r="526">
@@ -34864,10 +34864,10 @@
         <v>0.04404700658266059</v>
       </c>
       <c r="S526" t="n">
-        <v>20.86538846270173</v>
+        <v>15.25208200173688</v>
       </c>
       <c r="T526" t="n">
-        <v>0.159996231388243</v>
+        <v>0.1592601473276634</v>
       </c>
     </row>
     <row r="527">
@@ -34930,10 +34930,10 @@
         <v>0.01965078368397744</v>
       </c>
       <c r="S527" t="n">
-        <v>19.7232193526665</v>
+        <v>14.48649707409093</v>
       </c>
       <c r="T527" t="n">
-        <v>-0.07240546542428483</v>
+        <v>-0.25152378693732</v>
       </c>
     </row>
     <row r="528">
@@ -34996,10 +34996,10 @@
         <v>0.5346672132628709</v>
       </c>
       <c r="S528" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T528" t="n">
-        <v>1.042328658908662</v>
+        <v>1.752583530644759</v>
       </c>
     </row>
     <row r="529">
@@ -35062,10 +35062,10 @@
         <v>3.807441142857032</v>
       </c>
       <c r="S529" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T529" t="n">
-        <v>0.7099379869324556</v>
+        <v>0.9295230220604003</v>
       </c>
     </row>
     <row r="530">
@@ -35124,10 +35124,10 @@
         <v>0.1293355262265259</v>
       </c>
       <c r="S530" t="n">
-        <v>28.9569059027334</v>
+        <v>20.58433125215743</v>
       </c>
       <c r="T530" t="n">
-        <v>0.3507119186376828</v>
+        <v>0.4814836753158263</v>
       </c>
     </row>
     <row r="531">
@@ -35190,10 +35190,10 @@
         <v>0.04147774852182096</v>
       </c>
       <c r="S531" t="n">
-        <v>20.5574730164655</v>
+        <v>15.04604521587901</v>
       </c>
       <c r="T531" t="n">
-        <v>0.1664590152870489</v>
+        <v>0.1752270350495737</v>
       </c>
     </row>
     <row r="532">
@@ -35256,10 +35256,10 @@
         <v>0.5283522237869607</v>
       </c>
       <c r="S532" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T532" t="n">
-        <v>0.7130211562895579</v>
+        <v>0.9364874963619312</v>
       </c>
     </row>
     <row r="533">
@@ -35322,10 +35322,10 @@
         <v>0.2750219286454574</v>
       </c>
       <c r="S533" t="n">
-        <v>54.65068594063985</v>
+        <v>36.78816079751704</v>
       </c>
       <c r="T533" t="n">
-        <v>0.3231982143687475</v>
+        <v>0.2577879583270708</v>
       </c>
     </row>
     <row r="534">
@@ -35384,10 +35384,10 @@
         <v>0.01754850699947474</v>
       </c>
       <c r="S534" t="n">
-        <v>18.84676263918492</v>
+        <v>13.8964911218722</v>
       </c>
       <c r="T534" t="n">
-        <v>0.09182325790559664</v>
+        <v>0.04494658124783246</v>
       </c>
     </row>
     <row r="535">
@@ -35450,10 +35450,10 @@
         <v>0.7776195549191132</v>
       </c>
       <c r="S535" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T535" t="n">
-        <v>1.06430908955058</v>
+        <v>1.812151368350302</v>
       </c>
     </row>
     <row r="536">
@@ -35516,10 +35516,10 @@
         <v>0.084499531694332</v>
       </c>
       <c r="S536" t="n">
-        <v>24.46262894247576</v>
+        <v>17.64106574470268</v>
       </c>
       <c r="T536" t="n">
-        <v>0.2457861403705826</v>
+        <v>0.2999442490595945</v>
       </c>
     </row>
     <row r="537">
@@ -35582,10 +35582,10 @@
         <v>0.08941427159808213</v>
       </c>
       <c r="S537" t="n">
-        <v>25.9762943284382</v>
+        <v>18.63714219945718</v>
       </c>
       <c r="T537" t="n">
-        <v>0.1237360598236013</v>
+        <v>0.04622270372995008</v>
       </c>
     </row>
     <row r="538">
@@ -35648,10 +35648,10 @@
         <v>0.1303867742367402</v>
       </c>
       <c r="S538" t="n">
-        <v>30.55239534123553</v>
+        <v>21.61945148361903</v>
       </c>
       <c r="T538" t="n">
-        <v>0.206315822039405</v>
+        <v>0.1698400485793163</v>
       </c>
     </row>
     <row r="539">
@@ -35714,10 +35714,10 @@
         <v>1.673948841010044</v>
       </c>
       <c r="S539" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T539" t="n">
-        <v>0.7501595018362421</v>
+        <v>1.02136389498996</v>
       </c>
     </row>
     <row r="540">
@@ -35780,10 +35780,10 @@
         <v>0.08306347688805538</v>
       </c>
       <c r="S540" t="n">
-        <v>24.58964489120839</v>
+        <v>17.72484718073633</v>
       </c>
       <c r="T540" t="n">
-        <v>0.2150813102554621</v>
+        <v>0.2354973667746152</v>
       </c>
     </row>
     <row r="541">
@@ -35846,10 +35846,10 @@
         <v>0.106055611694984</v>
       </c>
       <c r="S541" t="n">
-        <v>27.99304294493172</v>
+        <v>19.95662671081646</v>
       </c>
       <c r="T541" t="n">
-        <v>0.1154614355184485</v>
+        <v>0.01675813428642159</v>
       </c>
     </row>
     <row r="542">
@@ -35912,10 +35912,10 @@
         <v>0.0527924363204566</v>
       </c>
       <c r="S542" t="n">
-        <v>22.60111080568453</v>
+        <v>16.40882413372105</v>
       </c>
       <c r="T542" t="n">
-        <v>0.0009600611112119406</v>
+        <v>-0.1488181618459901</v>
       </c>
     </row>
     <row r="543">
@@ -35978,10 +35978,10 @@
         <v>0.08411336064828423</v>
       </c>
       <c r="S543" t="n">
-        <v>25.0010947455868</v>
+        <v>17.99599289715962</v>
       </c>
       <c r="T543" t="n">
-        <v>0.1796463383996851</v>
+        <v>0.1609907292105461</v>
       </c>
     </row>
     <row r="544">
@@ -36044,10 +36044,10 @@
         <v>0.1794848692940081</v>
       </c>
       <c r="S544" t="n">
-        <v>37.51559408501109</v>
+        <v>26.08528312006935</v>
       </c>
       <c r="T544" t="n">
-        <v>0.2347209052656305</v>
+        <v>0.1785390110393323</v>
       </c>
     </row>
     <row r="545">
@@ -36110,10 +36110,10 @@
         <v>1.562778142386809</v>
       </c>
       <c r="S545" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T545" t="n">
-        <v>0.6989814278513182</v>
+        <v>0.9048751084236171</v>
       </c>
     </row>
     <row r="546">
@@ -36176,10 +36176,10 @@
         <v>0.2723377293777671</v>
       </c>
       <c r="S546" t="n">
-        <v>54.16663480732258</v>
+        <v>36.49047191544165</v>
       </c>
       <c r="T546" t="n">
-        <v>0.3093080673592004</v>
+        <v>0.233673170511016</v>
       </c>
     </row>
     <row r="547">
@@ -36238,10 +36238,10 @@
         <v>0.09713639452276324</v>
       </c>
       <c r="S547" t="n">
-        <v>23.92062671860971</v>
+        <v>17.28313478774452</v>
       </c>
       <c r="T547" t="n">
-        <v>0.3924907298376217</v>
+        <v>0.6307065341814548</v>
       </c>
     </row>
     <row r="548">
@@ -36300,10 +36300,10 @@
         <v>0.03809526371292815</v>
       </c>
       <c r="S548" t="n">
-        <v>20.04222531089868</v>
+        <v>14.70069076727056</v>
       </c>
       <c r="T548" t="n">
-        <v>0.1870387233511177</v>
+        <v>0.222373838144472</v>
       </c>
     </row>
     <row r="549">
@@ -36362,10 +36362,10 @@
         <v>0.09651100703315385</v>
       </c>
       <c r="S549" t="n">
-        <v>25.25960940389869</v>
+        <v>18.16615923345572</v>
       </c>
       <c r="T549" t="n">
-        <v>0.3027656242477557</v>
+        <v>0.413336707269073</v>
       </c>
     </row>
     <row r="550">
@@ -36424,10 +36424,10 @@
         <v>0.02421260635983846</v>
       </c>
       <c r="S550" t="n">
-        <v>19.95710349313154</v>
+        <v>14.64356474920189</v>
       </c>
       <c r="T550" t="n">
-        <v>-0.0162782253505166</v>
+        <v>-0.1598933077571171</v>
       </c>
     </row>
     <row r="551">
@@ -36490,10 +36490,10 @@
         <v>1.308685234039928</v>
       </c>
       <c r="S551" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T551" t="n">
-        <v>0.694158148241055</v>
+        <v>0.894074868393163</v>
       </c>
     </row>
     <row r="552">
@@ -36556,10 +36556,10 @@
         <v>0.1309997698069461</v>
       </c>
       <c r="S552" t="n">
-        <v>29.95109803706451</v>
+        <v>21.22990393324276</v>
       </c>
       <c r="T552" t="n">
-        <v>0.2862143746499872</v>
+        <v>0.3349153338785502</v>
       </c>
     </row>
     <row r="553">
@@ -36622,10 +36622,10 @@
         <v>0.2126186501558893</v>
       </c>
       <c r="S553" t="n">
-        <v>41.33949111544309</v>
+        <v>28.50596907055571</v>
       </c>
       <c r="T553" t="n">
-        <v>0.4231704150536506</v>
+        <v>0.53662055033149</v>
       </c>
     </row>
     <row r="554">
@@ -36684,10 +36684,10 @@
         <v>0.102766965193779</v>
       </c>
       <c r="S554" t="n">
-        <v>26.99645636528849</v>
+        <v>19.30565358640833</v>
       </c>
       <c r="T554" t="n">
-        <v>0.2076971312411007</v>
+        <v>0.1998797247560398</v>
       </c>
     </row>
     <row r="555">
@@ -36750,10 +36750,10 @@
         <v>0.01876150696212431</v>
       </c>
       <c r="S555" t="n">
-        <v>19.40615562119852</v>
+        <v>14.27331838813456</v>
       </c>
       <c r="T555" t="n">
-        <v>0.001552661769148589</v>
+        <v>-0.12501242203688</v>
       </c>
     </row>
     <row r="556">
@@ -36816,10 +36816,10 @@
         <v>0.1897902950319683</v>
       </c>
       <c r="S556" t="n">
-        <v>36.36575487061014</v>
+        <v>25.353219144327</v>
       </c>
       <c r="T556" t="n">
-        <v>0.4812707736042494</v>
+        <v>0.7063830630069028</v>
       </c>
     </row>
     <row r="557">
@@ -36882,10 +36882,10 @@
         <v>0.1618198112391884</v>
       </c>
       <c r="S557" t="n">
-        <v>34.82519117515498</v>
+        <v>24.36919376755916</v>
       </c>
       <c r="T557" t="n">
-        <v>0.2314348249351872</v>
+        <v>0.1891451119846206</v>
       </c>
     </row>
     <row r="558">
@@ -36948,10 +36948,10 @@
         <v>0.1142909224883264</v>
       </c>
       <c r="S558" t="n">
-        <v>28.60913458595566</v>
+        <v>20.35805978184138</v>
       </c>
       <c r="T558" t="n">
-        <v>0.1839435731958072</v>
+        <v>0.1408068717179793</v>
       </c>
     </row>
     <row r="559">
@@ -37014,10 +37014,10 @@
         <v>0.3887799706017667</v>
       </c>
       <c r="S559" t="n">
-        <v>77.64432421885606</v>
+        <v>50</v>
       </c>
       <c r="T559" t="n">
-        <v>0.8238785647558722</v>
+        <v>1.220561387099826</v>
       </c>
     </row>
     <row r="560">
@@ -37080,10 +37080,10 @@
         <v>0.8600006926788804</v>
       </c>
       <c r="S560" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T560" t="n">
-        <v>0.5953383856569197</v>
+        <v>0.679557488871471</v>
       </c>
     </row>
     <row r="561">
@@ -37142,10 +37142,10 @@
         <v>0.1845681587481416</v>
       </c>
       <c r="S561" t="n">
-        <v>34.29364451109238</v>
+        <v>24.0287952387251</v>
       </c>
       <c r="T561" t="n">
-        <v>0.5359062625077058</v>
+        <v>0.8553177117503079</v>
       </c>
     </row>
     <row r="562">
@@ -37204,10 +37204,10 @@
         <v>0.105410496748745</v>
       </c>
       <c r="S562" t="n">
-        <v>24.10532620626672</v>
+        <v>17.40518460783341</v>
       </c>
       <c r="T562" t="n">
-        <v>0.4363246524413849</v>
+        <v>0.7325888209899634</v>
       </c>
     </row>
     <row r="563">
@@ -37266,10 +37266,10 @@
         <v>0.3611262695879311</v>
       </c>
       <c r="S563" t="n">
-        <v>65.80893687991811</v>
+        <v>43.58773387677336</v>
       </c>
       <c r="T563" t="n">
-        <v>0.9083588610065647</v>
+        <v>1.522358366195093</v>
       </c>
     </row>
     <row r="564">
@@ -37332,10 +37332,10 @@
         <v>0.04695123123962941</v>
       </c>
       <c r="S564" t="n">
-        <v>21.17247440414505</v>
+        <v>15.4573083119244</v>
       </c>
       <c r="T564" t="n">
-        <v>0.1579467692487482</v>
+        <v>0.1522430970037045</v>
       </c>
     </row>
     <row r="565">
@@ -37398,10 +37398,10 @@
         <v>0.2018810582146855</v>
       </c>
       <c r="S565" t="n">
-        <v>40.31706306657556</v>
+        <v>27.86074709183139</v>
       </c>
       <c r="T565" t="n">
-        <v>0.3450194272164033</v>
+        <v>0.3791748187660591</v>
       </c>
     </row>
     <row r="566">
@@ -37464,10 +37464,10 @@
         <v>0.06392313512120751</v>
       </c>
       <c r="S566" t="n">
-        <v>22.89099138124035</v>
+        <v>16.60126188966372</v>
       </c>
       <c r="T566" t="n">
-        <v>0.1632376366927053</v>
+        <v>0.1469476183918528</v>
       </c>
     </row>
     <row r="567">
@@ -37530,10 +37530,10 @@
         <v>0.6002306595513343</v>
       </c>
       <c r="S567" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T567" t="n">
-        <v>0.6595488955675175</v>
+        <v>0.8174787805707686</v>
       </c>
     </row>
     <row r="568">
@@ -37596,10 +37596,10 @@
         <v>0.3384446827701109</v>
       </c>
       <c r="S568" t="n">
-        <v>64.08106152000013</v>
+        <v>42.54224995704815</v>
       </c>
       <c r="T568" t="n">
-        <v>0.7520014722995059</v>
+        <v>1.137126509433158</v>
       </c>
     </row>
     <row r="569">
@@ -37662,10 +37662,10 @@
         <v>-0.01576612208299799</v>
       </c>
       <c r="S569" t="n">
-        <v>16.73243831618179</v>
+        <v>12.46345252000784</v>
       </c>
       <c r="T569" t="n">
-        <v>-0.04688348941287468</v>
+        <v>-0.1880714114206957</v>
       </c>
     </row>
     <row r="570">
@@ -37728,10 +37728,10 @@
         <v>0.03905974715621707</v>
       </c>
       <c r="S570" t="n">
-        <v>20.86112874297339</v>
+        <v>15.24923343555052</v>
       </c>
       <c r="T570" t="n">
-        <v>0.08863372822731663</v>
+        <v>0.02104919951560724</v>
       </c>
     </row>
     <row r="571">
@@ -37794,10 +37794,10 @@
         <v>0.01176320283471055</v>
       </c>
       <c r="S571" t="n">
-        <v>19.0427769174383</v>
+        <v>14.02863896533142</v>
       </c>
       <c r="T571" t="n">
-        <v>-0.07288315714403826</v>
+        <v>-0.247847889904008</v>
       </c>
     </row>
     <row r="572">
@@ -37860,10 +37860,10 @@
         <v>0.6479891642242521</v>
       </c>
       <c r="S572" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T572" t="n">
-        <v>0.902265201450172</v>
+        <v>1.387983768552336</v>
       </c>
     </row>
     <row r="573">
@@ -37926,10 +37926,10 @@
         <v>2.798597740369826</v>
       </c>
       <c r="S573" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T573" t="n">
-        <v>0.8344426730620351</v>
+        <v>1.220739067297008</v>
       </c>
     </row>
     <row r="574">
@@ -37992,10 +37992,10 @@
         <v>0.02461876778956351</v>
       </c>
       <c r="S574" t="n">
-        <v>19.90287545161434</v>
+        <v>14.60716112774369</v>
       </c>
       <c r="T574" t="n">
-        <v>0.008026106928161969</v>
+        <v>-0.1174588601080108</v>
       </c>
     </row>
     <row r="575">
@@ -38054,10 +38054,10 @@
         <v>0.09883687363133831</v>
       </c>
       <c r="S575" t="n">
-        <v>23.61989364613123</v>
+        <v>17.08423785768125</v>
       </c>
       <c r="T575" t="n">
-        <v>0.4179854463300714</v>
+        <v>0.6948088602993003</v>
       </c>
     </row>
     <row r="576">
@@ -38120,10 +38120,10 @@
         <v>0.3609653607717578</v>
       </c>
       <c r="S576" t="n">
-        <v>70.67852022667418</v>
+        <v>46.5206691846186</v>
       </c>
       <c r="T576" t="n">
-        <v>0.7518127914214277</v>
+        <v>1.095842735716877</v>
       </c>
     </row>
     <row r="577">
@@ -38186,10 +38186,10 @@
         <v>0.03990902482651948</v>
       </c>
       <c r="S577" t="n">
-        <v>21.19682501665368</v>
+        <v>15.47357108642668</v>
       </c>
       <c r="T577" t="n">
-        <v>0.03817476842578671</v>
+        <v>-0.07397854623010769</v>
       </c>
     </row>
     <row r="578">
@@ -38252,10 +38252,10 @@
         <v>0.0377437899065447</v>
       </c>
       <c r="S578" t="n">
-        <v>20.19760104622835</v>
+        <v>14.8049122043238</v>
       </c>
       <c r="T578" t="n">
-        <v>0.1655495446485988</v>
+        <v>0.1769607080442788</v>
       </c>
     </row>
     <row r="579">
@@ -38318,10 +38318,10 @@
         <v>0.1276013402827625</v>
       </c>
       <c r="S579" t="n">
-        <v>30.50938425830972</v>
+        <v>21.59160912788521</v>
       </c>
       <c r="T579" t="n">
-        <v>0.1550617545258777</v>
+        <v>0.07282774943653902</v>
       </c>
     </row>
     <row r="580">
@@ -38384,10 +38384,10 @@
         <v>-0.004157442883839568</v>
       </c>
       <c r="S580" t="n">
-        <v>17.75838871505948</v>
+        <v>13.16060111834574</v>
       </c>
       <c r="T580" t="n">
-        <v>-0.08478213893889441</v>
+        <v>-0.258505762830454</v>
       </c>
     </row>
     <row r="581">
@@ -38450,10 +38450,10 @@
         <v>0.01246383561523889</v>
       </c>
       <c r="S581" t="n">
-        <v>19.00222137213181</v>
+        <v>14.00130686018164</v>
       </c>
       <c r="T581" t="n">
-        <v>-0.03876020145988146</v>
+        <v>-0.1911731678099386</v>
       </c>
     </row>
     <row r="582">
@@ -38516,10 +38516,10 @@
         <v>0.4964421911524139</v>
       </c>
       <c r="S582" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T582" t="n">
-        <v>0.6700194761403726</v>
+        <v>0.8404851423239832</v>
       </c>
     </row>
     <row r="583">
@@ -38582,10 +38582,10 @@
         <v>0.2738659689694614</v>
       </c>
       <c r="S583" t="n">
-        <v>52.11792673332998</v>
+        <v>35.22781769888273</v>
       </c>
       <c r="T583" t="n">
-        <v>0.5374057364402851</v>
+        <v>0.7138785555176734</v>
       </c>
     </row>
     <row r="584">
@@ -38648,10 +38648,10 @@
         <v>0.07320801989734371</v>
       </c>
       <c r="S584" t="n">
-        <v>23.81686654531946</v>
+        <v>17.21453470365438</v>
       </c>
       <c r="T584" t="n">
-        <v>0.1740426443915404</v>
+        <v>0.1601070220493299</v>
       </c>
     </row>
     <row r="585">
@@ -38710,10 +38710,10 @@
         <v>0.1335837802237603</v>
       </c>
       <c r="S585" t="n">
-        <v>26.05824831747013</v>
+        <v>18.6909284894944</v>
       </c>
       <c r="T585" t="n">
-        <v>0.520969443309333</v>
+        <v>0.9155169765783249</v>
       </c>
     </row>
     <row r="586">
@@ -38776,10 +38776,10 @@
         <v>0.1289663775590109</v>
       </c>
       <c r="S586" t="n">
-        <v>29.77277206993957</v>
+        <v>21.11424692000123</v>
       </c>
       <c r="T586" t="n">
-        <v>0.2762787147994088</v>
+        <v>0.3158445602030899</v>
       </c>
     </row>
     <row r="587">
@@ -38838,10 +38838,10 @@
         <v>0.2499292803843554</v>
       </c>
       <c r="S587" t="n">
-        <v>48.58760657342847</v>
+        <v>33.04133192196845</v>
       </c>
       <c r="T587" t="n">
-        <v>0.4174669133813771</v>
+        <v>0.4770603231439841</v>
       </c>
     </row>
     <row r="588">
@@ -38904,10 +38904,10 @@
         <v>0.1934649743233143</v>
       </c>
       <c r="S588" t="n">
-        <v>38.76304346341524</v>
+        <v>26.87726421060659</v>
       </c>
       <c r="T588" t="n">
-        <v>0.3561623520076616</v>
+        <v>0.4128261757233809</v>
       </c>
     </row>
     <row r="589">
@@ -38966,10 +38966,10 @@
         <v>0.08591935161809783</v>
       </c>
       <c r="S589" t="n">
-        <v>22.80852465768</v>
+        <v>16.54653735064615</v>
       </c>
       <c r="T589" t="n">
-        <v>0.3752877430141306</v>
+        <v>0.6042509737059669</v>
       </c>
     </row>
     <row r="590">
@@ -39032,10 +39032,10 @@
         <v>0.06466374908239247</v>
       </c>
       <c r="S590" t="n">
-        <v>22.68937139892954</v>
+        <v>16.46743813254929</v>
       </c>
       <c r="T590" t="n">
-        <v>0.1976970001398926</v>
+        <v>0.2178190378296445</v>
       </c>
     </row>
     <row r="591">
@@ -39098,10 +39098,10 @@
         <v>-0.1419349932080012</v>
       </c>
       <c r="S591" t="n">
-        <v>9.434369622757572</v>
+        <v>7.382951477313707</v>
       </c>
       <c r="T591" t="n">
-        <v>-0.166501975906121</v>
+        <v>-0.3297157784914302</v>
       </c>
     </row>
     <row r="592">
@@ -39164,10 +39164,10 @@
         <v>7.294028314319242</v>
       </c>
       <c r="S592" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T592" t="n">
-        <v>0.7122973186117396</v>
+        <v>0.9348513152063334</v>
       </c>
     </row>
     <row r="593">
@@ -39226,10 +39226,10 @@
         <v>0.1224263769843141</v>
       </c>
       <c r="S593" t="n">
-        <v>28.64440889898282</v>
+        <v>20.38102116059651</v>
       </c>
       <c r="T593" t="n">
-        <v>0.2996387879956863</v>
+        <v>0.3743448730766097</v>
       </c>
     </row>
     <row r="594">
@@ -39288,10 +39288,10 @@
         <v>0.4919010685000034</v>
       </c>
       <c r="S594" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T594" t="n">
-        <v>0.8927866279025392</v>
+        <v>1.364245450759788</v>
       </c>
     </row>
     <row r="595">
@@ -39354,10 +39354,10 @@
         <v>0.06498882095164249</v>
       </c>
       <c r="S595" t="n">
-        <v>22.67619191587935</v>
+        <v>16.45868684671051</v>
       </c>
       <c r="T595" t="n">
-        <v>0.2031020338167575</v>
+        <v>0.2289621357449114</v>
       </c>
     </row>
     <row r="596">
@@ -39420,10 +39420,10 @@
         <v>1.631325238830974</v>
       </c>
       <c r="S596" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T596" t="n">
-        <v>0.5832651645149045</v>
+        <v>0.6542325291373834</v>
       </c>
     </row>
     <row r="597">
@@ -39482,10 +39482,10 @@
         <v>0.2573914628990275</v>
       </c>
       <c r="S597" t="n">
-        <v>47.0651449371675</v>
+        <v>32.09402954690439</v>
       </c>
       <c r="T597" t="n">
-        <v>0.6112974686123469</v>
+        <v>0.9205614957202493</v>
       </c>
     </row>
     <row r="598">
@@ -39544,10 +39544,10 @@
         <v>0.1354893862073905</v>
       </c>
       <c r="S598" t="n">
-        <v>29.41119852635375</v>
+        <v>20.87955683956799</v>
       </c>
       <c r="T598" t="n">
-        <v>0.379787404844534</v>
+        <v>0.541459102350087</v>
       </c>
     </row>
     <row r="599">
@@ -39606,10 +39606,10 @@
         <v>0.03309794097397689</v>
       </c>
       <c r="S599" t="n">
-        <v>19.56494835935888</v>
+        <v>14.38011945649919</v>
       </c>
       <c r="T599" t="n">
-        <v>0.1858274834358344</v>
+        <v>0.2248938275371628</v>
       </c>
     </row>
     <row r="600">
@@ -39672,10 +39672,10 @@
         <v>0.1353231654893521</v>
       </c>
       <c r="S600" t="n">
-        <v>30.82394093319034</v>
+        <v>21.79515294608499</v>
       </c>
       <c r="T600" t="n">
-        <v>0.2567910850111323</v>
+        <v>0.2676717243108351</v>
       </c>
     </row>
     <row r="601">
@@ -39738,10 +39738,10 @@
         <v>0.02611850427718654</v>
       </c>
       <c r="S601" t="n">
-        <v>19.51149672604596</v>
+        <v>14.3441770425001</v>
       </c>
       <c r="T601" t="n">
-        <v>0.1095252503480404</v>
+        <v>0.07283033066259903</v>
       </c>
     </row>
     <row r="602">
@@ -39804,10 +39804,10 @@
         <v>0.1238596617354197</v>
       </c>
       <c r="S602" t="n">
-        <v>29.98601129464399</v>
+        <v>21.25254067900434</v>
       </c>
       <c r="T602" t="n">
-        <v>0.1607860806956083</v>
+        <v>0.0870172107761169</v>
       </c>
     </row>
     <row r="603">
@@ -39870,10 +39870,10 @@
         <v>24.03561554483939</v>
       </c>
       <c r="S603" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T603" t="n">
-        <v>0.8505993073920051</v>
+        <v>1.260029117106324</v>
       </c>
     </row>
     <row r="604">
@@ -39932,10 +39932,10 @@
         <v>0.4551230720323163</v>
       </c>
       <c r="S604" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T604" t="n">
-        <v>0.8082694127500099</v>
+        <v>1.157821501051993</v>
       </c>
     </row>
     <row r="605">
@@ -39998,10 +39998,10 @@
         <v>-0.0261626183332071</v>
       </c>
       <c r="S605" t="n">
-        <v>15.76384613424678</v>
+        <v>11.80199521436091</v>
       </c>
       <c r="T605" t="n">
-        <v>-0.0007213175092583013</v>
+        <v>-0.09913041253769139</v>
       </c>
     </row>
     <row r="606">
@@ -40060,10 +40060,10 @@
         <v>0.110464858048918</v>
       </c>
       <c r="S606" t="n">
-        <v>24.1378791068856</v>
+        <v>17.42668737007264</v>
       </c>
       <c r="T606" t="n">
-        <v>0.4641123218694294</v>
+        <v>0.7998384502021414</v>
       </c>
     </row>
     <row r="607">
@@ -40122,10 +40122,10 @@
         <v>0.04930686850206056</v>
       </c>
       <c r="S607" t="n">
-        <v>21.21389748667988</v>
+        <v>15.4849721472233</v>
       </c>
       <c r="T607" t="n">
-        <v>0.1819020177991475</v>
+        <v>0.2000027233296682</v>
       </c>
     </row>
     <row r="608">
@@ -40188,10 +40188,10 @@
         <v>0.3451151314435275</v>
       </c>
       <c r="S608" t="n">
-        <v>71.14551279227847</v>
+        <v>46.80092554214305</v>
       </c>
       <c r="T608" t="n">
-        <v>0.3853293745592661</v>
+        <v>0.3089599309989459</v>
       </c>
     </row>
     <row r="609">
@@ -40252,10 +40252,10 @@
         <v>0.1038655444002965</v>
       </c>
       <c r="S609" t="n">
-        <v>28.51563797035093</v>
+        <v>20.2971875121741</v>
       </c>
       <c r="T609" t="n">
-        <v>-0.1793588362061747</v>
+        <v>-0.4515695866664277</v>
       </c>
     </row>
     <row r="610">
@@ -40318,10 +40318,10 @@
         <v>0.2391715798276455</v>
       </c>
       <c r="S610" t="n">
-        <v>47.45650570127712</v>
+        <v>32.33780079705258</v>
       </c>
       <c r="T610" t="n">
-        <v>0.3060488239076982</v>
+        <v>0.2597735364538347</v>
       </c>
     </row>
     <row r="611">
@@ -40380,10 +40380,10 @@
         <v>0.005448508408995467</v>
       </c>
       <c r="S611" t="n">
-        <v>18.35556483033511</v>
+        <v>13.56482804807353</v>
       </c>
       <c r="T611" t="n">
-        <v>-0.02333249043373486</v>
+        <v>-0.1601713575445006</v>
       </c>
     </row>
     <row r="612">
@@ -40446,10 +40446,10 @@
         <v>0.008076420472332035</v>
       </c>
       <c r="S612" t="n">
-        <v>18.05956562216421</v>
+        <v>13.36460701660723</v>
       </c>
       <c r="T612" t="n">
-        <v>0.08476890870289888</v>
+        <v>0.03881066048637316</v>
       </c>
     </row>
     <row r="613">
@@ -40504,7 +40504,7 @@
       <c r="Q613" t="inlineStr"/>
       <c r="R613" t="inlineStr"/>
       <c r="S613" t="n">
-        <v>9.658795428737857</v>
+        <v>7.543134399545883</v>
       </c>
       <c r="T613" t="inlineStr"/>
     </row>
@@ -40568,10 +40568,10 @@
         <v>-0.08208450040970405</v>
       </c>
       <c r="S614" t="n">
-        <v>12.14876342043332</v>
+        <v>9.301182709119747</v>
       </c>
       <c r="T614" t="n">
-        <v>-0.03151622348652872</v>
+        <v>-0.1215926721190456</v>
       </c>
     </row>
     <row r="615">
@@ -40634,10 +40634,10 @@
         <v>0.09348820593371587</v>
       </c>
       <c r="S615" t="n">
-        <v>24.22991330956321</v>
+        <v>17.48746706229965</v>
       </c>
       <c r="T615" t="n">
-        <v>0.3483980038738048</v>
+        <v>0.5255383362441244</v>
       </c>
     </row>
     <row r="616">
@@ -40696,10 +40696,10 @@
         <v>0.1717741394851013</v>
       </c>
       <c r="S616" t="n">
-        <v>33.07870246937229</v>
+        <v>23.24901244435461</v>
       </c>
       <c r="T616" t="n">
-        <v>0.490957534115255</v>
+        <v>0.7603754222142556</v>
       </c>
     </row>
     <row r="617">
@@ -40758,10 +40758,10 @@
         <v>0.1316665445880725</v>
       </c>
       <c r="S617" t="n">
-        <v>29.63453676559554</v>
+        <v>21.02455038856549</v>
       </c>
       <c r="T617" t="n">
-        <v>0.32319291223599</v>
+        <v>0.4155940333830548</v>
       </c>
     </row>
     <row r="618">
@@ -40820,10 +40820,10 @@
         <v>0.07262774193401977</v>
       </c>
       <c r="S618" t="n">
-        <v>24.43876930115593</v>
+        <v>17.62532347367446</v>
       </c>
       <c r="T618" t="n">
-        <v>0.05676553914805238</v>
+        <v>-0.06444013697139606</v>
       </c>
     </row>
     <row r="619">
@@ -40886,10 +40886,10 @@
         <v>0.4454612799167701</v>
       </c>
       <c r="S619" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T619" t="n">
-        <v>0.9091204067977727</v>
+        <v>1.405225965528272</v>
       </c>
     </row>
     <row r="620">
@@ -40952,10 +40952,10 @@
         <v>0.3673148034598646</v>
       </c>
       <c r="S620" t="n">
-        <v>72.49303321564469</v>
+        <v>47.60865134282969</v>
       </c>
       <c r="T620" t="n">
-        <v>0.7565854232740219</v>
+        <v>1.096788828143655</v>
       </c>
     </row>
     <row r="621">
@@ -41018,10 +41018,10 @@
         <v>0.2258444125167027</v>
       </c>
       <c r="S621" t="n">
-        <v>45.07637559470204</v>
+        <v>30.8524157957103</v>
       </c>
       <c r="T621" t="n">
-        <v>0.2875063491523804</v>
+        <v>0.2366224811214745</v>
       </c>
     </row>
     <row r="622">
@@ -41084,10 +41084,10 @@
         <v>0.09828973655634998</v>
       </c>
       <c r="S622" t="n">
-        <v>26.10210227163615</v>
+        <v>18.719703834138</v>
       </c>
       <c r="T622" t="n">
-        <v>0.2468806652115725</v>
+        <v>0.286948103225332</v>
       </c>
     </row>
     <row r="623">
@@ -41150,10 +41150,10 @@
         <v>0.9419527050610264</v>
       </c>
       <c r="S623" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T623" t="n">
-        <v>0.7624744813506201</v>
+        <v>1.049910590071831</v>
       </c>
     </row>
     <row r="624">
@@ -41216,10 +41216,10 @@
         <v>0.3915246183775809</v>
       </c>
       <c r="S624" t="n">
-        <v>61.2622982804845</v>
+        <v>40.83105801892629</v>
       </c>
       <c r="T624" t="n">
-        <v>1.151238113452701</v>
+        <v>2.250746417446197</v>
       </c>
     </row>
     <row r="625">
@@ -41282,10 +41282,10 @@
         <v>0.1385452543950114</v>
       </c>
       <c r="S625" t="n">
-        <v>31.07477336475703</v>
+        <v>21.9573330655906</v>
       </c>
       <c r="T625" t="n">
-        <v>0.2783385429240792</v>
+        <v>0.3095094398245966</v>
       </c>
     </row>
     <row r="626">
@@ -41344,10 +41344,10 @@
         <v>0.1266878754574905</v>
       </c>
       <c r="S626" t="n">
-        <v>29.01029004197908</v>
+        <v>20.61904393724945</v>
       </c>
       <c r="T626" t="n">
-        <v>0.3179311321983938</v>
+        <v>0.4099622205076954</v>
       </c>
     </row>
     <row r="627">
@@ -41406,10 +41406,10 @@
         <v>0.2040652338962767</v>
       </c>
       <c r="S627" t="n">
-        <v>35.40967931088787</v>
+        <v>24.74297184966862</v>
       </c>
       <c r="T627" t="n">
-        <v>0.6276252587897693</v>
+        <v>1.070793337533472</v>
       </c>
     </row>
     <row r="628">
@@ -41472,10 +41472,10 @@
         <v>-0.02289051285170918</v>
       </c>
       <c r="S628" t="n">
-        <v>15.30063031760479</v>
+        <v>11.48447423394507</v>
       </c>
       <c r="T628" t="n">
-        <v>0.1157831527061381</v>
+        <v>0.1283282863008113</v>
       </c>
     </row>
     <row r="629">
@@ -41538,10 +41538,10 @@
         <v>0.1712013221454372</v>
       </c>
       <c r="S629" t="n">
-        <v>30.51836482739692</v>
+        <v>21.59742279822686</v>
       </c>
       <c r="T629" t="n">
-        <v>0.5841712961836185</v>
+        <v>1.017900811725633</v>
       </c>
     </row>
     <row r="630">
@@ -41604,10 +41604,10 @@
         <v>0.1222120896384706</v>
       </c>
       <c r="S630" t="n">
-        <v>28.97595984563806</v>
+        <v>20.59672158551005</v>
       </c>
       <c r="T630" t="n">
-        <v>0.2649344615286413</v>
+        <v>0.2991345040527222</v>
       </c>
     </row>
     <row r="631">
@@ -41670,10 +41670,10 @@
         <v>0.01961878699205322</v>
       </c>
       <c r="S631" t="n">
-        <v>18.95118593463095</v>
+        <v>13.96690494515066</v>
       </c>
       <c r="T631" t="n">
-        <v>0.1044781458485391</v>
+        <v>0.06832176959365488</v>
       </c>
     </row>
     <row r="632">
@@ -41736,10 +41736,10 @@
         <v>0.124146331163324</v>
       </c>
       <c r="S632" t="n">
-        <v>29.78679443804727</v>
+        <v>21.12334358118505</v>
       </c>
       <c r="T632" t="n">
-        <v>0.1974525405219352</v>
+        <v>0.1582219976693802</v>
       </c>
     </row>
     <row r="633">
@@ -41802,10 +41802,10 @@
         <v>0.0865165795314855</v>
       </c>
       <c r="S633" t="n">
-        <v>23.99747730165397</v>
+        <v>17.33392752404852</v>
       </c>
       <c r="T633" t="n">
-        <v>0.3056308199913569</v>
+        <v>0.4327866183976994</v>
       </c>
     </row>
     <row r="634">
@@ -41864,10 +41864,10 @@
         <v>0.8713383735260292</v>
       </c>
       <c r="S634" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T634" t="n">
-        <v>0.9594595815025235</v>
+        <v>1.533738922344001</v>
       </c>
     </row>
     <row r="635">
@@ -41926,10 +41926,10 @@
         <v>0.005675904351593708</v>
       </c>
       <c r="S635" t="n">
-        <v>17.52224851928232</v>
+        <v>13.00044606899294</v>
       </c>
       <c r="T635" t="n">
-        <v>0.1314755173402813</v>
+        <v>0.1357843615308798</v>
       </c>
     </row>
     <row r="636">
@@ -41992,10 +41992,10 @@
         <v>3.297185057017774</v>
       </c>
       <c r="S636" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T636" t="n">
-        <v>0.8133990707900769</v>
+        <v>1.170081384803692</v>
       </c>
     </row>
     <row r="637">
@@ -42058,10 +42058,10 @@
         <v>0.2130313808517896</v>
       </c>
       <c r="S637" t="n">
-        <v>38.02354399216623</v>
+        <v>26.40804628531727</v>
       </c>
       <c r="T637" t="n">
-        <v>0.6004188084819568</v>
+        <v>0.9749113540308039</v>
       </c>
     </row>
     <row r="638">
@@ -42124,10 +42124,10 @@
         <v>-0.09959744385383995</v>
       </c>
       <c r="S638" t="n">
-        <v>11.42189109421015</v>
+        <v>8.791364424299065</v>
       </c>
       <c r="T638" t="n">
-        <v>-0.1083422872614845</v>
+        <v>-0.2495190491812095</v>
       </c>
     </row>
     <row r="639">
@@ -42186,10 +42186,10 @@
         <v>0.04355632438717083</v>
       </c>
       <c r="S639" t="n">
-        <v>18.99228471534822</v>
+        <v>13.99460937792246</v>
       </c>
       <c r="T639" t="n">
-        <v>0.3133486364044835</v>
+        <v>0.5100461024491467</v>
       </c>
     </row>
     <row r="640">
@@ -42252,10 +42252,10 @@
         <v>0.08001302954600709</v>
       </c>
       <c r="S640" t="n">
-        <v>25.24976021977045</v>
+        <v>18.15967877638231</v>
       </c>
       <c r="T640" t="n">
-        <v>0.05542990190638153</v>
+        <v>-0.07231044892081007</v>
       </c>
     </row>
     <row r="641">
@@ -42318,10 +42318,10 @@
         <v>0.1731734169318568</v>
       </c>
       <c r="S641" t="n">
-        <v>37.0299723332983</v>
+        <v>25.77634811936046</v>
       </c>
       <c r="T641" t="n">
-        <v>0.1464139332390286</v>
+        <v>0.01854193638704049</v>
       </c>
     </row>
     <row r="642">
@@ -42384,10 +42384,10 @@
         <v>-0.1706176009957429</v>
       </c>
       <c r="S642" t="n">
-        <v>8.184725332198857</v>
+        <v>6.484978361467483</v>
       </c>
       <c r="T642" t="n">
-        <v>-0.1644276136394719</v>
+        <v>-0.3171744762464768</v>
       </c>
     </row>
     <row r="643">
@@ -42442,7 +42442,7 @@
       <c r="Q643" t="inlineStr"/>
       <c r="R643" t="inlineStr"/>
       <c r="S643" t="n">
-        <v>78.93084261912129</v>
+        <v>50</v>
       </c>
       <c r="T643" t="inlineStr"/>
     </row>
@@ -42502,10 +42502,10 @@
         <v>0.3590500343605494</v>
       </c>
       <c r="S644" t="n">
-        <v>67.2817921577812</v>
+        <v>44.47689922907468</v>
       </c>
       <c r="T644" t="n">
-        <v>0.8514367084101822</v>
+        <v>1.363807214679192</v>
       </c>
     </row>
     <row r="645">
@@ -42564,10 +42564,10 @@
         <v>0.1115352113417898</v>
       </c>
       <c r="S645" t="n">
-        <v>24.03694211180075</v>
+        <v>17.36000555930736</v>
       </c>
       <c r="T645" t="n">
-        <v>0.4737424040831359</v>
+        <v>0.8249690812593953</v>
       </c>
     </row>
     <row r="646">
@@ -42630,10 +42630,10 @@
         <v>0.3158154830634554</v>
       </c>
       <c r="S646" t="n">
-        <v>61.88319736440946</v>
+        <v>41.20860191714046</v>
       </c>
       <c r="T646" t="n">
-        <v>0.5521593438009045</v>
+        <v>0.6889506600989268</v>
       </c>
     </row>
     <row r="647">
@@ -42696,10 +42696,10 @@
         <v>-0.170467049489476</v>
       </c>
       <c r="S647" t="n">
-        <v>8.238012070128397</v>
+        <v>6.523491251322131</v>
       </c>
       <c r="T647" t="n">
-        <v>-0.185413512868211</v>
+        <v>-0.3514112363297177</v>
       </c>
     </row>
     <row r="648">
@@ -42762,10 +42762,10 @@
         <v>0.232097301883629</v>
       </c>
       <c r="S648" t="n">
-        <v>45.04454553776846</v>
+        <v>30.83250453446837</v>
       </c>
       <c r="T648" t="n">
-        <v>0.4188576839766693</v>
+        <v>0.5020206293893601</v>
       </c>
     </row>
     <row r="649">
@@ -42828,10 +42828,10 @@
         <v>-0.008656366089677126</v>
       </c>
       <c r="S649" t="n">
-        <v>17.02318505394469</v>
+        <v>12.66137322082723</v>
       </c>
       <c r="T649" t="n">
-        <v>0.01987061676254465</v>
+        <v>-0.07291213180851797</v>
       </c>
     </row>
     <row r="650">
@@ -42894,10 +42894,10 @@
         <v>0.6028119050325407</v>
       </c>
       <c r="S650" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T650" t="n">
-        <v>0.6252918475843263</v>
+        <v>0.7432190278709347</v>
       </c>
     </row>
     <row r="651">
@@ -42960,10 +42960,10 @@
         <v>1.307731564439919</v>
       </c>
       <c r="S651" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T651" t="n">
-        <v>0.6935150279113957</v>
+        <v>0.8926371196802887</v>
       </c>
     </row>
     <row r="652">
@@ -43026,10 +43026,10 @@
         <v>0.200655655583388</v>
       </c>
       <c r="S652" t="n">
-        <v>40.02950574924316</v>
+        <v>27.67901901323589</v>
       </c>
       <c r="T652" t="n">
-        <v>0.3525894984576003</v>
+        <v>0.3966785266803345</v>
       </c>
     </row>
     <row r="653">
@@ -43088,10 +43088,10 @@
         <v>0.2961903032422728</v>
       </c>
       <c r="S653" t="n">
-        <v>58.85345075636693</v>
+        <v>39.3629598915875</v>
       </c>
       <c r="T653" t="n">
-        <v>0.3942799153262653</v>
+        <v>0.3763637722559718</v>
       </c>
     </row>
     <row r="654">
@@ -43154,10 +43154,10 @@
         <v>0.221620364050334</v>
       </c>
       <c r="S654" t="n">
-        <v>40.6393374114793</v>
+        <v>28.06427904712365</v>
       </c>
       <c r="T654" t="n">
-        <v>0.563559878288213</v>
+        <v>0.8608913943001593</v>
       </c>
     </row>
     <row r="655">
@@ -43220,10 +43220,10 @@
         <v>0.6040789474393264</v>
       </c>
       <c r="S655" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T655" t="n">
-        <v>0.8589541617676555</v>
+        <v>1.280481775455859</v>
       </c>
     </row>
     <row r="656">
@@ -43286,10 +43286,10 @@
         <v>0.3555053556360226</v>
       </c>
       <c r="S656" t="n">
-        <v>68.61721831509215</v>
+        <v>45.28153195633167</v>
       </c>
       <c r="T656" t="n">
-        <v>0.7692321951946277</v>
+        <v>1.15022341378015</v>
       </c>
     </row>
     <row r="657">
@@ -43352,10 +43352,10 @@
         <v>1.745641258830302</v>
       </c>
       <c r="S657" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T657" t="n">
-        <v>0.6468629309741742</v>
+        <v>0.7897985512060799</v>
       </c>
     </row>
     <row r="658">
@@ -43418,10 +43418,10 @@
         <v>0.3402153053055172</v>
       </c>
       <c r="S658" t="n">
-        <v>68.71352863598717</v>
+        <v>45.33950491362401</v>
       </c>
       <c r="T658" t="n">
-        <v>0.5137225772457692</v>
+        <v>0.5735718348093197</v>
       </c>
     </row>
     <row r="659">
@@ -43484,10 +43484,10 @@
         <v>0.1261805544510994</v>
       </c>
       <c r="S659" t="n">
-        <v>28.84150765850844</v>
+        <v>20.5092754431274</v>
       </c>
       <c r="T659" t="n">
-        <v>0.3260808864644336</v>
+        <v>0.4290094508107682</v>
       </c>
     </row>
     <row r="660">
@@ -43546,10 +43546,10 @@
         <v>0.06639171022607449</v>
       </c>
       <c r="S660" t="n">
-        <v>21.75407298430455</v>
+        <v>15.84530655918877</v>
       </c>
       <c r="T660" t="n">
-        <v>0.2975148717864207</v>
+        <v>0.4399153014462238</v>
       </c>
     </row>
     <row r="661">
@@ -43608,10 +43608,10 @@
         <v>0.03983664250445362</v>
       </c>
       <c r="S661" t="n">
-        <v>20.18591804496483</v>
+        <v>14.79707794804224</v>
       </c>
       <c r="T661" t="n">
-        <v>0.1901031195417351</v>
+        <v>0.2271925638113561</v>
       </c>
     </row>
     <row r="662">
@@ -43670,10 +43670,10 @@
         <v>0.1105113361560306</v>
       </c>
       <c r="S662" t="n">
-        <v>24.0837087277183</v>
+        <v>17.39090385441003</v>
       </c>
       <c r="T662" t="n">
-        <v>0.4664358314548116</v>
+        <v>0.8062861658244826</v>
       </c>
     </row>
     <row r="663">
@@ -43736,10 +43736,10 @@
         <v>0.9752282114894955</v>
       </c>
       <c r="S663" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T663" t="n">
-        <v>0.5390046631428209</v>
+        <v>0.5630364839145943</v>
       </c>
     </row>
     <row r="664">
@@ -43802,10 +43802,10 @@
         <v>0.5074976102037025</v>
       </c>
       <c r="S664" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T664" t="n">
-        <v>0.5954740334739677</v>
+        <v>0.6798431185471177</v>
       </c>
     </row>
     <row r="665">
@@ -43864,10 +43864,10 @@
         <v>0.2020419645967042</v>
       </c>
       <c r="S665" t="n">
-        <v>40.85381887104251</v>
+        <v>28.19965523995333</v>
       </c>
       <c r="T665" t="n">
-        <v>0.2865611819156859</v>
+        <v>0.2586633082759433</v>
       </c>
     </row>
     <row r="666">
@@ -43922,7 +43922,7 @@
       <c r="Q666" t="inlineStr"/>
       <c r="R666" t="inlineStr"/>
       <c r="S666" t="n">
-        <v>43.40128145931224</v>
+        <v>29.80283195315294</v>
       </c>
       <c r="T666" t="inlineStr"/>
     </row>
@@ -43986,10 +43986,10 @@
         <v>0.03401001091424849</v>
       </c>
       <c r="S667" t="n">
-        <v>21.08725827227738</v>
+        <v>15.40038350484817</v>
       </c>
       <c r="T667" t="n">
-        <v>-0.1034059106544656</v>
+        <v>-0.3087056143422469</v>
       </c>
     </row>
     <row r="668">
@@ -44052,10 +44052,10 @@
         <v>0.07095466396426531</v>
       </c>
       <c r="S668" t="n">
-        <v>24.38471442264262</v>
+        <v>17.58965394570576</v>
       </c>
       <c r="T668" t="n">
-        <v>0.02560760854105992</v>
+        <v>-0.1184429452971083</v>
       </c>
     </row>
     <row r="669">
@@ -44114,10 +44114,10 @@
         <v>-0.09258617351720122</v>
       </c>
       <c r="S669" t="n">
-        <v>11.04793396189347</v>
+        <v>8.528036072351888</v>
       </c>
       <c r="T669" t="n">
-        <v>0.05324722816167116</v>
+        <v>0.05143944009642776</v>
       </c>
     </row>
     <row r="670">
@@ -44176,10 +44176,10 @@
         <v>-0.042748556299118</v>
       </c>
       <c r="S670" t="n">
-        <v>14.06985426798896</v>
+        <v>10.63684444405231</v>
       </c>
       <c r="T670" t="n">
-        <v>0.08290757325860643</v>
+        <v>0.07615540032278956</v>
       </c>
     </row>
     <row r="671">
@@ -44242,10 +44242,10 @@
         <v>0.1355819124224329</v>
       </c>
       <c r="S671" t="n">
-        <v>26.08650402259163</v>
+        <v>18.70946931359228</v>
       </c>
       <c r="T671" t="n">
-        <v>0.5304747981243556</v>
+        <v>0.9391489939560762</v>
       </c>
     </row>
     <row r="672">
@@ -44308,10 +44308,10 @@
         <v>0.08701522568452957</v>
       </c>
       <c r="S672" t="n">
-        <v>25.66452311495556</v>
+        <v>18.43239415034761</v>
       </c>
       <c r="T672" t="n">
-        <v>0.1300059460929002</v>
+        <v>0.06026791229872286</v>
       </c>
     </row>
     <row r="673">
@@ -44374,10 +44374,10 @@
         <v>-0.1966945036707337</v>
       </c>
       <c r="S673" t="n">
-        <v>7.374376716596104</v>
+        <v>5.896628485978541</v>
       </c>
       <c r="T673" t="n">
-        <v>-0.2746185856437192</v>
+        <v>-0.481034862183837</v>
       </c>
     </row>
     <row r="674">
@@ -44436,10 +44436,10 @@
         <v>1.63923511409955</v>
       </c>
       <c r="S674" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T674" t="n">
-        <v>0.9200054190663416</v>
+        <v>1.432731355344032</v>
       </c>
     </row>
     <row r="675">
@@ -44502,10 +44502,10 @@
         <v>0.6162634802780131</v>
       </c>
       <c r="S675" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T675" t="n">
-        <v>0.59326311762613</v>
+        <v>0.6751906850043974</v>
       </c>
     </row>
     <row r="676">
@@ -44568,10 +44568,10 @@
         <v>0.191619322400842</v>
       </c>
       <c r="S676" t="n">
-        <v>38.53688296896276</v>
+        <v>26.73384816173353</v>
       </c>
       <c r="T676" t="n">
-        <v>0.3480771075515696</v>
+        <v>0.3976090504783425</v>
       </c>
     </row>
     <row r="677">
@@ -44634,10 +44634,10 @@
         <v>0.305213005498548</v>
       </c>
       <c r="S677" t="n">
-        <v>58.81062890855614</v>
+        <v>39.33681229191601</v>
       </c>
       <c r="T677" t="n">
-        <v>0.5805784166544228</v>
+        <v>0.7689988644042791</v>
       </c>
     </row>
     <row r="678">
@@ -44700,10 +44700,10 @@
         <v>0.08187596868435021</v>
       </c>
       <c r="S678" t="n">
-        <v>24.63776290393327</v>
+        <v>17.75657683239638</v>
       </c>
       <c r="T678" t="n">
-        <v>0.1934001934378202</v>
+        <v>0.1913784538886569</v>
       </c>
     </row>
     <row r="679">
@@ -44762,10 +44762,10 @@
         <v>0.006726153850929562</v>
       </c>
       <c r="S679" t="n">
-        <v>17.58056928542554</v>
+        <v>13.04001710314371</v>
       </c>
       <c r="T679" t="n">
-        <v>0.1355723777959672</v>
+        <v>0.143406594845392</v>
       </c>
     </row>
     <row r="680">
@@ -44828,10 +44828,10 @@
         <v>0.03877533009699041</v>
       </c>
       <c r="S680" t="n">
-        <v>20.88388683660341</v>
+        <v>15.26445169295636</v>
       </c>
       <c r="T680" t="n">
-        <v>0.07966935874570269</v>
+        <v>0.004113194529330677</v>
       </c>
     </row>
     <row r="681">
@@ -44890,10 +44890,10 @@
         <v>-0.0612093343835135</v>
       </c>
       <c r="S681" t="n">
-        <v>13.0706851206126</v>
+        <v>9.944192356655583</v>
       </c>
       <c r="T681" t="n">
-        <v>0.04272578074995881</v>
+        <v>0.008249858065305871</v>
       </c>
     </row>
     <row r="682">
@@ -44956,10 +44956,10 @@
         <v>-0.08836803228552448</v>
       </c>
       <c r="S682" t="n">
-        <v>11.91885673504876</v>
+        <v>9.140210234392232</v>
       </c>
       <c r="T682" t="n">
-        <v>-0.06641175997981763</v>
+        <v>-0.1817181481714465</v>
       </c>
     </row>
     <row r="683">
@@ -45022,10 +45022,10 @@
         <v>0.1980192283326474</v>
       </c>
       <c r="S683" t="n">
-        <v>35.72425771494634</v>
+        <v>24.94391960592215</v>
       </c>
       <c r="T683" t="n">
-        <v>0.5773265996484378</v>
+        <v>0.9414880406219639</v>
       </c>
     </row>
     <row r="684">
@@ -45088,10 +45088,10 @@
         <v>0.07381930804441339</v>
       </c>
       <c r="S684" t="n">
-        <v>24.28890118504144</v>
+        <v>17.52641251215901</v>
       </c>
       <c r="T684" t="n">
-        <v>0.1128176420655116</v>
+        <v>0.03859088413538436</v>
       </c>
     </row>
     <row r="685">
@@ -45154,10 +45154,10 @@
         <v>0.03539322996117122</v>
       </c>
       <c r="S685" t="n">
-        <v>21.2147038299869</v>
+        <v>15.48551060719668</v>
       </c>
       <c r="T685" t="n">
-        <v>-0.103211414317114</v>
+        <v>-0.3091296487218694</v>
       </c>
     </row>
     <row r="686">
@@ -45220,10 +45220,10 @@
         <v>1.87586278904781</v>
       </c>
       <c r="S686" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T686" t="n">
-        <v>0.5358359606421448</v>
+        <v>0.5566067452626999</v>
       </c>
     </row>
     <row r="687">
@@ -45286,10 +45286,10 @@
         <v>1.295040030160171</v>
       </c>
       <c r="S687" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T687" t="n">
-        <v>0.675634137936056</v>
+        <v>0.8528814920536327</v>
       </c>
     </row>
     <row r="688">
@@ -45352,10 +45352,10 @@
         <v>0.188190515412723</v>
       </c>
       <c r="S688" t="n">
-        <v>31.24490484902901</v>
+        <v>22.0672699837657</v>
       </c>
       <c r="T688" t="n">
-        <v>0.6527624122135387</v>
+        <v>1.186704710259407</v>
       </c>
     </row>
     <row r="689">
@@ -45414,10 +45414,10 @@
         <v>0.521027102144807</v>
       </c>
       <c r="S689" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T689" t="n">
-        <v>0.8979952967435705</v>
+        <v>1.377275462035187</v>
       </c>
     </row>
     <row r="690">
@@ -45476,10 +45476,10 @@
         <v>0.04463469892331351</v>
       </c>
       <c r="S690" t="n">
-        <v>20.18004902857977</v>
+        <v>14.79314222455057</v>
       </c>
       <c r="T690" t="n">
-        <v>0.2370935835263699</v>
+        <v>0.3260816482967472</v>
       </c>
     </row>
     <row r="691">
@@ -45542,10 +45542,10 @@
         <v>0.09336520602660214</v>
       </c>
       <c r="S691" t="n">
-        <v>24.64950892735101</v>
+        <v>17.76432151275392</v>
       </c>
       <c r="T691" t="n">
-        <v>0.3192584507221286</v>
+        <v>0.4557937194287216</v>
       </c>
     </row>
     <row r="692">
@@ -45608,10 +45608,10 @@
         <v>0.1289414111054432</v>
       </c>
       <c r="S692" t="n">
-        <v>30.51438670533685</v>
+        <v>21.59484753534511</v>
       </c>
       <c r="T692" t="n">
-        <v>0.1834671709102873</v>
+        <v>0.1262080321473527</v>
       </c>
     </row>
     <row r="693">
@@ -45670,10 +45670,10 @@
         <v>-0.04042972076038764</v>
       </c>
       <c r="S693" t="n">
-        <v>13.32244933900347</v>
+        <v>10.11912440880049</v>
       </c>
       <c r="T693" t="n">
-        <v>0.1803443910845635</v>
+        <v>0.2885209660637966</v>
       </c>
     </row>
     <row r="694">
@@ -45732,10 +45732,10 @@
         <v>0.1729693922981936</v>
       </c>
       <c r="S694" t="n">
-        <v>34.43236013114549</v>
+        <v>24.1176718573365</v>
       </c>
       <c r="T694" t="n">
-        <v>0.4275036010241628</v>
+        <v>0.6014315418628284</v>
       </c>
     </row>
     <row r="695">
@@ -45798,10 +45798,10 @@
         <v>-0.005952745180481944</v>
       </c>
       <c r="S695" t="n">
-        <v>16.48400768922743</v>
+        <v>12.29411010179382</v>
       </c>
       <c r="T695" t="n">
-        <v>0.1375637177437683</v>
+        <v>0.1593309237706206</v>
       </c>
     </row>
     <row r="696">
@@ -45864,10 +45864,10 @@
         <v>0.20473527505253</v>
       </c>
       <c r="S696" t="n">
-        <v>42.28691322059612</v>
+        <v>29.1025935907902</v>
       </c>
       <c r="T696" t="n">
-        <v>0.1007905059674647</v>
+        <v>-0.0847271373385825</v>
       </c>
     </row>
     <row r="697">
@@ -45930,10 +45930,10 @@
         <v>0.7037993787044954</v>
       </c>
       <c r="S697" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T697" t="n">
-        <v>0.6217343370630248</v>
+        <v>0.7355961102251858</v>
       </c>
     </row>
     <row r="698">
@@ -45988,7 +45988,7 @@
       <c r="Q698" t="inlineStr"/>
       <c r="R698" t="inlineStr"/>
       <c r="S698" t="n">
-        <v>2.179211310185424</v>
+        <v>1.942647856289091</v>
       </c>
       <c r="T698" t="inlineStr"/>
     </row>
@@ -46052,10 +46052,10 @@
         <v>0.02834724493653362</v>
       </c>
       <c r="S699" t="n">
-        <v>20.02328031975764</v>
+        <v>14.68797838385894</v>
       </c>
       <c r="T699" t="n">
-        <v>0.05682398991759752</v>
+        <v>-0.03094201651322126</v>
       </c>
     </row>
     <row r="700">
@@ -46118,10 +46118,10 @@
         <v>0.4612197165890368</v>
       </c>
       <c r="S700" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T700" t="n">
-        <v>0.7077215702052084</v>
+        <v>0.9245241794608945</v>
       </c>
     </row>
     <row r="701">
@@ -46184,10 +46184,10 @@
         <v>0.02101242275191262</v>
       </c>
       <c r="S701" t="n">
-        <v>18.92675689252865</v>
+        <v>13.95043508883598</v>
       </c>
       <c r="T701" t="n">
-        <v>0.1261150225475101</v>
+        <v>0.1108288507753485</v>
       </c>
     </row>
     <row r="702">
@@ -46250,10 +46250,10 @@
         <v>-0.03325338778835174</v>
       </c>
       <c r="S702" t="n">
-        <v>14.26718084427143</v>
+        <v>10.77314450072024</v>
       </c>
       <c r="T702" t="n">
-        <v>0.1427035274517887</v>
+        <v>0.1958532873031367</v>
       </c>
     </row>
     <row r="703">
@@ -46312,10 +46312,10 @@
         <v>-0.001758415023482174</v>
       </c>
       <c r="S703" t="n">
-        <v>17.08239348955338</v>
+        <v>12.70164353435525</v>
       </c>
       <c r="T703" t="n">
-        <v>0.1059232611897147</v>
+        <v>0.08952883758277341</v>
       </c>
     </row>
     <row r="704">
@@ -46378,10 +46378,10 @@
         <v>0.08784462035858742</v>
       </c>
       <c r="S704" t="n">
-        <v>25.0213858114018</v>
+        <v>18.00935482769349</v>
       </c>
       <c r="T704" t="n">
-        <v>0.2287980003453083</v>
+        <v>0.259569456267007</v>
       </c>
     </row>
     <row r="705">
@@ -46444,10 +46444,10 @@
         <v>-0.05186014396651517</v>
       </c>
       <c r="S705" t="n">
-        <v>13.31210178422034</v>
+        <v>10.1119401144017</v>
       </c>
       <c r="T705" t="n">
-        <v>0.09786715129329249</v>
+        <v>0.1148613896110735</v>
       </c>
     </row>
     <row r="706">
@@ -46510,10 +46510,10 @@
         <v>0.1673943108052349</v>
       </c>
       <c r="S706" t="n">
-        <v>34.45841202625427</v>
+        <v>24.13436010053097</v>
       </c>
       <c r="T706" t="n">
-        <v>0.3612505565613007</v>
+        <v>0.4560199591614607</v>
       </c>
     </row>
     <row r="707">
@@ -46576,10 +46576,10 @@
         <v>-0.1104845423018489</v>
       </c>
       <c r="S707" t="n">
-        <v>10.52317171250962</v>
+        <v>8.157260767698116</v>
       </c>
       <c r="T707" t="n">
-        <v>-0.02775059057773988</v>
+        <v>-0.09886766142689962</v>
       </c>
     </row>
     <row r="708">
@@ -46642,10 +46642,10 @@
         <v>0.1189174375493434</v>
       </c>
       <c r="S708" t="n">
-        <v>28.16772438402098</v>
+        <v>20.07052215157102</v>
       </c>
       <c r="T708" t="n">
-        <v>0.3003605144582779</v>
+        <v>0.3801754015970991</v>
       </c>
     </row>
     <row r="709">
@@ -46700,7 +46700,7 @@
       <c r="Q709" t="inlineStr"/>
       <c r="R709" t="inlineStr"/>
       <c r="S709" t="n">
-        <v>79.49405534513394</v>
+        <v>50</v>
       </c>
       <c r="T709" t="inlineStr"/>
     </row>
@@ -46752,7 +46752,7 @@
       <c r="Q710" t="inlineStr"/>
       <c r="R710" t="inlineStr"/>
       <c r="S710" t="n">
-        <v>65.23105054052623</v>
+        <v>43.23835954490009</v>
       </c>
       <c r="T710" t="inlineStr"/>
     </row>
